--- a/output_validation/final__OCHA__platform_output.xlsx
+++ b/output_validation/final__OCHA__platform_output.xlsx
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="E6" s="9" t="n">
-        <v>1050893</v>
+        <v>985277</v>
       </c>
       <c r="F6" s="10" t="n"/>
       <c r="G6" s="10" t="n"/>
@@ -801,34 +801,34 @@
         <v>2833958</v>
       </c>
       <c r="K6" s="9" t="n">
-        <v>62.9</v>
+        <v>65.2</v>
       </c>
       <c r="L6" s="9" t="n">
-        <v>1783065</v>
+        <v>1848682</v>
       </c>
       <c r="M6" s="9" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="N6" s="9" t="n">
-        <v>896590</v>
+        <v>889297</v>
       </c>
       <c r="O6" s="9" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="P6" s="9" t="n">
-        <v>129949</v>
+        <v>84060</v>
       </c>
       <c r="Q6" s="9" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="R6" s="9" t="n">
-        <v>24355</v>
+        <v>11919</v>
       </c>
       <c r="S6" s="9" t="n">
-        <v>37.1</v>
+        <v>34.8</v>
       </c>
       <c r="T6" s="9" t="n">
-        <v>1050893</v>
+        <v>985277</v>
       </c>
     </row>
     <row r="7">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="E7" s="11" t="n">
-        <v>826821</v>
+        <v>754057</v>
       </c>
       <c r="F7" s="4" t="n"/>
       <c r="G7" s="4" t="n"/>
@@ -863,34 +863,34 @@
         <v>2471589</v>
       </c>
       <c r="K7" s="11" t="n">
-        <v>66.5</v>
+        <v>69.5</v>
       </c>
       <c r="L7" s="11" t="n">
-        <v>1644768</v>
+        <v>1717531</v>
       </c>
       <c r="M7" s="11" t="n">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="N7" s="11" t="n">
-        <v>703296</v>
+        <v>692445</v>
       </c>
       <c r="O7" s="11" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="P7" s="11" t="n">
-        <v>107447</v>
+        <v>50253</v>
       </c>
       <c r="Q7" s="11" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="11" t="n">
-        <v>16079</v>
+        <v>11360</v>
       </c>
       <c r="S7" s="11" t="n">
-        <v>33.5</v>
+        <v>30.5</v>
       </c>
       <c r="T7" s="11" t="n">
-        <v>826821</v>
+        <v>754057</v>
       </c>
     </row>
     <row r="8">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E8" s="11" t="n">
-        <v>143427</v>
+        <v>152052</v>
       </c>
       <c r="F8" s="4" t="n"/>
       <c r="G8" s="4" t="n"/>
@@ -925,34 +925,34 @@
         <v>226810</v>
       </c>
       <c r="K8" s="11" t="n">
-        <v>36.8</v>
+        <v>33</v>
       </c>
       <c r="L8" s="11" t="n">
-        <v>83383</v>
+        <v>74758</v>
       </c>
       <c r="M8" s="11" t="n">
-        <v>54.8</v>
+        <v>57.5</v>
       </c>
       <c r="N8" s="11" t="n">
-        <v>124350</v>
+        <v>130460</v>
       </c>
       <c r="O8" s="11" t="n">
-        <v>5.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="P8" s="11" t="n">
-        <v>12235</v>
+        <v>21134</v>
       </c>
       <c r="Q8" s="11" t="n">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="R8" s="11" t="n">
-        <v>6842</v>
+        <v>458</v>
       </c>
       <c r="S8" s="11" t="n">
-        <v>63.2</v>
+        <v>67</v>
       </c>
       <c r="T8" s="11" t="n">
-        <v>143427</v>
+        <v>152052</v>
       </c>
     </row>
     <row r="9">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="E9" s="11" t="n">
-        <v>65585</v>
+        <v>64922</v>
       </c>
       <c r="F9" s="4" t="n"/>
       <c r="G9" s="4" t="n"/>
@@ -987,34 +987,34 @@
         <v>113405</v>
       </c>
       <c r="K9" s="11" t="n">
-        <v>42.2</v>
+        <v>42.8</v>
       </c>
       <c r="L9" s="11" t="n">
-        <v>47820</v>
+        <v>48483</v>
       </c>
       <c r="M9" s="11" t="n">
-        <v>48.9</v>
+        <v>48.2</v>
       </c>
       <c r="N9" s="11" t="n">
-        <v>55452</v>
+        <v>54644</v>
       </c>
       <c r="O9" s="11" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="P9" s="11" t="n">
-        <v>8760</v>
+        <v>10176</v>
       </c>
       <c r="Q9" s="11" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="R9" s="11" t="n">
-        <v>1373</v>
+        <v>102</v>
       </c>
       <c r="S9" s="11" t="n">
-        <v>57.8</v>
+        <v>57.2</v>
       </c>
       <c r="T9" s="11" t="n">
-        <v>65585</v>
+        <v>64922</v>
       </c>
     </row>
     <row r="10">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="E10" s="11" t="n">
-        <v>15060</v>
+        <v>14245</v>
       </c>
       <c r="F10" s="4" t="n"/>
       <c r="G10" s="4" t="n"/>
@@ -1049,34 +1049,34 @@
         <v>22154</v>
       </c>
       <c r="K10" s="11" t="n">
-        <v>32</v>
+        <v>35.7</v>
       </c>
       <c r="L10" s="11" t="n">
-        <v>7094</v>
+        <v>7909</v>
       </c>
       <c r="M10" s="11" t="n">
-        <v>60.9</v>
+        <v>53</v>
       </c>
       <c r="N10" s="11" t="n">
-        <v>13492</v>
+        <v>11747</v>
       </c>
       <c r="O10" s="11" t="n">
-        <v>6.8</v>
+        <v>11.3</v>
       </c>
       <c r="P10" s="11" t="n">
-        <v>1507</v>
+        <v>2498</v>
       </c>
       <c r="Q10" s="11" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="R10" s="11" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="S10" s="11" t="n">
-        <v>68</v>
+        <v>64.3</v>
       </c>
       <c r="T10" s="11" t="n">
-        <v>15060</v>
+        <v>14245</v>
       </c>
     </row>
     <row r="11">
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="E11" s="12" t="n">
-        <v>452230</v>
+        <v>424978</v>
       </c>
       <c r="F11" s="4" t="n"/>
       <c r="G11" s="4" t="n"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="E12" s="12" t="n">
-        <v>598663</v>
+        <v>560299</v>
       </c>
       <c r="F12" s="4" t="n"/>
       <c r="G12" s="4" t="n"/>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="E13" s="13" t="n">
-        <v>108050</v>
+        <v>102319</v>
       </c>
       <c r="F13" s="4" t="n"/>
       <c r="G13" s="4" t="n"/>
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="E14" s="13" t="n">
-        <v>105089</v>
+        <v>98528</v>
       </c>
       <c r="F14" s="4" t="n"/>
       <c r="G14" s="4" t="n"/>
@@ -1221,6 +1221,1006 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="38" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
+    <col width="23" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="33" customWidth="1" min="15" max="15"/>
+    <col width="33" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Overall PiN and severity (5-17 y.o.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="14" t="n"/>
+      <c r="B5" s="14" t="n"/>
+      <c r="C5" s="14" t="n"/>
+      <c r="D5" s="14" t="n"/>
+      <c r="E5" s="15" t="inlineStr">
+        <is>
+          <t>admin1</t>
+        </is>
+      </c>
+      <c r="F5" s="15" t="inlineStr">
+        <is>
+          <t>TotN</t>
+        </is>
+      </c>
+      <c r="G5" s="16" t="inlineStr">
+        <is>
+          <t>% severity levels 1-2</t>
+        </is>
+      </c>
+      <c r="H5" s="16" t="inlineStr">
+        <is>
+          <t># severity levels 1-2</t>
+        </is>
+      </c>
+      <c r="I5" s="17" t="inlineStr">
+        <is>
+          <t>% severity level 3</t>
+        </is>
+      </c>
+      <c r="J5" s="17" t="inlineStr">
+        <is>
+          <t># severity level 3</t>
+        </is>
+      </c>
+      <c r="K5" s="18" t="inlineStr">
+        <is>
+          <t>% severity level 4</t>
+        </is>
+      </c>
+      <c r="L5" s="18" t="inlineStr">
+        <is>
+          <t># severity level 4</t>
+        </is>
+      </c>
+      <c r="M5" s="19" t="inlineStr">
+        <is>
+          <t>% severity level 5</t>
+        </is>
+      </c>
+      <c r="N5" s="19" t="inlineStr">
+        <is>
+          <t># severity level 5</t>
+        </is>
+      </c>
+      <c r="O5" s="20" t="inlineStr">
+        <is>
+          <t>% Tot PiN (severity levels 3-5)</t>
+        </is>
+      </c>
+      <c r="P5" s="20" t="inlineStr">
+        <is>
+          <t># Tot PiN (severity levels 3-5)</t>
+        </is>
+      </c>
+      <c r="Q5" s="20" t="inlineStr">
+        <is>
+          <t>Area severity</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="n"/>
+      <c r="B6" s="21" t="n"/>
+      <c r="C6" s="21" t="n"/>
+      <c r="D6" s="21" t="n"/>
+      <c r="E6" s="22" t="inlineStr">
+        <is>
+          <t>MMR001</t>
+        </is>
+      </c>
+      <c r="F6" s="22" t="n">
+        <v>114297</v>
+      </c>
+      <c r="G6" s="23" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="H6" s="23" t="n">
+        <v>99264</v>
+      </c>
+      <c r="I6" s="24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J6" s="24" t="n">
+        <v>4653</v>
+      </c>
+      <c r="K6" s="25" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="L6" s="25" t="n">
+        <v>10380</v>
+      </c>
+      <c r="M6" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="27" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="P6" s="27" t="n">
+        <v>15033</v>
+      </c>
+      <c r="Q6" s="28" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="n"/>
+      <c r="B7" s="21" t="n"/>
+      <c r="C7" s="21" t="n"/>
+      <c r="D7" s="21" t="n"/>
+      <c r="E7" s="22" t="inlineStr">
+        <is>
+          <t>MMR002</t>
+        </is>
+      </c>
+      <c r="F7" s="22" t="n">
+        <v>59845</v>
+      </c>
+      <c r="G7" s="23" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="H7" s="23" t="n">
+        <v>18242</v>
+      </c>
+      <c r="I7" s="24" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="J7" s="24" t="n">
+        <v>39317</v>
+      </c>
+      <c r="K7" s="25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L7" s="25" t="n">
+        <v>2184</v>
+      </c>
+      <c r="M7" s="26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N7" s="26" t="n">
+        <v>102</v>
+      </c>
+      <c r="O7" s="27" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="P7" s="27" t="n">
+        <v>41604</v>
+      </c>
+      <c r="Q7" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="21" t="n"/>
+      <c r="B8" s="21" t="n"/>
+      <c r="C8" s="21" t="n"/>
+      <c r="D8" s="21" t="n"/>
+      <c r="E8" s="22" t="inlineStr">
+        <is>
+          <t>MMR003</t>
+        </is>
+      </c>
+      <c r="F8" s="22" t="n">
+        <v>86336</v>
+      </c>
+      <c r="G8" s="23" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="H8" s="23" t="n">
+        <v>57184</v>
+      </c>
+      <c r="I8" s="24" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J8" s="24" t="n">
+        <v>29152</v>
+      </c>
+      <c r="K8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="27" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="P8" s="27" t="n">
+        <v>29152</v>
+      </c>
+      <c r="Q8" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="n"/>
+      <c r="B9" s="21" t="n"/>
+      <c r="C9" s="21" t="n"/>
+      <c r="D9" s="21" t="n"/>
+      <c r="E9" s="22" t="inlineStr">
+        <is>
+          <t>MMR004</t>
+        </is>
+      </c>
+      <c r="F9" s="22" t="n">
+        <v>96362</v>
+      </c>
+      <c r="G9" s="23" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="H9" s="23" t="n">
+        <v>15230</v>
+      </c>
+      <c r="I9" s="24" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="J9" s="24" t="n">
+        <v>70783</v>
+      </c>
+      <c r="K9" s="25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L9" s="25" t="n">
+        <v>3617</v>
+      </c>
+      <c r="M9" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="N9" s="26" t="n">
+        <v>6732</v>
+      </c>
+      <c r="O9" s="27" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="P9" s="27" t="n">
+        <v>81132</v>
+      </c>
+      <c r="Q9" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="n"/>
+      <c r="B10" s="21" t="n"/>
+      <c r="C10" s="21" t="n"/>
+      <c r="D10" s="21" t="n"/>
+      <c r="E10" s="22" t="inlineStr">
+        <is>
+          <t>MMR005</t>
+        </is>
+      </c>
+      <c r="F10" s="22" t="n">
+        <v>251037</v>
+      </c>
+      <c r="G10" s="23" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="H10" s="23" t="n">
+        <v>27988</v>
+      </c>
+      <c r="I10" s="24" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="J10" s="24" t="n">
+        <v>220651</v>
+      </c>
+      <c r="K10" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="25" t="n">
+        <v>2398</v>
+      </c>
+      <c r="M10" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="27" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="P10" s="27" t="n">
+        <v>223050</v>
+      </c>
+      <c r="Q10" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="n"/>
+      <c r="B11" s="21" t="n"/>
+      <c r="C11" s="21" t="n"/>
+      <c r="D11" s="21" t="n"/>
+      <c r="E11" s="22" t="inlineStr">
+        <is>
+          <t>MMR006</t>
+        </is>
+      </c>
+      <c r="F11" s="22" t="n">
+        <v>345131</v>
+      </c>
+      <c r="G11" s="23" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="H11" s="23" t="n">
+        <v>221321</v>
+      </c>
+      <c r="I11" s="24" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J11" s="24" t="n">
+        <v>92961</v>
+      </c>
+      <c r="K11" s="25" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="L11" s="25" t="n">
+        <v>30848</v>
+      </c>
+      <c r="M11" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="27" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="P11" s="27" t="n">
+        <v>123809</v>
+      </c>
+      <c r="Q11" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="21" t="n"/>
+      <c r="B12" s="21" t="n"/>
+      <c r="C12" s="21" t="n"/>
+      <c r="D12" s="21" t="n"/>
+      <c r="E12" s="22" t="inlineStr">
+        <is>
+          <t>MMR007</t>
+        </is>
+      </c>
+      <c r="F12" s="22" t="n">
+        <v>138589</v>
+      </c>
+      <c r="G12" s="23" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="H12" s="23" t="n">
+        <v>109141</v>
+      </c>
+      <c r="I12" s="24" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J12" s="24" t="n">
+        <v>23294</v>
+      </c>
+      <c r="K12" s="25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L12" s="25" t="n">
+        <v>6154</v>
+      </c>
+      <c r="M12" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="27" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="P12" s="27" t="n">
+        <v>29448</v>
+      </c>
+      <c r="Q12" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="21" t="n"/>
+      <c r="B13" s="21" t="n"/>
+      <c r="C13" s="21" t="n"/>
+      <c r="D13" s="21" t="n"/>
+      <c r="E13" s="22" t="inlineStr">
+        <is>
+          <t>MMR008</t>
+        </is>
+      </c>
+      <c r="F13" s="22" t="n">
+        <v>82380</v>
+      </c>
+      <c r="G13" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="H13" s="23" t="n">
+        <v>82380</v>
+      </c>
+      <c r="I13" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="28" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="21" t="n"/>
+      <c r="B14" s="21" t="n"/>
+      <c r="C14" s="21" t="n"/>
+      <c r="D14" s="21" t="n"/>
+      <c r="E14" s="22" t="inlineStr">
+        <is>
+          <t>MMR009</t>
+        </is>
+      </c>
+      <c r="F14" s="22" t="n">
+        <v>94677</v>
+      </c>
+      <c r="G14" s="23" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="H14" s="23" t="n">
+        <v>57184</v>
+      </c>
+      <c r="I14" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="J14" s="24" t="n">
+        <v>35038</v>
+      </c>
+      <c r="K14" s="25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L14" s="25" t="n">
+        <v>2456</v>
+      </c>
+      <c r="M14" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="27" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="P14" s="27" t="n">
+        <v>37494</v>
+      </c>
+      <c r="Q14" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="21" t="n"/>
+      <c r="B15" s="21" t="n"/>
+      <c r="C15" s="21" t="n"/>
+      <c r="D15" s="21" t="n"/>
+      <c r="E15" s="22" t="inlineStr">
+        <is>
+          <t>MMR010</t>
+        </is>
+      </c>
+      <c r="F15" s="22" t="n">
+        <v>469612</v>
+      </c>
+      <c r="G15" s="23" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="H15" s="23" t="n">
+        <v>404809</v>
+      </c>
+      <c r="I15" s="24" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="J15" s="24" t="n">
+        <v>64803</v>
+      </c>
+      <c r="K15" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="27" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="P15" s="27" t="n">
+        <v>64803</v>
+      </c>
+      <c r="Q15" s="28" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="21" t="n"/>
+      <c r="B16" s="21" t="n"/>
+      <c r="C16" s="21" t="n"/>
+      <c r="D16" s="21" t="n"/>
+      <c r="E16" s="22" t="inlineStr">
+        <is>
+          <t>MMR011</t>
+        </is>
+      </c>
+      <c r="F16" s="22" t="n">
+        <v>113855</v>
+      </c>
+      <c r="G16" s="23" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="H16" s="23" t="n">
+        <v>82295</v>
+      </c>
+      <c r="I16" s="24" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J16" s="24" t="n">
+        <v>20995</v>
+      </c>
+      <c r="K16" s="25" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="L16" s="25" t="n">
+        <v>10565</v>
+      </c>
+      <c r="M16" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="27" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="P16" s="27" t="n">
+        <v>31560</v>
+      </c>
+      <c r="Q16" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="21" t="n"/>
+      <c r="B17" s="21" t="n"/>
+      <c r="C17" s="21" t="n"/>
+      <c r="D17" s="21" t="n"/>
+      <c r="E17" s="22" t="inlineStr">
+        <is>
+          <t>MMR012</t>
+        </is>
+      </c>
+      <c r="F17" s="22" t="n">
+        <v>147696</v>
+      </c>
+      <c r="G17" s="23" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="H17" s="23" t="n">
+        <v>47897</v>
+      </c>
+      <c r="I17" s="24" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="J17" s="24" t="n">
+        <v>85960</v>
+      </c>
+      <c r="K17" s="25" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L17" s="25" t="n">
+        <v>8754</v>
+      </c>
+      <c r="M17" s="26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N17" s="26" t="n">
+        <v>5086</v>
+      </c>
+      <c r="O17" s="27" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="P17" s="27" t="n">
+        <v>99799</v>
+      </c>
+      <c r="Q17" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="21" t="n"/>
+      <c r="B18" s="21" t="n"/>
+      <c r="C18" s="21" t="n"/>
+      <c r="D18" s="21" t="n"/>
+      <c r="E18" s="22" t="inlineStr">
+        <is>
+          <t>MMR013</t>
+        </is>
+      </c>
+      <c r="F18" s="22" t="n">
+        <v>94050</v>
+      </c>
+      <c r="G18" s="23" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="H18" s="23" t="n">
+        <v>52237</v>
+      </c>
+      <c r="I18" s="24" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="J18" s="24" t="n">
+        <v>38011</v>
+      </c>
+      <c r="K18" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" s="25" t="n">
+        <v>3802</v>
+      </c>
+      <c r="M18" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="27" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="P18" s="27" t="n">
+        <v>41813</v>
+      </c>
+      <c r="Q18" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="21" t="n"/>
+      <c r="B19" s="21" t="n"/>
+      <c r="C19" s="21" t="n"/>
+      <c r="D19" s="21" t="n"/>
+      <c r="E19" s="22" t="inlineStr">
+        <is>
+          <t>MMR014</t>
+        </is>
+      </c>
+      <c r="F19" s="22" t="n">
+        <v>291446</v>
+      </c>
+      <c r="G19" s="23" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="H19" s="23" t="n">
+        <v>235547</v>
+      </c>
+      <c r="I19" s="24" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J19" s="24" t="n">
+        <v>55899</v>
+      </c>
+      <c r="K19" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="27" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="P19" s="27" t="n">
+        <v>55899</v>
+      </c>
+      <c r="Q19" s="28" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="21" t="n"/>
+      <c r="B20" s="21" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="21" t="n"/>
+      <c r="E20" s="22" t="inlineStr">
+        <is>
+          <t>MMR015</t>
+        </is>
+      </c>
+      <c r="F20" s="22" t="n">
+        <v>210768</v>
+      </c>
+      <c r="G20" s="23" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="H20" s="23" t="n">
+        <v>128310</v>
+      </c>
+      <c r="I20" s="24" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="J20" s="24" t="n">
+        <v>79557</v>
+      </c>
+      <c r="K20" s="25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L20" s="25" t="n">
+        <v>2901</v>
+      </c>
+      <c r="M20" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="27" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="P20" s="27" t="n">
+        <v>82458</v>
+      </c>
+      <c r="Q20" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="21" t="n"/>
+      <c r="B21" s="21" t="n"/>
+      <c r="C21" s="21" t="n"/>
+      <c r="D21" s="21" t="n"/>
+      <c r="E21" s="22" t="inlineStr">
+        <is>
+          <t>MMR016</t>
+        </is>
+      </c>
+      <c r="F21" s="22" t="n">
+        <v>70760</v>
+      </c>
+      <c r="G21" s="23" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="H21" s="23" t="n">
+        <v>65883</v>
+      </c>
+      <c r="I21" s="24" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="J21" s="24" t="n">
+        <v>4877</v>
+      </c>
+      <c r="K21" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="27" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="P21" s="27" t="n">
+        <v>4877</v>
+      </c>
+      <c r="Q21" s="28" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="21" t="n"/>
+      <c r="B22" s="21" t="n"/>
+      <c r="C22" s="21" t="n"/>
+      <c r="D22" s="21" t="n"/>
+      <c r="E22" s="22" t="inlineStr">
+        <is>
+          <t>MMR017</t>
+        </is>
+      </c>
+      <c r="F22" s="22" t="n">
+        <v>81840</v>
+      </c>
+      <c r="G22" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="H22" s="23" t="n">
+        <v>81840</v>
+      </c>
+      <c r="I22" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="28" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="21" t="n"/>
+      <c r="B23" s="21" t="n"/>
+      <c r="C23" s="21" t="n"/>
+      <c r="D23" s="21" t="n"/>
+      <c r="E23" s="29" t="inlineStr">
+        <is>
+          <t>MMR018</t>
+        </is>
+      </c>
+      <c r="F23" s="29" t="n">
+        <v>85275</v>
+      </c>
+      <c r="G23" s="30" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="H23" s="30" t="n">
+        <v>61931</v>
+      </c>
+      <c r="I23" s="31" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="J23" s="31" t="n">
+        <v>23345</v>
+      </c>
+      <c r="K23" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="34" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="P23" s="34" t="n">
+        <v>23345</v>
+      </c>
+      <c r="Q23" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1229,8 +2229,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="38" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="23" customWidth="1" min="8" max="8"/>
     <col width="23" customWidth="1" min="9" max="9"/>
@@ -1248,7 +2248,7 @@
     <row r="1">
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Overall PiN and severity (5-17 y.o.)</t>
+          <t>PiN -- ocap (5-17 y.o.)</t>
         </is>
       </c>
     </row>
@@ -1267,7 +2267,7 @@
       </c>
       <c r="F5" s="15" t="inlineStr">
         <is>
-          <t>Admin Pcode</t>
+          <t>Population group</t>
         </is>
       </c>
       <c r="G5" s="15" t="inlineStr">
@@ -1341,45 +2341,47 @@
           <t>MMR001</t>
         </is>
       </c>
-      <c r="F6" s="22" t="n">
-        <v>2</v>
+      <c r="F6" s="22" t="inlineStr">
+        <is>
+          <t>ocap</t>
+        </is>
       </c>
       <c r="G6" s="22" t="n">
-        <v>114297</v>
+        <v>94127</v>
       </c>
       <c r="H6" s="23" t="n">
-        <v>72.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>82816</v>
+        <v>86039</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>27148</v>
+        <v>0</v>
       </c>
       <c r="L6" s="25" t="n">
-        <v>3.2</v>
+        <v>8.6</v>
       </c>
       <c r="M6" s="25" t="n">
-        <v>3711</v>
+        <v>8088</v>
       </c>
       <c r="N6" s="26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O6" s="26" t="n">
-        <v>621</v>
+        <v>0</v>
       </c>
       <c r="P6" s="27" t="n">
-        <v>27.5</v>
+        <v>8.6</v>
       </c>
       <c r="Q6" s="27" t="n">
-        <v>31481</v>
+        <v>8088</v>
       </c>
       <c r="R6" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -1393,41 +2395,43 @@
           <t>MMR002</t>
         </is>
       </c>
-      <c r="F7" s="22" t="n">
-        <v>10</v>
+      <c r="F7" s="22" t="inlineStr">
+        <is>
+          <t>ocap</t>
+        </is>
       </c>
       <c r="G7" s="22" t="n">
-        <v>59845</v>
+        <v>49284</v>
       </c>
       <c r="H7" s="23" t="n">
-        <v>28.6</v>
+        <v>29.5</v>
       </c>
       <c r="I7" s="23" t="n">
-        <v>17095</v>
+        <v>14556</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>66.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="K7" s="24" t="n">
-        <v>40017</v>
+        <v>33223</v>
       </c>
       <c r="L7" s="25" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M7" s="25" t="n">
-        <v>2112</v>
+        <v>1505</v>
       </c>
       <c r="N7" s="26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="26" t="n">
-        <v>622</v>
+        <v>0</v>
       </c>
       <c r="P7" s="27" t="n">
-        <v>71.40000000000001</v>
+        <v>70.5</v>
       </c>
       <c r="Q7" s="27" t="n">
-        <v>42751</v>
+        <v>34728</v>
       </c>
       <c r="R7" s="28" t="inlineStr">
         <is>
@@ -1445,41 +2449,43 @@
           <t>MMR003</t>
         </is>
       </c>
-      <c r="F8" s="22" t="n">
-        <v>6</v>
+      <c r="F8" s="22" t="inlineStr">
+        <is>
+          <t>ocap</t>
+        </is>
       </c>
       <c r="G8" s="22" t="n">
-        <v>86336</v>
+        <v>71100</v>
       </c>
       <c r="H8" s="23" t="n">
-        <v>52.9</v>
+        <v>67</v>
       </c>
       <c r="I8" s="23" t="n">
-        <v>45681</v>
+        <v>47660</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>41.2</v>
+        <v>33</v>
       </c>
       <c r="K8" s="24" t="n">
-        <v>35594</v>
+        <v>23440</v>
       </c>
       <c r="L8" s="25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M8" s="25" t="n">
-        <v>4341</v>
+        <v>0</v>
       </c>
       <c r="N8" s="26" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O8" s="26" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="P8" s="27" t="n">
-        <v>47.1</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="27" t="n">
-        <v>40655</v>
+        <v>23440</v>
       </c>
       <c r="R8" s="28" t="inlineStr">
         <is>
@@ -1497,41 +2503,43 @@
           <t>MMR004</t>
         </is>
       </c>
-      <c r="F9" s="22" t="n">
-        <v>4</v>
+      <c r="F9" s="22" t="inlineStr">
+        <is>
+          <t>ocap</t>
+        </is>
       </c>
       <c r="G9" s="22" t="n">
-        <v>96362</v>
+        <v>79357</v>
       </c>
       <c r="H9" s="23" t="n">
-        <v>29.6</v>
+        <v>12.6</v>
       </c>
       <c r="I9" s="23" t="n">
-        <v>28517</v>
+        <v>9981</v>
       </c>
       <c r="J9" s="24" t="n">
-        <v>66</v>
+        <v>75.5</v>
       </c>
       <c r="K9" s="24" t="n">
-        <v>63559</v>
+        <v>59918</v>
       </c>
       <c r="L9" s="25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M9" s="25" t="n">
-        <v>3334</v>
+        <v>2726</v>
       </c>
       <c r="N9" s="26" t="n">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="O9" s="26" t="n">
-        <v>952</v>
+        <v>6732</v>
       </c>
       <c r="P9" s="27" t="n">
-        <v>70.40000000000001</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="Q9" s="27" t="n">
-        <v>67845</v>
+        <v>69376</v>
       </c>
       <c r="R9" s="28" t="inlineStr">
         <is>
@@ -1549,41 +2557,43 @@
           <t>MMR005</t>
         </is>
       </c>
-      <c r="F10" s="22" t="n">
-        <v>1</v>
+      <c r="F10" s="22" t="inlineStr">
+        <is>
+          <t>ocap</t>
+        </is>
       </c>
       <c r="G10" s="22" t="n">
-        <v>251037</v>
+        <v>206737</v>
       </c>
       <c r="H10" s="23" t="n">
-        <v>18.7</v>
+        <v>12.3</v>
       </c>
       <c r="I10" s="23" t="n">
-        <v>46878</v>
+        <v>25327</v>
       </c>
       <c r="J10" s="24" t="n">
-        <v>75.7</v>
+        <v>87.7</v>
       </c>
       <c r="K10" s="24" t="n">
-        <v>190045</v>
+        <v>181410</v>
       </c>
       <c r="L10" s="25" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="M10" s="25" t="n">
-        <v>10513</v>
+        <v>0</v>
       </c>
       <c r="N10" s="26" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="O10" s="26" t="n">
-        <v>3601</v>
+        <v>0</v>
       </c>
       <c r="P10" s="27" t="n">
-        <v>81.3</v>
+        <v>87.7</v>
       </c>
       <c r="Q10" s="27" t="n">
-        <v>204159</v>
+        <v>181410</v>
       </c>
       <c r="R10" s="28" t="inlineStr">
         <is>
@@ -1601,41 +2611,43 @@
           <t>MMR006</t>
         </is>
       </c>
-      <c r="F11" s="22" t="n">
-        <v>17</v>
+      <c r="F11" s="22" t="inlineStr">
+        <is>
+          <t>ocap</t>
+        </is>
       </c>
       <c r="G11" s="22" t="n">
-        <v>345131</v>
+        <v>284225</v>
       </c>
       <c r="H11" s="23" t="n">
-        <v>67</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="I11" s="23" t="n">
-        <v>231393</v>
+        <v>206236</v>
       </c>
       <c r="J11" s="24" t="n">
-        <v>28.5</v>
+        <v>21.5</v>
       </c>
       <c r="K11" s="24" t="n">
-        <v>98259</v>
+        <v>60998</v>
       </c>
       <c r="L11" s="25" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="M11" s="25" t="n">
-        <v>14278</v>
+        <v>16992</v>
       </c>
       <c r="N11" s="26" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O11" s="26" t="n">
-        <v>1201</v>
+        <v>0</v>
       </c>
       <c r="P11" s="27" t="n">
-        <v>33</v>
+        <v>27.4</v>
       </c>
       <c r="Q11" s="27" t="n">
-        <v>113737</v>
+        <v>77989</v>
       </c>
       <c r="R11" s="28" t="inlineStr">
         <is>
@@ -1653,29 +2665,31 @@
           <t>MMR007</t>
         </is>
       </c>
-      <c r="F12" s="22" t="n">
-        <v>12</v>
+      <c r="F12" s="22" t="inlineStr">
+        <is>
+          <t>ocap</t>
+        </is>
       </c>
       <c r="G12" s="22" t="n">
-        <v>138589</v>
+        <v>114132</v>
       </c>
       <c r="H12" s="23" t="n">
-        <v>74.5</v>
+        <v>79.2</v>
       </c>
       <c r="I12" s="23" t="n">
-        <v>103188</v>
+        <v>90441</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>23.2</v>
+        <v>15.9</v>
       </c>
       <c r="K12" s="24" t="n">
-        <v>32126</v>
+        <v>18169</v>
       </c>
       <c r="L12" s="25" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="M12" s="25" t="n">
-        <v>3275</v>
+        <v>5522</v>
       </c>
       <c r="N12" s="26" t="n">
         <v>0</v>
@@ -1684,10 +2698,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="27" t="n">
-        <v>25.5</v>
+        <v>20.8</v>
       </c>
       <c r="Q12" s="27" t="n">
-        <v>35401</v>
+        <v>23692</v>
       </c>
       <c r="R12" s="28" t="inlineStr">
         <is>
@@ -1705,29 +2719,31 @@
           <t>MMR008</t>
         </is>
       </c>
-      <c r="F13" s="22" t="n">
-        <v>16</v>
+      <c r="F13" s="22" t="inlineStr">
+        <is>
+          <t>ocap</t>
+        </is>
       </c>
       <c r="G13" s="22" t="n">
         <v>82380</v>
       </c>
       <c r="H13" s="23" t="n">
-        <v>75.7</v>
+        <v>100</v>
       </c>
       <c r="I13" s="23" t="n">
-        <v>62340</v>
+        <v>82380</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="K13" s="24" t="n">
-        <v>13805</v>
+        <v>0</v>
       </c>
       <c r="L13" s="25" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="M13" s="25" t="n">
-        <v>6236</v>
+        <v>0</v>
       </c>
       <c r="N13" s="26" t="n">
         <v>0</v>
@@ -1736,14 +2752,14 @@
         <v>0</v>
       </c>
       <c r="P13" s="27" t="n">
-        <v>24.3</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="27" t="n">
-        <v>20041</v>
+        <v>0</v>
       </c>
       <c r="R13" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -1757,41 +2773,43 @@
           <t>MMR009</t>
         </is>
       </c>
-      <c r="F14" s="22" t="n">
-        <v>15</v>
+      <c r="F14" s="22" t="inlineStr">
+        <is>
+          <t>ocap</t>
+        </is>
       </c>
       <c r="G14" s="22" t="n">
-        <v>94677</v>
+        <v>77970</v>
       </c>
       <c r="H14" s="23" t="n">
-        <v>71.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="I14" s="23" t="n">
-        <v>67289</v>
+        <v>52840</v>
       </c>
       <c r="J14" s="24" t="n">
-        <v>25.2</v>
+        <v>32.2</v>
       </c>
       <c r="K14" s="24" t="n">
-        <v>23845</v>
+        <v>25129</v>
       </c>
       <c r="L14" s="25" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="M14" s="25" t="n">
-        <v>2647</v>
+        <v>0</v>
       </c>
       <c r="N14" s="26" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="O14" s="26" t="n">
-        <v>896</v>
+        <v>0</v>
       </c>
       <c r="P14" s="27" t="n">
-        <v>28.9</v>
+        <v>32.2</v>
       </c>
       <c r="Q14" s="27" t="n">
-        <v>27388</v>
+        <v>25129</v>
       </c>
       <c r="R14" s="28" t="inlineStr">
         <is>
@@ -1809,45 +2827,47 @@
           <t>MMR010</t>
         </is>
       </c>
-      <c r="F15" s="22" t="n">
-        <v>11</v>
+      <c r="F15" s="22" t="inlineStr">
+        <is>
+          <t>ocap</t>
+        </is>
       </c>
       <c r="G15" s="22" t="n">
         <v>469612</v>
       </c>
       <c r="H15" s="23" t="n">
-        <v>77.40000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="I15" s="23" t="n">
-        <v>363402</v>
+        <v>404809</v>
       </c>
       <c r="J15" s="24" t="n">
-        <v>18.4</v>
+        <v>13.8</v>
       </c>
       <c r="K15" s="24" t="n">
-        <v>86190</v>
+        <v>64803</v>
       </c>
       <c r="L15" s="25" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="M15" s="25" t="n">
-        <v>16642</v>
+        <v>0</v>
       </c>
       <c r="N15" s="26" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="O15" s="26" t="n">
-        <v>3379</v>
+        <v>0</v>
       </c>
       <c r="P15" s="27" t="n">
-        <v>22.6</v>
+        <v>13.8</v>
       </c>
       <c r="Q15" s="27" t="n">
-        <v>106210</v>
+        <v>64803</v>
       </c>
       <c r="R15" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -1861,41 +2881,43 @@
           <t>MMR011</t>
         </is>
       </c>
-      <c r="F16" s="22" t="n">
-        <v>8</v>
+      <c r="F16" s="22" t="inlineStr">
+        <is>
+          <t>ocap</t>
+        </is>
       </c>
       <c r="G16" s="22" t="n">
-        <v>113855</v>
+        <v>93763</v>
       </c>
       <c r="H16" s="23" t="n">
-        <v>64.7</v>
+        <v>77.2</v>
       </c>
       <c r="I16" s="23" t="n">
-        <v>73705</v>
+        <v>72341</v>
       </c>
       <c r="J16" s="24" t="n">
-        <v>18.5</v>
+        <v>14.6</v>
       </c>
       <c r="K16" s="24" t="n">
-        <v>21096</v>
+        <v>13670</v>
       </c>
       <c r="L16" s="25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M16" s="25" t="n">
-        <v>10036</v>
+        <v>7752</v>
       </c>
       <c r="N16" s="26" t="n">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="O16" s="26" t="n">
-        <v>9017</v>
+        <v>0</v>
       </c>
       <c r="P16" s="27" t="n">
-        <v>35.3</v>
+        <v>22.8</v>
       </c>
       <c r="Q16" s="27" t="n">
-        <v>40150</v>
+        <v>21422</v>
       </c>
       <c r="R16" s="28" t="inlineStr">
         <is>
@@ -1913,41 +2935,43 @@
           <t>MMR012</t>
         </is>
       </c>
-      <c r="F17" s="22" t="n">
-        <v>7</v>
+      <c r="F17" s="22" t="inlineStr">
+        <is>
+          <t>ocap</t>
+        </is>
       </c>
       <c r="G17" s="22" t="n">
-        <v>147696</v>
+        <v>103387</v>
       </c>
       <c r="H17" s="23" t="n">
-        <v>41.8</v>
+        <v>29.8</v>
       </c>
       <c r="I17" s="23" t="n">
-        <v>61772</v>
+        <v>30769</v>
       </c>
       <c r="J17" s="24" t="n">
-        <v>51.1</v>
+        <v>62</v>
       </c>
       <c r="K17" s="24" t="n">
-        <v>75470</v>
+        <v>64124</v>
       </c>
       <c r="L17" s="25" t="n">
-        <v>6.6</v>
+        <v>3.7</v>
       </c>
       <c r="M17" s="25" t="n">
-        <v>9675</v>
+        <v>3865</v>
       </c>
       <c r="N17" s="26" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="O17" s="26" t="n">
-        <v>779</v>
+        <v>4628</v>
       </c>
       <c r="P17" s="27" t="n">
-        <v>58.2</v>
+        <v>70.2</v>
       </c>
       <c r="Q17" s="27" t="n">
-        <v>85924</v>
+        <v>72618</v>
       </c>
       <c r="R17" s="28" t="inlineStr">
         <is>
@@ -1965,41 +2989,43 @@
           <t>MMR013</t>
         </is>
       </c>
-      <c r="F18" s="22" t="n">
-        <v>13</v>
+      <c r="F18" s="22" t="inlineStr">
+        <is>
+          <t>ocap</t>
+        </is>
       </c>
       <c r="G18" s="22" t="n">
         <v>94050</v>
       </c>
       <c r="H18" s="23" t="n">
-        <v>65.8</v>
+        <v>55.5</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>61865</v>
+        <v>52237</v>
       </c>
       <c r="J18" s="24" t="n">
-        <v>26</v>
+        <v>40.4</v>
       </c>
       <c r="K18" s="24" t="n">
-        <v>24464</v>
+        <v>38011</v>
       </c>
       <c r="L18" s="25" t="n">
-        <v>7.8</v>
+        <v>4</v>
       </c>
       <c r="M18" s="25" t="n">
-        <v>7317</v>
+        <v>3802</v>
       </c>
       <c r="N18" s="26" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O18" s="26" t="n">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="P18" s="27" t="n">
-        <v>34.2</v>
+        <v>44.5</v>
       </c>
       <c r="Q18" s="27" t="n">
-        <v>32185</v>
+        <v>41813</v>
       </c>
       <c r="R18" s="28" t="inlineStr">
         <is>
@@ -2017,29 +3043,31 @@
           <t>MMR014</t>
         </is>
       </c>
-      <c r="F19" s="22" t="n">
-        <v>9</v>
+      <c r="F19" s="22" t="inlineStr">
+        <is>
+          <t>ocap</t>
+        </is>
       </c>
       <c r="G19" s="22" t="n">
-        <v>291446</v>
+        <v>240015</v>
       </c>
       <c r="H19" s="23" t="n">
-        <v>77.09999999999999</v>
+        <v>88</v>
       </c>
       <c r="I19" s="23" t="n">
-        <v>224720</v>
+        <v>211311</v>
       </c>
       <c r="J19" s="24" t="n">
-        <v>17.6</v>
+        <v>12</v>
       </c>
       <c r="K19" s="24" t="n">
-        <v>51440</v>
+        <v>28704</v>
       </c>
       <c r="L19" s="25" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="M19" s="25" t="n">
-        <v>15286</v>
+        <v>0</v>
       </c>
       <c r="N19" s="26" t="n">
         <v>0</v>
@@ -2048,14 +3076,14 @@
         <v>0</v>
       </c>
       <c r="P19" s="27" t="n">
-        <v>22.9</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="27" t="n">
-        <v>66726</v>
+        <v>28704</v>
       </c>
       <c r="R19" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -2069,41 +3097,43 @@
           <t>MMR015</t>
         </is>
       </c>
-      <c r="F20" s="22" t="n">
-        <v>5</v>
+      <c r="F20" s="22" t="inlineStr">
+        <is>
+          <t>ocap</t>
+        </is>
       </c>
       <c r="G20" s="22" t="n">
-        <v>210768</v>
+        <v>173573</v>
       </c>
       <c r="H20" s="23" t="n">
-        <v>48.4</v>
+        <v>69.7</v>
       </c>
       <c r="I20" s="23" t="n">
-        <v>101932</v>
+        <v>120951</v>
       </c>
       <c r="J20" s="24" t="n">
-        <v>45.3</v>
+        <v>30.3</v>
       </c>
       <c r="K20" s="24" t="n">
-        <v>95540</v>
+        <v>52623</v>
       </c>
       <c r="L20" s="25" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="M20" s="25" t="n">
-        <v>11614</v>
+        <v>0</v>
       </c>
       <c r="N20" s="26" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O20" s="26" t="n">
-        <v>1681</v>
+        <v>0</v>
       </c>
       <c r="P20" s="27" t="n">
-        <v>51.6</v>
+        <v>30.3</v>
       </c>
       <c r="Q20" s="27" t="n">
-        <v>108835</v>
+        <v>52623</v>
       </c>
       <c r="R20" s="28" t="inlineStr">
         <is>
@@ -2121,29 +3151,31 @@
           <t>MMR016</t>
         </is>
       </c>
-      <c r="F21" s="22" t="n">
-        <v>18</v>
+      <c r="F21" s="22" t="inlineStr">
+        <is>
+          <t>ocap</t>
+        </is>
       </c>
       <c r="G21" s="22" t="n">
         <v>70760</v>
       </c>
       <c r="H21" s="23" t="n">
-        <v>85.5</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="I21" s="23" t="n">
-        <v>60490</v>
+        <v>65883</v>
       </c>
       <c r="J21" s="24" t="n">
-        <v>10.9</v>
+        <v>6.9</v>
       </c>
       <c r="K21" s="24" t="n">
-        <v>7743</v>
+        <v>4877</v>
       </c>
       <c r="L21" s="25" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="M21" s="25" t="n">
-        <v>2528</v>
+        <v>0</v>
       </c>
       <c r="N21" s="26" t="n">
         <v>0</v>
@@ -2152,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="27" t="n">
-        <v>14.5</v>
+        <v>6.9</v>
       </c>
       <c r="Q21" s="27" t="n">
-        <v>10271</v>
+        <v>4877</v>
       </c>
       <c r="R21" s="28" t="inlineStr">
         <is>
@@ -2173,41 +3205,43 @@
           <t>MMR017</t>
         </is>
       </c>
-      <c r="F22" s="22" t="n">
-        <v>14</v>
+      <c r="F22" s="22" t="inlineStr">
+        <is>
+          <t>ocap</t>
+        </is>
       </c>
       <c r="G22" s="22" t="n">
         <v>81840</v>
       </c>
       <c r="H22" s="23" t="n">
-        <v>92.5</v>
+        <v>100</v>
       </c>
       <c r="I22" s="23" t="n">
-        <v>75687</v>
+        <v>81840</v>
       </c>
       <c r="J22" s="24" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="K22" s="24" t="n">
-        <v>2975</v>
+        <v>0</v>
       </c>
       <c r="L22" s="25" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="M22" s="25" t="n">
-        <v>2695</v>
+        <v>0</v>
       </c>
       <c r="N22" s="26" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O22" s="26" t="n">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="P22" s="27" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="27" t="n">
-        <v>6153</v>
+        <v>0</v>
       </c>
       <c r="R22" s="28" t="inlineStr">
         <is>
@@ -2225,29 +3259,31 @@
           <t>MMR018</t>
         </is>
       </c>
-      <c r="F23" s="29" t="n">
-        <v>3</v>
+      <c r="F23" s="29" t="inlineStr">
+        <is>
+          <t>ocap</t>
+        </is>
       </c>
       <c r="G23" s="29" t="n">
         <v>85275</v>
       </c>
       <c r="H23" s="30" t="n">
-        <v>87.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="I23" s="30" t="n">
-        <v>74295</v>
+        <v>61931</v>
       </c>
       <c r="J23" s="31" t="n">
-        <v>8.5</v>
+        <v>27.4</v>
       </c>
       <c r="K23" s="31" t="n">
-        <v>7273</v>
+        <v>23345</v>
       </c>
       <c r="L23" s="32" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="M23" s="32" t="n">
-        <v>3707</v>
+        <v>0</v>
       </c>
       <c r="N23" s="33" t="n">
         <v>0</v>
@@ -2256,1176 +3292,20 @@
         <v>0</v>
       </c>
       <c r="P23" s="34" t="n">
-        <v>12.9</v>
+        <v>27.4</v>
       </c>
       <c r="Q23" s="34" t="n">
-        <v>10980</v>
+        <v>23345</v>
       </c>
       <c r="R23" s="28" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:R1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="23" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="33" customWidth="1" min="17" max="17"/>
-    <col width="33" customWidth="1" min="18" max="18"/>
-    <col width="15" customWidth="1" min="19" max="19"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>PiN -- ocap (5-17 y.o.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5">
-      <c r="A5" s="14" t="n"/>
-      <c r="B5" s="14" t="n"/>
-      <c r="C5" s="14" t="n"/>
-      <c r="D5" s="14" t="n"/>
-      <c r="E5" s="15" t="inlineStr">
-        <is>
-          <t>admin1</t>
-        </is>
-      </c>
-      <c r="F5" s="15" t="inlineStr">
-        <is>
-          <t>Admin Pcode</t>
-        </is>
-      </c>
-      <c r="G5" s="15" t="inlineStr">
-        <is>
-          <t>Population group</t>
-        </is>
-      </c>
-      <c r="H5" s="15" t="inlineStr">
-        <is>
-          <t>TotN</t>
-        </is>
-      </c>
-      <c r="I5" s="16" t="inlineStr">
-        <is>
-          <t>% severity levels 1-2</t>
-        </is>
-      </c>
-      <c r="J5" s="16" t="inlineStr">
-        <is>
-          <t># severity levels 1-2</t>
-        </is>
-      </c>
-      <c r="K5" s="17" t="inlineStr">
-        <is>
-          <t>% severity level 3</t>
-        </is>
-      </c>
-      <c r="L5" s="17" t="inlineStr">
-        <is>
-          <t># severity level 3</t>
-        </is>
-      </c>
-      <c r="M5" s="18" t="inlineStr">
-        <is>
-          <t>% severity level 4</t>
-        </is>
-      </c>
-      <c r="N5" s="18" t="inlineStr">
-        <is>
-          <t># severity level 4</t>
-        </is>
-      </c>
-      <c r="O5" s="19" t="inlineStr">
-        <is>
-          <t>% severity level 5</t>
-        </is>
-      </c>
-      <c r="P5" s="19" t="inlineStr">
-        <is>
-          <t># severity level 5</t>
-        </is>
-      </c>
-      <c r="Q5" s="20" t="inlineStr">
-        <is>
-          <t>% Tot PiN (severity levels 3-5)</t>
-        </is>
-      </c>
-      <c r="R5" s="20" t="inlineStr">
-        <is>
-          <t># Tot PiN (severity levels 3-5)</t>
-        </is>
-      </c>
-      <c r="S5" s="20" t="inlineStr">
-        <is>
-          <t>Area severity</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="21" t="n"/>
-      <c r="B6" s="21" t="n"/>
-      <c r="C6" s="21" t="n"/>
-      <c r="D6" s="21" t="n"/>
-      <c r="E6" s="22" t="inlineStr">
-        <is>
-          <t>MMR001</t>
-        </is>
-      </c>
-      <c r="F6" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="22" t="inlineStr">
-        <is>
-          <t>ocap</t>
-        </is>
-      </c>
-      <c r="H6" s="22" t="n">
-        <v>94127</v>
-      </c>
-      <c r="I6" s="23" t="n">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="J6" s="23" t="n">
-        <v>69230</v>
-      </c>
-      <c r="K6" s="24" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="L6" s="24" t="n">
-        <v>22094</v>
-      </c>
-      <c r="M6" s="25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="N6" s="25" t="n">
-        <v>2181</v>
-      </c>
-      <c r="O6" s="26" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="P6" s="26" t="n">
-        <v>621</v>
-      </c>
-      <c r="Q6" s="27" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="R6" s="27" t="n">
-        <v>24896</v>
-      </c>
-      <c r="S6" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="21" t="n"/>
-      <c r="B7" s="21" t="n"/>
-      <c r="C7" s="21" t="n"/>
-      <c r="D7" s="21" t="n"/>
-      <c r="E7" s="22" t="inlineStr">
-        <is>
-          <t>MMR002</t>
-        </is>
-      </c>
-      <c r="F7" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" s="22" t="inlineStr">
-        <is>
-          <t>ocap</t>
-        </is>
-      </c>
-      <c r="H7" s="22" t="n">
-        <v>49284</v>
-      </c>
-      <c r="I7" s="23" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J7" s="23" t="n">
-        <v>14199</v>
-      </c>
-      <c r="K7" s="24" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="L7" s="24" t="n">
-        <v>33207</v>
-      </c>
-      <c r="M7" s="25" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="N7" s="25" t="n">
-        <v>1877</v>
-      </c>
-      <c r="O7" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="27" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="R7" s="27" t="n">
-        <v>35085</v>
-      </c>
-      <c r="S7" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="21" t="n"/>
-      <c r="B8" s="21" t="n"/>
-      <c r="C8" s="21" t="n"/>
-      <c r="D8" s="21" t="n"/>
-      <c r="E8" s="22" t="inlineStr">
-        <is>
-          <t>MMR003</t>
-        </is>
-      </c>
-      <c r="F8" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" s="22" t="inlineStr">
-        <is>
-          <t>ocap</t>
-        </is>
-      </c>
-      <c r="H8" s="22" t="n">
-        <v>71100</v>
-      </c>
-      <c r="I8" s="23" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="J8" s="23" t="n">
-        <v>38598</v>
-      </c>
-      <c r="K8" s="24" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="L8" s="24" t="n">
-        <v>28273</v>
-      </c>
-      <c r="M8" s="25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N8" s="25" t="n">
-        <v>3912</v>
-      </c>
-      <c r="O8" s="26" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P8" s="26" t="n">
-        <v>317</v>
-      </c>
-      <c r="Q8" s="27" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="R8" s="27" t="n">
-        <v>32503</v>
-      </c>
-      <c r="S8" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="21" t="n"/>
-      <c r="B9" s="21" t="n"/>
-      <c r="C9" s="21" t="n"/>
-      <c r="D9" s="21" t="n"/>
-      <c r="E9" s="22" t="inlineStr">
-        <is>
-          <t>MMR004</t>
-        </is>
-      </c>
-      <c r="F9" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" s="22" t="inlineStr">
-        <is>
-          <t>ocap</t>
-        </is>
-      </c>
-      <c r="H9" s="22" t="n">
-        <v>79357</v>
-      </c>
-      <c r="I9" s="23" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J9" s="23" t="n">
-        <v>23469</v>
-      </c>
-      <c r="K9" s="24" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="L9" s="24" t="n">
-        <v>52207</v>
-      </c>
-      <c r="M9" s="25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N9" s="25" t="n">
-        <v>2804</v>
-      </c>
-      <c r="O9" s="26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P9" s="26" t="n">
-        <v>877</v>
-      </c>
-      <c r="Q9" s="27" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="R9" s="27" t="n">
-        <v>55888</v>
-      </c>
-      <c r="S9" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="21" t="n"/>
-      <c r="B10" s="21" t="n"/>
-      <c r="C10" s="21" t="n"/>
-      <c r="D10" s="21" t="n"/>
-      <c r="E10" s="22" t="inlineStr">
-        <is>
-          <t>MMR005</t>
-        </is>
-      </c>
-      <c r="F10" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="22" t="inlineStr">
-        <is>
-          <t>ocap</t>
-        </is>
-      </c>
-      <c r="H10" s="22" t="n">
-        <v>206737</v>
-      </c>
-      <c r="I10" s="23" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="J10" s="23" t="n">
-        <v>44841</v>
-      </c>
-      <c r="K10" s="24" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="L10" s="24" t="n">
-        <v>151037</v>
-      </c>
-      <c r="M10" s="25" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="N10" s="25" t="n">
-        <v>9848</v>
-      </c>
-      <c r="O10" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P10" s="26" t="n">
-        <v>1011</v>
-      </c>
-      <c r="Q10" s="27" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="R10" s="27" t="n">
-        <v>161896</v>
-      </c>
-      <c r="S10" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="21" t="n"/>
-      <c r="B11" s="21" t="n"/>
-      <c r="C11" s="21" t="n"/>
-      <c r="D11" s="21" t="n"/>
-      <c r="E11" s="22" t="inlineStr">
-        <is>
-          <t>MMR006</t>
-        </is>
-      </c>
-      <c r="F11" s="22" t="n">
-        <v>17</v>
-      </c>
-      <c r="G11" s="22" t="inlineStr">
-        <is>
-          <t>ocap</t>
-        </is>
-      </c>
-      <c r="H11" s="22" t="n">
-        <v>284225</v>
-      </c>
-      <c r="I11" s="23" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J11" s="23" t="n">
-        <v>206212</v>
-      </c>
-      <c r="K11" s="24" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="L11" s="24" t="n">
-        <v>67381</v>
-      </c>
-      <c r="M11" s="25" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="N11" s="25" t="n">
-        <v>10632</v>
-      </c>
-      <c r="O11" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="27" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="R11" s="27" t="n">
-        <v>78013</v>
-      </c>
-      <c r="S11" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="21" t="n"/>
-      <c r="B12" s="21" t="n"/>
-      <c r="C12" s="21" t="n"/>
-      <c r="D12" s="21" t="n"/>
-      <c r="E12" s="22" t="inlineStr">
-        <is>
-          <t>MMR007</t>
-        </is>
-      </c>
-      <c r="F12" s="22" t="n">
-        <v>12</v>
-      </c>
-      <c r="G12" s="22" t="inlineStr">
-        <is>
-          <t>ocap</t>
-        </is>
-      </c>
-      <c r="H12" s="22" t="n">
-        <v>114132</v>
-      </c>
-      <c r="I12" s="23" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="J12" s="23" t="n">
-        <v>88451</v>
-      </c>
-      <c r="K12" s="24" t="n">
-        <v>21</v>
-      </c>
-      <c r="L12" s="24" t="n">
-        <v>23946</v>
-      </c>
-      <c r="M12" s="25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N12" s="25" t="n">
-        <v>1736</v>
-      </c>
-      <c r="O12" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="27" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="R12" s="27" t="n">
-        <v>25682</v>
-      </c>
-      <c r="S12" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="21" t="n"/>
-      <c r="B13" s="21" t="n"/>
-      <c r="C13" s="21" t="n"/>
-      <c r="D13" s="21" t="n"/>
-      <c r="E13" s="22" t="inlineStr">
-        <is>
-          <t>MMR008</t>
-        </is>
-      </c>
-      <c r="F13" s="22" t="n">
-        <v>16</v>
-      </c>
-      <c r="G13" s="22" t="inlineStr">
-        <is>
-          <t>ocap</t>
-        </is>
-      </c>
-      <c r="H13" s="22" t="n">
-        <v>82380</v>
-      </c>
-      <c r="I13" s="23" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="J13" s="23" t="n">
-        <v>62340</v>
-      </c>
-      <c r="K13" s="24" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="L13" s="24" t="n">
-        <v>13805</v>
-      </c>
-      <c r="M13" s="25" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="N13" s="25" t="n">
-        <v>6236</v>
-      </c>
-      <c r="O13" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="27" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="R13" s="27" t="n">
-        <v>20041</v>
-      </c>
-      <c r="S13" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="21" t="n"/>
-      <c r="B14" s="21" t="n"/>
-      <c r="C14" s="21" t="n"/>
-      <c r="D14" s="21" t="n"/>
-      <c r="E14" s="22" t="inlineStr">
-        <is>
-          <t>MMR009</t>
-        </is>
-      </c>
-      <c r="F14" s="22" t="n">
-        <v>15</v>
-      </c>
-      <c r="G14" s="22" t="inlineStr">
-        <is>
-          <t>ocap</t>
-        </is>
-      </c>
-      <c r="H14" s="22" t="n">
-        <v>77970</v>
-      </c>
-      <c r="I14" s="23" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="J14" s="23" t="n">
-        <v>60939</v>
-      </c>
-      <c r="K14" s="24" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="L14" s="24" t="n">
-        <v>15970</v>
-      </c>
-      <c r="M14" s="25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N14" s="25" t="n">
-        <v>1061</v>
-      </c>
-      <c r="O14" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="27" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="R14" s="27" t="n">
-        <v>17031</v>
-      </c>
-      <c r="S14" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="21" t="n"/>
-      <c r="B15" s="21" t="n"/>
-      <c r="C15" s="21" t="n"/>
-      <c r="D15" s="21" t="n"/>
-      <c r="E15" s="22" t="inlineStr">
-        <is>
-          <t>MMR010</t>
-        </is>
-      </c>
-      <c r="F15" s="22" t="n">
-        <v>11</v>
-      </c>
-      <c r="G15" s="22" t="inlineStr">
-        <is>
-          <t>ocap</t>
-        </is>
-      </c>
-      <c r="H15" s="22" t="n">
-        <v>469612</v>
-      </c>
-      <c r="I15" s="23" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="J15" s="23" t="n">
-        <v>363402</v>
-      </c>
-      <c r="K15" s="24" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="L15" s="24" t="n">
-        <v>86190</v>
-      </c>
-      <c r="M15" s="25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N15" s="25" t="n">
-        <v>16642</v>
-      </c>
-      <c r="O15" s="26" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="P15" s="26" t="n">
-        <v>3379</v>
-      </c>
-      <c r="Q15" s="27" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="R15" s="27" t="n">
-        <v>106210</v>
-      </c>
-      <c r="S15" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="21" t="n"/>
-      <c r="B16" s="21" t="n"/>
-      <c r="C16" s="21" t="n"/>
-      <c r="D16" s="21" t="n"/>
-      <c r="E16" s="22" t="inlineStr">
-        <is>
-          <t>MMR011</t>
-        </is>
-      </c>
-      <c r="F16" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="G16" s="22" t="inlineStr">
-        <is>
-          <t>ocap</t>
-        </is>
-      </c>
-      <c r="H16" s="22" t="n">
-        <v>93763</v>
-      </c>
-      <c r="I16" s="23" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="J16" s="23" t="n">
-        <v>63382</v>
-      </c>
-      <c r="K16" s="24" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="L16" s="24" t="n">
-        <v>14645</v>
-      </c>
-      <c r="M16" s="25" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="N16" s="25" t="n">
-        <v>8175</v>
-      </c>
-      <c r="O16" s="26" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="P16" s="26" t="n">
-        <v>7561</v>
-      </c>
-      <c r="Q16" s="27" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="R16" s="27" t="n">
-        <v>30381</v>
-      </c>
-      <c r="S16" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="21" t="n"/>
-      <c r="B17" s="21" t="n"/>
-      <c r="C17" s="21" t="n"/>
-      <c r="D17" s="21" t="n"/>
-      <c r="E17" s="22" t="inlineStr">
-        <is>
-          <t>MMR012</t>
-        </is>
-      </c>
-      <c r="F17" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="G17" s="22" t="inlineStr">
-        <is>
-          <t>ocap</t>
-        </is>
-      </c>
-      <c r="H17" s="22" t="n">
-        <v>103387</v>
-      </c>
-      <c r="I17" s="23" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="J17" s="23" t="n">
-        <v>47756</v>
-      </c>
-      <c r="K17" s="24" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="L17" s="24" t="n">
-        <v>49819</v>
-      </c>
-      <c r="M17" s="25" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="N17" s="25" t="n">
-        <v>5404</v>
-      </c>
-      <c r="O17" s="26" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P17" s="26" t="n">
-        <v>408</v>
-      </c>
-      <c r="Q17" s="27" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="R17" s="27" t="n">
-        <v>55631</v>
-      </c>
-      <c r="S17" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="21" t="n"/>
-      <c r="B18" s="21" t="n"/>
-      <c r="C18" s="21" t="n"/>
-      <c r="D18" s="21" t="n"/>
-      <c r="E18" s="22" t="inlineStr">
-        <is>
-          <t>MMR013</t>
-        </is>
-      </c>
-      <c r="F18" s="22" t="n">
-        <v>13</v>
-      </c>
-      <c r="G18" s="22" t="inlineStr">
-        <is>
-          <t>ocap</t>
-        </is>
-      </c>
-      <c r="H18" s="22" t="n">
-        <v>94050</v>
-      </c>
-      <c r="I18" s="23" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="J18" s="23" t="n">
-        <v>61865</v>
-      </c>
-      <c r="K18" s="24" t="n">
-        <v>26</v>
-      </c>
-      <c r="L18" s="24" t="n">
-        <v>24464</v>
-      </c>
-      <c r="M18" s="25" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="N18" s="25" t="n">
-        <v>7317</v>
-      </c>
-      <c r="O18" s="26" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P18" s="26" t="n">
-        <v>403</v>
-      </c>
-      <c r="Q18" s="27" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="R18" s="27" t="n">
-        <v>32185</v>
-      </c>
-      <c r="S18" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="21" t="n"/>
-      <c r="B19" s="21" t="n"/>
-      <c r="C19" s="21" t="n"/>
-      <c r="D19" s="21" t="n"/>
-      <c r="E19" s="22" t="inlineStr">
-        <is>
-          <t>MMR014</t>
-        </is>
-      </c>
-      <c r="F19" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="G19" s="22" t="inlineStr">
-        <is>
-          <t>ocap</t>
-        </is>
-      </c>
-      <c r="H19" s="22" t="n">
-        <v>240015</v>
-      </c>
-      <c r="I19" s="23" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="J19" s="23" t="n">
-        <v>196208</v>
-      </c>
-      <c r="K19" s="24" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="L19" s="24" t="n">
-        <v>33230</v>
-      </c>
-      <c r="M19" s="25" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="N19" s="25" t="n">
-        <v>10577</v>
-      </c>
-      <c r="O19" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="27" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="R19" s="27" t="n">
-        <v>43807</v>
-      </c>
-      <c r="S19" s="28" t="inlineStr">
-        <is>
-          <t>1-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="21" t="n"/>
-      <c r="B20" s="21" t="n"/>
-      <c r="C20" s="21" t="n"/>
-      <c r="D20" s="21" t="n"/>
-      <c r="E20" s="22" t="inlineStr">
-        <is>
-          <t>MMR015</t>
-        </is>
-      </c>
-      <c r="F20" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="G20" s="22" t="inlineStr">
-        <is>
-          <t>ocap</t>
-        </is>
-      </c>
-      <c r="H20" s="22" t="n">
-        <v>173573</v>
-      </c>
-      <c r="I20" s="23" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="J20" s="23" t="n">
-        <v>93404</v>
-      </c>
-      <c r="K20" s="24" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="L20" s="24" t="n">
-        <v>69037</v>
-      </c>
-      <c r="M20" s="25" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="N20" s="25" t="n">
-        <v>10115</v>
-      </c>
-      <c r="O20" s="26" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P20" s="26" t="n">
-        <v>1018</v>
-      </c>
-      <c r="Q20" s="27" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="R20" s="27" t="n">
-        <v>80170</v>
-      </c>
-      <c r="S20" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="21" t="n"/>
-      <c r="B21" s="21" t="n"/>
-      <c r="C21" s="21" t="n"/>
-      <c r="D21" s="21" t="n"/>
-      <c r="E21" s="22" t="inlineStr">
-        <is>
-          <t>MMR016</t>
-        </is>
-      </c>
-      <c r="F21" s="22" t="n">
-        <v>18</v>
-      </c>
-      <c r="G21" s="22" t="inlineStr">
-        <is>
-          <t>ocap</t>
-        </is>
-      </c>
-      <c r="H21" s="22" t="n">
-        <v>70760</v>
-      </c>
-      <c r="I21" s="23" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="J21" s="23" t="n">
-        <v>60490</v>
-      </c>
-      <c r="K21" s="24" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L21" s="24" t="n">
-        <v>7743</v>
-      </c>
-      <c r="M21" s="25" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="N21" s="25" t="n">
-        <v>2528</v>
-      </c>
-      <c r="O21" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="27" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="R21" s="27" t="n">
-        <v>10271</v>
-      </c>
-      <c r="S21" s="28" t="inlineStr">
-        <is>
-          <t>1-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="21" t="n"/>
-      <c r="B22" s="21" t="n"/>
-      <c r="C22" s="21" t="n"/>
-      <c r="D22" s="21" t="n"/>
-      <c r="E22" s="22" t="inlineStr">
-        <is>
-          <t>MMR017</t>
-        </is>
-      </c>
-      <c r="F22" s="22" t="n">
-        <v>14</v>
-      </c>
-      <c r="G22" s="22" t="inlineStr">
-        <is>
-          <t>ocap</t>
-        </is>
-      </c>
-      <c r="H22" s="22" t="n">
-        <v>81840</v>
-      </c>
-      <c r="I22" s="23" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="J22" s="23" t="n">
-        <v>75687</v>
-      </c>
-      <c r="K22" s="24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L22" s="24" t="n">
-        <v>2975</v>
-      </c>
-      <c r="M22" s="25" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="N22" s="25" t="n">
-        <v>2695</v>
-      </c>
-      <c r="O22" s="26" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P22" s="26" t="n">
-        <v>484</v>
-      </c>
-      <c r="Q22" s="27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="R22" s="27" t="n">
-        <v>6153</v>
-      </c>
-      <c r="S22" s="28" t="inlineStr">
-        <is>
-          <t>1-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="21" t="n"/>
-      <c r="B23" s="21" t="n"/>
-      <c r="C23" s="21" t="n"/>
-      <c r="D23" s="21" t="n"/>
-      <c r="E23" s="29" t="inlineStr">
-        <is>
-          <t>MMR018</t>
-        </is>
-      </c>
-      <c r="F23" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="G23" s="29" t="inlineStr">
-        <is>
-          <t>ocap</t>
-        </is>
-      </c>
-      <c r="H23" s="29" t="n">
-        <v>85275</v>
-      </c>
-      <c r="I23" s="30" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J23" s="30" t="n">
-        <v>74295</v>
-      </c>
-      <c r="K23" s="31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L23" s="31" t="n">
-        <v>7273</v>
-      </c>
-      <c r="M23" s="32" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="N23" s="32" t="n">
-        <v>3707</v>
-      </c>
-      <c r="O23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="34" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="R23" s="34" t="n">
-        <v>10980</v>
-      </c>
-      <c r="S23" s="28" t="inlineStr">
-        <is>
-          <t>1-2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3437,7 +3317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3446,20 +3326,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="24" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="23" customWidth="1" min="8" max="8"/>
     <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="33" customWidth="1" min="16" max="16"/>
     <col width="33" customWidth="1" min="17" max="17"/>
-    <col width="33" customWidth="1" min="18" max="18"/>
-    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3484,70 +3363,65 @@
       </c>
       <c r="F5" s="15" t="inlineStr">
         <is>
-          <t>Admin Pcode</t>
+          <t>Population group</t>
         </is>
       </c>
       <c r="G5" s="15" t="inlineStr">
         <is>
-          <t>Population group</t>
-        </is>
-      </c>
-      <c r="H5" s="15" t="inlineStr">
-        <is>
           <t>TotN</t>
         </is>
       </c>
+      <c r="H5" s="16" t="inlineStr">
+        <is>
+          <t>% severity levels 1-2</t>
+        </is>
+      </c>
       <c r="I5" s="16" t="inlineStr">
         <is>
-          <t>% severity levels 1-2</t>
-        </is>
-      </c>
-      <c r="J5" s="16" t="inlineStr">
-        <is>
           <t># severity levels 1-2</t>
         </is>
       </c>
+      <c r="J5" s="17" t="inlineStr">
+        <is>
+          <t>% severity level 3</t>
+        </is>
+      </c>
       <c r="K5" s="17" t="inlineStr">
         <is>
-          <t>% severity level 3</t>
-        </is>
-      </c>
-      <c r="L5" s="17" t="inlineStr">
-        <is>
           <t># severity level 3</t>
         </is>
       </c>
+      <c r="L5" s="18" t="inlineStr">
+        <is>
+          <t>% severity level 4</t>
+        </is>
+      </c>
       <c r="M5" s="18" t="inlineStr">
         <is>
-          <t>% severity level 4</t>
-        </is>
-      </c>
-      <c r="N5" s="18" t="inlineStr">
-        <is>
           <t># severity level 4</t>
         </is>
       </c>
+      <c r="N5" s="19" t="inlineStr">
+        <is>
+          <t>% severity level 5</t>
+        </is>
+      </c>
       <c r="O5" s="19" t="inlineStr">
         <is>
-          <t>% severity level 5</t>
-        </is>
-      </c>
-      <c r="P5" s="19" t="inlineStr">
-        <is>
           <t># severity level 5</t>
         </is>
       </c>
+      <c r="P5" s="20" t="inlineStr">
+        <is>
+          <t>% Tot PiN (severity levels 3-5)</t>
+        </is>
+      </c>
       <c r="Q5" s="20" t="inlineStr">
         <is>
-          <t>% Tot PiN (severity levels 3-5)</t>
+          <t># Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="R5" s="20" t="inlineStr">
-        <is>
-          <t># Tot PiN (severity levels 3-5)</t>
-        </is>
-      </c>
-      <c r="S5" s="20" t="inlineStr">
         <is>
           <t>Area severity</t>
         </is>
@@ -3563,48 +3437,45 @@
           <t>MMR001</t>
         </is>
       </c>
-      <c r="F6" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="22" t="inlineStr">
+      <c r="F6" s="22" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H6" s="22" t="n">
+      <c r="G6" s="22" t="n">
         <v>13447</v>
       </c>
+      <c r="H6" s="23" t="n">
+        <v>69.90000000000001</v>
+      </c>
       <c r="I6" s="23" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="J6" s="23" t="n">
-        <v>9556</v>
+        <v>9394</v>
+      </c>
+      <c r="J6" s="24" t="n">
+        <v>13.1</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="L6" s="24" t="n">
-        <v>2609</v>
+        <v>1761</v>
+      </c>
+      <c r="L6" s="25" t="n">
+        <v>17</v>
       </c>
       <c r="M6" s="25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="N6" s="25" t="n">
-        <v>1282</v>
+        <v>2292</v>
+      </c>
+      <c r="N6" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="O6" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="26" t="n">
-        <v>0</v>
+      <c r="P6" s="27" t="n">
+        <v>30.1</v>
       </c>
       <c r="Q6" s="27" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="R6" s="27" t="n">
-        <v>3891</v>
-      </c>
-      <c r="S6" s="28" t="inlineStr">
+        <v>4052</v>
+      </c>
+      <c r="R6" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3620,48 +3491,45 @@
           <t>MMR002</t>
         </is>
       </c>
-      <c r="F7" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" s="22" t="inlineStr">
+      <c r="F7" s="22" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H7" s="22" t="n">
+      <c r="G7" s="22" t="n">
         <v>7041</v>
       </c>
+      <c r="H7" s="23" t="n">
+        <v>46.7</v>
+      </c>
       <c r="I7" s="23" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="J7" s="23" t="n">
-        <v>2317</v>
+        <v>3289</v>
+      </c>
+      <c r="J7" s="24" t="n">
+        <v>43.6</v>
       </c>
       <c r="K7" s="24" t="n">
-        <v>60.4</v>
-      </c>
-      <c r="L7" s="24" t="n">
-        <v>4250</v>
+        <v>3072</v>
+      </c>
+      <c r="L7" s="25" t="n">
+        <v>9.699999999999999</v>
       </c>
       <c r="M7" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" s="25" t="n">
-        <v>139</v>
+        <v>680</v>
+      </c>
+      <c r="N7" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="O7" s="26" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="P7" s="26" t="n">
-        <v>335</v>
+        <v>0</v>
+      </c>
+      <c r="P7" s="27" t="n">
+        <v>53.3</v>
       </c>
       <c r="Q7" s="27" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="R7" s="27" t="n">
-        <v>4724</v>
-      </c>
-      <c r="S7" s="28" t="inlineStr">
+        <v>3752</v>
+      </c>
+      <c r="R7" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3677,48 +3545,45 @@
           <t>MMR003</t>
         </is>
       </c>
-      <c r="F8" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" s="22" t="inlineStr">
+      <c r="F8" s="22" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H8" s="22" t="n">
+      <c r="G8" s="22" t="n">
         <v>10157</v>
       </c>
+      <c r="H8" s="23" t="n">
+        <v>55.1</v>
+      </c>
       <c r="I8" s="23" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J8" s="23" t="n">
-        <v>4586</v>
+        <v>5592</v>
+      </c>
+      <c r="J8" s="24" t="n">
+        <v>44.9</v>
       </c>
       <c r="K8" s="24" t="n">
-        <v>47</v>
-      </c>
-      <c r="L8" s="24" t="n">
-        <v>4772</v>
+        <v>4566</v>
+      </c>
+      <c r="L8" s="25" t="n">
+        <v>0</v>
       </c>
       <c r="M8" s="25" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="N8" s="25" t="n">
-        <v>397</v>
+        <v>0</v>
+      </c>
+      <c r="N8" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="O8" s="26" t="n">
-        <v>4</v>
-      </c>
-      <c r="P8" s="26" t="n">
-        <v>402</v>
+        <v>0</v>
+      </c>
+      <c r="P8" s="27" t="n">
+        <v>44.9</v>
       </c>
       <c r="Q8" s="27" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="R8" s="27" t="n">
-        <v>5571</v>
-      </c>
-      <c r="S8" s="28" t="inlineStr">
+        <v>4566</v>
+      </c>
+      <c r="R8" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3734,48 +3599,45 @@
           <t>MMR004</t>
         </is>
       </c>
-      <c r="F9" s="22" t="n">
+      <c r="F9" s="22" t="inlineStr">
+        <is>
+          <t>idp</t>
+        </is>
+      </c>
+      <c r="G9" s="22" t="n">
+        <v>11337</v>
+      </c>
+      <c r="H9" s="23" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="I9" s="23" t="n">
+        <v>2678</v>
+      </c>
+      <c r="J9" s="24" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="K9" s="24" t="n">
+        <v>8205</v>
+      </c>
+      <c r="L9" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="22" t="inlineStr">
-        <is>
-          <t>idp</t>
-        </is>
-      </c>
-      <c r="H9" s="22" t="n">
-        <v>11337</v>
-      </c>
-      <c r="I9" s="23" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="J9" s="23" t="n">
-        <v>2741</v>
-      </c>
-      <c r="K9" s="24" t="n">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="L9" s="24" t="n">
-        <v>8270</v>
-      </c>
       <c r="M9" s="25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N9" s="25" t="n">
-        <v>250</v>
+        <v>454</v>
+      </c>
+      <c r="N9" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="O9" s="26" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="P9" s="26" t="n">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="P9" s="27" t="n">
+        <v>76.40000000000001</v>
       </c>
       <c r="Q9" s="27" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="R9" s="27" t="n">
-        <v>8595</v>
-      </c>
-      <c r="S9" s="28" t="inlineStr">
+        <v>8659</v>
+      </c>
+      <c r="R9" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3791,48 +3653,45 @@
           <t>MMR005</t>
         </is>
       </c>
-      <c r="F10" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="22" t="inlineStr">
+      <c r="F10" s="22" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H10" s="22" t="n">
+      <c r="G10" s="22" t="n">
         <v>29534</v>
       </c>
+      <c r="H10" s="23" t="n">
+        <v>6</v>
+      </c>
       <c r="I10" s="23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J10" s="23" t="n">
-        <v>920</v>
+        <v>1785</v>
+      </c>
+      <c r="J10" s="24" t="n">
+        <v>85.8</v>
       </c>
       <c r="K10" s="24" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="L10" s="24" t="n">
-        <v>25358</v>
+        <v>25351</v>
+      </c>
+      <c r="L10" s="25" t="n">
+        <v>8.1</v>
       </c>
       <c r="M10" s="25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="N10" s="25" t="n">
-        <v>665</v>
+        <v>2398</v>
+      </c>
+      <c r="N10" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="O10" s="26" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="P10" s="26" t="n">
-        <v>2590</v>
+        <v>0</v>
+      </c>
+      <c r="P10" s="27" t="n">
+        <v>94</v>
       </c>
       <c r="Q10" s="27" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="R10" s="27" t="n">
-        <v>28614</v>
-      </c>
-      <c r="S10" s="28" t="inlineStr">
+        <v>27749</v>
+      </c>
+      <c r="R10" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3848,48 +3707,45 @@
           <t>MMR006</t>
         </is>
       </c>
-      <c r="F11" s="22" t="n">
-        <v>17</v>
-      </c>
-      <c r="G11" s="22" t="inlineStr">
+      <c r="F11" s="22" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H11" s="22" t="n">
+      <c r="G11" s="22" t="n">
         <v>40604</v>
       </c>
+      <c r="H11" s="23" t="n">
+        <v>16.6</v>
+      </c>
       <c r="I11" s="23" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J11" s="23" t="n">
-        <v>14021</v>
+        <v>6739</v>
+      </c>
+      <c r="J11" s="24" t="n">
+        <v>64.7</v>
       </c>
       <c r="K11" s="24" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="L11" s="24" t="n">
-        <v>22975</v>
+        <v>26251</v>
+      </c>
+      <c r="L11" s="25" t="n">
+        <v>18.7</v>
       </c>
       <c r="M11" s="25" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="N11" s="25" t="n">
-        <v>2407</v>
+        <v>7613</v>
+      </c>
+      <c r="N11" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="O11" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="P11" s="26" t="n">
-        <v>1201</v>
+        <v>0</v>
+      </c>
+      <c r="P11" s="27" t="n">
+        <v>83.40000000000001</v>
       </c>
       <c r="Q11" s="27" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="R11" s="27" t="n">
-        <v>26583</v>
-      </c>
-      <c r="S11" s="28" t="inlineStr">
+        <v>33864</v>
+      </c>
+      <c r="R11" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3905,50 +3761,47 @@
           <t>MMR007</t>
         </is>
       </c>
-      <c r="F12" s="22" t="n">
-        <v>12</v>
-      </c>
-      <c r="G12" s="22" t="inlineStr">
+      <c r="F12" s="22" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H12" s="22" t="n">
+      <c r="G12" s="22" t="n">
         <v>16305</v>
       </c>
+      <c r="H12" s="23" t="n">
+        <v>83.8</v>
+      </c>
       <c r="I12" s="23" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="J12" s="23" t="n">
-        <v>10879</v>
+        <v>13667</v>
+      </c>
+      <c r="J12" s="24" t="n">
+        <v>12.3</v>
       </c>
       <c r="K12" s="24" t="n">
-        <v>26</v>
-      </c>
-      <c r="L12" s="24" t="n">
-        <v>4239</v>
+        <v>2006</v>
+      </c>
+      <c r="L12" s="25" t="n">
+        <v>3.9</v>
       </c>
       <c r="M12" s="25" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="N12" s="25" t="n">
-        <v>1186</v>
+        <v>632</v>
+      </c>
+      <c r="N12" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="O12" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="P12" s="26" t="n">
-        <v>0</v>
+      <c r="P12" s="27" t="n">
+        <v>16.2</v>
       </c>
       <c r="Q12" s="27" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="R12" s="27" t="n">
-        <v>5425</v>
-      </c>
-      <c r="S12" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
+        <v>2638</v>
+      </c>
+      <c r="R12" s="28" t="inlineStr">
+        <is>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -3962,48 +3815,45 @@
           <t>MMR009</t>
         </is>
       </c>
-      <c r="F13" s="22" t="n">
-        <v>15</v>
-      </c>
-      <c r="G13" s="22" t="inlineStr">
+      <c r="F13" s="22" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H13" s="22" t="n">
+      <c r="G13" s="22" t="n">
         <v>11138</v>
       </c>
+      <c r="H13" s="23" t="n">
+        <v>33.5</v>
+      </c>
       <c r="I13" s="23" t="n">
-        <v>43</v>
-      </c>
-      <c r="J13" s="23" t="n">
-        <v>4790</v>
+        <v>3730</v>
+      </c>
+      <c r="J13" s="24" t="n">
+        <v>50.8</v>
       </c>
       <c r="K13" s="24" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="L13" s="24" t="n">
-        <v>4886</v>
+        <v>5656</v>
+      </c>
+      <c r="L13" s="25" t="n">
+        <v>15.7</v>
       </c>
       <c r="M13" s="25" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="N13" s="25" t="n">
-        <v>829</v>
+        <v>1752</v>
+      </c>
+      <c r="N13" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="O13" s="26" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="P13" s="26" t="n">
-        <v>634</v>
+        <v>0</v>
+      </c>
+      <c r="P13" s="27" t="n">
+        <v>66.5</v>
       </c>
       <c r="Q13" s="27" t="n">
-        <v>57</v>
-      </c>
-      <c r="R13" s="27" t="n">
-        <v>6349</v>
-      </c>
-      <c r="S13" s="28" t="inlineStr">
+        <v>7409</v>
+      </c>
+      <c r="R13" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4019,48 +3869,45 @@
           <t>MMR011</t>
         </is>
       </c>
-      <c r="F14" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="G14" s="22" t="inlineStr">
+      <c r="F14" s="22" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H14" s="22" t="n">
+      <c r="G14" s="22" t="n">
         <v>13395</v>
       </c>
+      <c r="H14" s="23" t="n">
+        <v>50.5</v>
+      </c>
       <c r="I14" s="23" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="J14" s="23" t="n">
-        <v>6748</v>
+        <v>6760</v>
+      </c>
+      <c r="J14" s="24" t="n">
+        <v>35.8</v>
       </c>
       <c r="K14" s="24" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="L14" s="24" t="n">
-        <v>4379</v>
+        <v>4800</v>
+      </c>
+      <c r="L14" s="25" t="n">
+        <v>13.7</v>
       </c>
       <c r="M14" s="25" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="N14" s="25" t="n">
-        <v>928</v>
+        <v>1835</v>
+      </c>
+      <c r="N14" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="O14" s="26" t="n">
-        <v>10</v>
-      </c>
-      <c r="P14" s="26" t="n">
-        <v>1340</v>
+        <v>0</v>
+      </c>
+      <c r="P14" s="27" t="n">
+        <v>49.5</v>
       </c>
       <c r="Q14" s="27" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="R14" s="27" t="n">
-        <v>6647</v>
-      </c>
-      <c r="S14" s="28" t="inlineStr">
+        <v>6635</v>
+      </c>
+      <c r="R14" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4076,48 +3923,45 @@
           <t>MMR012</t>
         </is>
       </c>
-      <c r="F15" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="G15" s="22" t="inlineStr">
+      <c r="F15" s="22" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H15" s="22" t="n">
+      <c r="G15" s="22" t="n">
         <v>14770</v>
       </c>
+      <c r="H15" s="23" t="n">
+        <v>37.1</v>
+      </c>
       <c r="I15" s="23" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J15" s="23" t="n">
-        <v>4494</v>
+        <v>5478</v>
+      </c>
+      <c r="J15" s="24" t="n">
+        <v>45.6</v>
       </c>
       <c r="K15" s="24" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L15" s="24" t="n">
-        <v>7847</v>
+        <v>6733</v>
+      </c>
+      <c r="L15" s="25" t="n">
+        <v>14.2</v>
       </c>
       <c r="M15" s="25" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="N15" s="25" t="n">
-        <v>2164</v>
+        <v>2101</v>
+      </c>
+      <c r="N15" s="26" t="n">
+        <v>3.1</v>
       </c>
       <c r="O15" s="26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P15" s="26" t="n">
-        <v>265</v>
+        <v>458</v>
+      </c>
+      <c r="P15" s="27" t="n">
+        <v>62.9</v>
       </c>
       <c r="Q15" s="27" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="R15" s="27" t="n">
-        <v>10275</v>
-      </c>
-      <c r="S15" s="28" t="inlineStr">
+        <v>9292</v>
+      </c>
+      <c r="R15" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4133,48 +3977,45 @@
           <t>MMR014</t>
         </is>
       </c>
-      <c r="F16" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="G16" s="22" t="inlineStr">
+      <c r="F16" s="22" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H16" s="22" t="n">
+      <c r="G16" s="22" t="n">
         <v>34288</v>
       </c>
+      <c r="H16" s="23" t="n">
+        <v>40.2</v>
+      </c>
       <c r="I16" s="23" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="J16" s="23" t="n">
-        <v>18348</v>
+        <v>13775</v>
+      </c>
+      <c r="J16" s="24" t="n">
+        <v>59.8</v>
       </c>
       <c r="K16" s="24" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="L16" s="24" t="n">
-        <v>14670</v>
+        <v>20512</v>
+      </c>
+      <c r="L16" s="25" t="n">
+        <v>0</v>
       </c>
       <c r="M16" s="25" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="N16" s="25" t="n">
-        <v>1269</v>
+        <v>0</v>
+      </c>
+      <c r="N16" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="O16" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="P16" s="26" t="n">
-        <v>0</v>
+      <c r="P16" s="27" t="n">
+        <v>59.8</v>
       </c>
       <c r="Q16" s="27" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="R16" s="27" t="n">
-        <v>15939</v>
-      </c>
-      <c r="S16" s="28" t="inlineStr">
+        <v>20512</v>
+      </c>
+      <c r="R16" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4190,48 +4031,45 @@
           <t>MMR015</t>
         </is>
       </c>
-      <c r="F17" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" s="29" t="inlineStr">
+      <c r="F17" s="29" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H17" s="29" t="n">
+      <c r="G17" s="29" t="n">
         <v>24796</v>
       </c>
+      <c r="H17" s="30" t="n">
+        <v>7.5</v>
+      </c>
       <c r="I17" s="30" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="J17" s="30" t="n">
-        <v>3983</v>
+        <v>1870</v>
+      </c>
+      <c r="J17" s="31" t="n">
+        <v>86.90000000000001</v>
       </c>
       <c r="K17" s="31" t="n">
-        <v>81</v>
-      </c>
-      <c r="L17" s="31" t="n">
-        <v>20096</v>
+        <v>21548</v>
+      </c>
+      <c r="L17" s="32" t="n">
+        <v>5.6</v>
       </c>
       <c r="M17" s="32" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="N17" s="32" t="n">
-        <v>718</v>
+        <v>1378</v>
+      </c>
+      <c r="N17" s="33" t="n">
+        <v>0</v>
       </c>
       <c r="O17" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="P17" s="33" t="n">
-        <v>0</v>
+      <c r="P17" s="34" t="n">
+        <v>92.5</v>
       </c>
       <c r="Q17" s="34" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="R17" s="34" t="n">
-        <v>20813</v>
-      </c>
-      <c r="S17" s="28" t="inlineStr">
+        <v>22926</v>
+      </c>
+      <c r="R17" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4239,7 +4077,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:S1"/>
+    <mergeCell ref="E1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4251,7 +4089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4260,20 +4098,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="24" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="23" customWidth="1" min="8" max="8"/>
     <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="33" customWidth="1" min="16" max="16"/>
     <col width="33" customWidth="1" min="17" max="17"/>
-    <col width="33" customWidth="1" min="18" max="18"/>
-    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4298,70 +4135,65 @@
       </c>
       <c r="F5" s="15" t="inlineStr">
         <is>
-          <t>Admin Pcode</t>
+          <t>Population group</t>
         </is>
       </c>
       <c r="G5" s="15" t="inlineStr">
         <is>
-          <t>Population group</t>
-        </is>
-      </c>
-      <c r="H5" s="15" t="inlineStr">
-        <is>
           <t>TotN</t>
         </is>
       </c>
+      <c r="H5" s="16" t="inlineStr">
+        <is>
+          <t>% severity levels 1-2</t>
+        </is>
+      </c>
       <c r="I5" s="16" t="inlineStr">
         <is>
-          <t>% severity levels 1-2</t>
-        </is>
-      </c>
-      <c r="J5" s="16" t="inlineStr">
-        <is>
           <t># severity levels 1-2</t>
         </is>
       </c>
+      <c r="J5" s="17" t="inlineStr">
+        <is>
+          <t>% severity level 3</t>
+        </is>
+      </c>
       <c r="K5" s="17" t="inlineStr">
         <is>
-          <t>% severity level 3</t>
-        </is>
-      </c>
-      <c r="L5" s="17" t="inlineStr">
-        <is>
           <t># severity level 3</t>
         </is>
       </c>
+      <c r="L5" s="18" t="inlineStr">
+        <is>
+          <t>% severity level 4</t>
+        </is>
+      </c>
       <c r="M5" s="18" t="inlineStr">
         <is>
-          <t>% severity level 4</t>
-        </is>
-      </c>
-      <c r="N5" s="18" t="inlineStr">
-        <is>
           <t># severity level 4</t>
         </is>
       </c>
+      <c r="N5" s="19" t="inlineStr">
+        <is>
+          <t>% severity level 5</t>
+        </is>
+      </c>
       <c r="O5" s="19" t="inlineStr">
         <is>
-          <t>% severity level 5</t>
-        </is>
-      </c>
-      <c r="P5" s="19" t="inlineStr">
-        <is>
           <t># severity level 5</t>
         </is>
       </c>
+      <c r="P5" s="20" t="inlineStr">
+        <is>
+          <t>% Tot PiN (severity levels 3-5)</t>
+        </is>
+      </c>
       <c r="Q5" s="20" t="inlineStr">
         <is>
-          <t>% Tot PiN (severity levels 3-5)</t>
+          <t># Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="R5" s="20" t="inlineStr">
-        <is>
-          <t># Tot PiN (severity levels 3-5)</t>
-        </is>
-      </c>
-      <c r="S5" s="20" t="inlineStr">
         <is>
           <t>Area severity</t>
         </is>
@@ -4377,48 +4209,45 @@
           <t>MMR001</t>
         </is>
       </c>
-      <c r="F6" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="22" t="inlineStr">
+      <c r="F6" s="22" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H6" s="22" t="n">
+      <c r="G6" s="22" t="n">
         <v>6723</v>
       </c>
+      <c r="H6" s="23" t="n">
+        <v>57</v>
+      </c>
       <c r="I6" s="23" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="J6" s="23" t="n">
-        <v>4030</v>
+        <v>3831</v>
+      </c>
+      <c r="J6" s="24" t="n">
+        <v>43</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="L6" s="24" t="n">
-        <v>2445</v>
+        <v>2893</v>
+      </c>
+      <c r="L6" s="25" t="n">
+        <v>0</v>
       </c>
       <c r="M6" s="25" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="N6" s="25" t="n">
-        <v>249</v>
+        <v>0</v>
+      </c>
+      <c r="N6" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="O6" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="26" t="n">
-        <v>0</v>
+      <c r="P6" s="27" t="n">
+        <v>43</v>
       </c>
       <c r="Q6" s="27" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="R6" s="27" t="n">
-        <v>2694</v>
-      </c>
-      <c r="S6" s="28" t="inlineStr">
+        <v>2893</v>
+      </c>
+      <c r="R6" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4434,48 +4263,45 @@
           <t>MMR002</t>
         </is>
       </c>
-      <c r="F7" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" s="22" t="inlineStr">
+      <c r="F7" s="22" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H7" s="22" t="n">
+      <c r="G7" s="22" t="n">
         <v>3520</v>
       </c>
+      <c r="H7" s="23" t="n">
+        <v>11.3</v>
+      </c>
       <c r="I7" s="23" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="J7" s="23" t="n">
-        <v>578</v>
+        <v>396</v>
+      </c>
+      <c r="J7" s="24" t="n">
+        <v>85.8</v>
       </c>
       <c r="K7" s="24" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="L7" s="24" t="n">
-        <v>2559</v>
+        <v>3022</v>
+      </c>
+      <c r="L7" s="25" t="n">
+        <v>0</v>
       </c>
       <c r="M7" s="25" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="N7" s="25" t="n">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="N7" s="26" t="n">
+        <v>2.9</v>
       </c>
       <c r="O7" s="26" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="P7" s="26" t="n">
-        <v>287</v>
+        <v>102</v>
+      </c>
+      <c r="P7" s="27" t="n">
+        <v>88.7</v>
       </c>
       <c r="Q7" s="27" t="n">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="R7" s="27" t="n">
-        <v>2942</v>
-      </c>
-      <c r="S7" s="28" t="inlineStr">
+        <v>3124</v>
+      </c>
+      <c r="R7" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4491,48 +4317,45 @@
           <t>MMR003</t>
         </is>
       </c>
-      <c r="F8" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" s="22" t="inlineStr">
+      <c r="F8" s="22" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H8" s="22" t="n">
+      <c r="G8" s="22" t="n">
         <v>5079</v>
       </c>
+      <c r="H8" s="23" t="n">
+        <v>77.40000000000001</v>
+      </c>
       <c r="I8" s="23" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="J8" s="23" t="n">
-        <v>2498</v>
+        <v>3932</v>
+      </c>
+      <c r="J8" s="24" t="n">
+        <v>22.6</v>
       </c>
       <c r="K8" s="24" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="L8" s="24" t="n">
-        <v>2548</v>
+        <v>1146</v>
+      </c>
+      <c r="L8" s="25" t="n">
+        <v>0</v>
       </c>
       <c r="M8" s="25" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N8" s="25" t="n">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="N8" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="O8" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="P8" s="26" t="n">
-        <v>0</v>
+      <c r="P8" s="27" t="n">
+        <v>22.6</v>
       </c>
       <c r="Q8" s="27" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="R8" s="27" t="n">
-        <v>2581</v>
-      </c>
-      <c r="S8" s="28" t="inlineStr">
+        <v>1146</v>
+      </c>
+      <c r="R8" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4548,48 +4371,45 @@
           <t>MMR004</t>
         </is>
       </c>
-      <c r="F9" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" s="22" t="inlineStr">
+      <c r="F9" s="22" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H9" s="22" t="n">
+      <c r="G9" s="22" t="n">
         <v>5668</v>
       </c>
+      <c r="H9" s="23" t="n">
+        <v>45.4</v>
+      </c>
       <c r="I9" s="23" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="J9" s="23" t="n">
-        <v>2306</v>
+        <v>2571</v>
+      </c>
+      <c r="J9" s="24" t="n">
+        <v>46.9</v>
       </c>
       <c r="K9" s="24" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="L9" s="24" t="n">
-        <v>3082</v>
+        <v>2660</v>
+      </c>
+      <c r="L9" s="25" t="n">
+        <v>7.7</v>
       </c>
       <c r="M9" s="25" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="N9" s="25" t="n">
-        <v>280</v>
+        <v>437</v>
+      </c>
+      <c r="N9" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="O9" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="P9" s="26" t="n">
-        <v>0</v>
+      <c r="P9" s="27" t="n">
+        <v>54.6</v>
       </c>
       <c r="Q9" s="27" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="R9" s="27" t="n">
-        <v>3362</v>
-      </c>
-      <c r="S9" s="28" t="inlineStr">
+        <v>3098</v>
+      </c>
+      <c r="R9" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4605,48 +4425,45 @@
           <t>MMR005</t>
         </is>
       </c>
-      <c r="F10" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="22" t="inlineStr">
+      <c r="F10" s="22" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H10" s="22" t="n">
+      <c r="G10" s="22" t="n">
         <v>14767</v>
       </c>
+      <c r="H10" s="23" t="n">
+        <v>5.9</v>
+      </c>
       <c r="I10" s="23" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J10" s="23" t="n">
-        <v>1117</v>
+        <v>876</v>
+      </c>
+      <c r="J10" s="24" t="n">
+        <v>94.09999999999999</v>
       </c>
       <c r="K10" s="24" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="L10" s="24" t="n">
-        <v>13650</v>
+        <v>13891</v>
+      </c>
+      <c r="L10" s="25" t="n">
+        <v>0</v>
       </c>
       <c r="M10" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="25" t="n">
+      <c r="N10" s="26" t="n">
         <v>0</v>
       </c>
       <c r="O10" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="P10" s="26" t="n">
-        <v>0</v>
+      <c r="P10" s="27" t="n">
+        <v>94.09999999999999</v>
       </c>
       <c r="Q10" s="27" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="R10" s="27" t="n">
-        <v>13650</v>
-      </c>
-      <c r="S10" s="28" t="inlineStr">
+        <v>13891</v>
+      </c>
+      <c r="R10" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4662,50 +4479,47 @@
           <t>MMR006</t>
         </is>
       </c>
-      <c r="F11" s="22" t="n">
-        <v>17</v>
-      </c>
-      <c r="G11" s="22" t="inlineStr">
+      <c r="F11" s="22" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H11" s="22" t="n">
+      <c r="G11" s="22" t="n">
         <v>20302</v>
       </c>
+      <c r="H11" s="23" t="n">
+        <v>41.1</v>
+      </c>
       <c r="I11" s="23" t="n">
-        <v>55</v>
-      </c>
-      <c r="J11" s="23" t="n">
-        <v>11160</v>
+        <v>8346</v>
+      </c>
+      <c r="J11" s="24" t="n">
+        <v>28.1</v>
       </c>
       <c r="K11" s="24" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="L11" s="24" t="n">
-        <v>7903</v>
+        <v>5712</v>
+      </c>
+      <c r="L11" s="25" t="n">
+        <v>30.8</v>
       </c>
       <c r="M11" s="25" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="N11" s="25" t="n">
-        <v>1239</v>
+        <v>6244</v>
+      </c>
+      <c r="N11" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="O11" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="P11" s="26" t="n">
-        <v>0</v>
+      <c r="P11" s="27" t="n">
+        <v>58.9</v>
       </c>
       <c r="Q11" s="27" t="n">
-        <v>45</v>
-      </c>
-      <c r="R11" s="27" t="n">
-        <v>9142</v>
-      </c>
-      <c r="S11" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
+        <v>11956</v>
+      </c>
+      <c r="R11" s="28" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4719,48 +4533,45 @@
           <t>MMR007</t>
         </is>
       </c>
-      <c r="F12" s="22" t="n">
-        <v>12</v>
-      </c>
-      <c r="G12" s="22" t="inlineStr">
+      <c r="F12" s="22" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H12" s="22" t="n">
+      <c r="G12" s="22" t="n">
         <v>8152</v>
       </c>
+      <c r="H12" s="23" t="n">
+        <v>61.7</v>
+      </c>
       <c r="I12" s="23" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="J12" s="23" t="n">
-        <v>3858</v>
+        <v>5034</v>
+      </c>
+      <c r="J12" s="24" t="n">
+        <v>38.3</v>
       </c>
       <c r="K12" s="24" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="L12" s="24" t="n">
-        <v>3942</v>
+        <v>3118</v>
+      </c>
+      <c r="L12" s="25" t="n">
+        <v>0</v>
       </c>
       <c r="M12" s="25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="N12" s="25" t="n">
-        <v>353</v>
+        <v>0</v>
+      </c>
+      <c r="N12" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="O12" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="P12" s="26" t="n">
-        <v>0</v>
+      <c r="P12" s="27" t="n">
+        <v>38.3</v>
       </c>
       <c r="Q12" s="27" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="R12" s="27" t="n">
-        <v>4295</v>
-      </c>
-      <c r="S12" s="28" t="inlineStr">
+        <v>3118</v>
+      </c>
+      <c r="R12" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4776,48 +4587,45 @@
           <t>MMR009</t>
         </is>
       </c>
-      <c r="F13" s="22" t="n">
-        <v>15</v>
-      </c>
-      <c r="G13" s="22" t="inlineStr">
+      <c r="F13" s="22" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H13" s="22" t="n">
+      <c r="G13" s="22" t="n">
         <v>5569</v>
       </c>
+      <c r="H13" s="23" t="n">
+        <v>11</v>
+      </c>
       <c r="I13" s="23" t="n">
-        <v>28</v>
-      </c>
-      <c r="J13" s="23" t="n">
-        <v>1561</v>
+        <v>614</v>
+      </c>
+      <c r="J13" s="24" t="n">
+        <v>76.40000000000001</v>
       </c>
       <c r="K13" s="24" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="L13" s="24" t="n">
-        <v>2990</v>
+        <v>4252</v>
+      </c>
+      <c r="L13" s="25" t="n">
+        <v>12.6</v>
       </c>
       <c r="M13" s="25" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="N13" s="25" t="n">
-        <v>757</v>
+        <v>703</v>
+      </c>
+      <c r="N13" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="O13" s="26" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="P13" s="26" t="n">
-        <v>262</v>
+        <v>0</v>
+      </c>
+      <c r="P13" s="27" t="n">
+        <v>89</v>
       </c>
       <c r="Q13" s="27" t="n">
-        <v>72</v>
-      </c>
-      <c r="R13" s="27" t="n">
-        <v>4009</v>
-      </c>
-      <c r="S13" s="28" t="inlineStr">
+        <v>4956</v>
+      </c>
+      <c r="R13" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4833,48 +4641,45 @@
           <t>MMR011</t>
         </is>
       </c>
-      <c r="F14" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="G14" s="22" t="inlineStr">
+      <c r="F14" s="22" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H14" s="22" t="n">
+      <c r="G14" s="22" t="n">
         <v>6697</v>
       </c>
+      <c r="H14" s="23" t="n">
+        <v>47.7</v>
+      </c>
       <c r="I14" s="23" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="J14" s="23" t="n">
-        <v>3575</v>
+        <v>3193</v>
+      </c>
+      <c r="J14" s="24" t="n">
+        <v>37.7</v>
       </c>
       <c r="K14" s="24" t="n">
-        <v>31</v>
-      </c>
-      <c r="L14" s="24" t="n">
-        <v>2073</v>
+        <v>2526</v>
+      </c>
+      <c r="L14" s="25" t="n">
+        <v>14.6</v>
       </c>
       <c r="M14" s="25" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="N14" s="25" t="n">
-        <v>934</v>
+        <v>978</v>
+      </c>
+      <c r="N14" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="O14" s="26" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P14" s="26" t="n">
-        <v>116</v>
+        <v>0</v>
+      </c>
+      <c r="P14" s="27" t="n">
+        <v>52.3</v>
       </c>
       <c r="Q14" s="27" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="R14" s="27" t="n">
-        <v>3122</v>
-      </c>
-      <c r="S14" s="28" t="inlineStr">
+        <v>3504</v>
+      </c>
+      <c r="R14" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4890,48 +4695,45 @@
           <t>MMR012</t>
         </is>
       </c>
-      <c r="F15" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="G15" s="22" t="inlineStr">
+      <c r="F15" s="22" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H15" s="22" t="n">
+      <c r="G15" s="22" t="n">
         <v>7385</v>
       </c>
+      <c r="H15" s="23" t="n">
+        <v>50.6</v>
+      </c>
       <c r="I15" s="23" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="J15" s="23" t="n">
-        <v>2428</v>
+        <v>3740</v>
+      </c>
+      <c r="J15" s="24" t="n">
+        <v>45.4</v>
       </c>
       <c r="K15" s="24" t="n">
-        <v>58.4</v>
-      </c>
-      <c r="L15" s="24" t="n">
-        <v>4312</v>
+        <v>3355</v>
+      </c>
+      <c r="L15" s="25" t="n">
+        <v>3.9</v>
       </c>
       <c r="M15" s="25" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="N15" s="25" t="n">
-        <v>599</v>
+        <v>290</v>
+      </c>
+      <c r="N15" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="O15" s="26" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P15" s="26" t="n">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="P15" s="27" t="n">
+        <v>49.4</v>
       </c>
       <c r="Q15" s="27" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="R15" s="27" t="n">
-        <v>4957</v>
-      </c>
-      <c r="S15" s="28" t="inlineStr">
+        <v>3645</v>
+      </c>
+      <c r="R15" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4947,50 +4749,47 @@
           <t>MMR014</t>
         </is>
       </c>
-      <c r="F16" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="G16" s="22" t="inlineStr">
+      <c r="F16" s="22" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H16" s="22" t="n">
+      <c r="G16" s="22" t="n">
         <v>17144</v>
       </c>
+      <c r="H16" s="23" t="n">
+        <v>61</v>
+      </c>
       <c r="I16" s="23" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="J16" s="23" t="n">
-        <v>10164</v>
+        <v>10461</v>
+      </c>
+      <c r="J16" s="24" t="n">
+        <v>39</v>
       </c>
       <c r="K16" s="24" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L16" s="24" t="n">
-        <v>3540</v>
+        <v>6683</v>
+      </c>
+      <c r="L16" s="25" t="n">
+        <v>0</v>
       </c>
       <c r="M16" s="25" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="N16" s="25" t="n">
-        <v>3440</v>
+        <v>0</v>
+      </c>
+      <c r="N16" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="O16" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="P16" s="26" t="n">
-        <v>0</v>
+      <c r="P16" s="27" t="n">
+        <v>39</v>
       </c>
       <c r="Q16" s="27" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="R16" s="27" t="n">
-        <v>6980</v>
-      </c>
-      <c r="S16" s="28" t="inlineStr">
-        <is>
-          <t>4</t>
+        <v>6683</v>
+      </c>
+      <c r="R16" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5004,48 +4803,45 @@
           <t>MMR015</t>
         </is>
       </c>
-      <c r="F17" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" s="29" t="inlineStr">
+      <c r="F17" s="29" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H17" s="29" t="n">
+      <c r="G17" s="29" t="n">
         <v>12398</v>
       </c>
+      <c r="H17" s="30" t="n">
+        <v>44.3</v>
+      </c>
       <c r="I17" s="30" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="J17" s="30" t="n">
-        <v>4546</v>
+        <v>5489</v>
+      </c>
+      <c r="J17" s="31" t="n">
+        <v>43.4</v>
       </c>
       <c r="K17" s="31" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="L17" s="31" t="n">
-        <v>6407</v>
+        <v>5386</v>
+      </c>
+      <c r="L17" s="32" t="n">
+        <v>12.3</v>
       </c>
       <c r="M17" s="32" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="N17" s="32" t="n">
-        <v>782</v>
+        <v>1523</v>
+      </c>
+      <c r="N17" s="33" t="n">
+        <v>0</v>
       </c>
       <c r="O17" s="33" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="P17" s="33" t="n">
-        <v>663</v>
+        <v>0</v>
+      </c>
+      <c r="P17" s="34" t="n">
+        <v>55.7</v>
       </c>
       <c r="Q17" s="34" t="n">
-        <v>63.3</v>
-      </c>
-      <c r="R17" s="34" t="n">
-        <v>7852</v>
-      </c>
-      <c r="S17" s="28" t="inlineStr">
+        <v>6909</v>
+      </c>
+      <c r="R17" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -5053,7 +4849,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:S1"/>
+    <mergeCell ref="E1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5065,7 +4861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5074,20 +4870,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="23" customWidth="1" min="8" max="8"/>
     <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="33" customWidth="1" min="16" max="16"/>
     <col width="33" customWidth="1" min="17" max="17"/>
-    <col width="33" customWidth="1" min="18" max="18"/>
-    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5112,70 +4907,65 @@
       </c>
       <c r="F5" s="15" t="inlineStr">
         <is>
-          <t>Admin Pcode</t>
+          <t>Population group</t>
         </is>
       </c>
       <c r="G5" s="15" t="inlineStr">
         <is>
-          <t>Population group</t>
-        </is>
-      </c>
-      <c r="H5" s="15" t="inlineStr">
-        <is>
           <t>TotN</t>
         </is>
       </c>
+      <c r="H5" s="16" t="inlineStr">
+        <is>
+          <t>% severity levels 1-2</t>
+        </is>
+      </c>
       <c r="I5" s="16" t="inlineStr">
         <is>
-          <t>% severity levels 1-2</t>
-        </is>
-      </c>
-      <c r="J5" s="16" t="inlineStr">
-        <is>
           <t># severity levels 1-2</t>
         </is>
       </c>
+      <c r="J5" s="17" t="inlineStr">
+        <is>
+          <t>% severity level 3</t>
+        </is>
+      </c>
       <c r="K5" s="17" t="inlineStr">
         <is>
-          <t>% severity level 3</t>
-        </is>
-      </c>
-      <c r="L5" s="17" t="inlineStr">
-        <is>
           <t># severity level 3</t>
         </is>
       </c>
+      <c r="L5" s="18" t="inlineStr">
+        <is>
+          <t>% severity level 4</t>
+        </is>
+      </c>
       <c r="M5" s="18" t="inlineStr">
         <is>
-          <t>% severity level 4</t>
-        </is>
-      </c>
-      <c r="N5" s="18" t="inlineStr">
-        <is>
           <t># severity level 4</t>
         </is>
       </c>
+      <c r="N5" s="19" t="inlineStr">
+        <is>
+          <t>% severity level 5</t>
+        </is>
+      </c>
       <c r="O5" s="19" t="inlineStr">
         <is>
-          <t>% severity level 5</t>
-        </is>
-      </c>
-      <c r="P5" s="19" t="inlineStr">
-        <is>
           <t># severity level 5</t>
         </is>
       </c>
+      <c r="P5" s="20" t="inlineStr">
+        <is>
+          <t>% Tot PiN (severity levels 3-5)</t>
+        </is>
+      </c>
       <c r="Q5" s="20" t="inlineStr">
         <is>
-          <t>% Tot PiN (severity levels 3-5)</t>
+          <t># Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="R5" s="20" t="inlineStr">
-        <is>
-          <t># Tot PiN (severity levels 3-5)</t>
-        </is>
-      </c>
-      <c r="S5" s="20" t="inlineStr">
         <is>
           <t>Area severity</t>
         </is>
@@ -5191,48 +4981,45 @@
           <t>MMR012</t>
         </is>
       </c>
-      <c r="F6" s="29" t="n">
-        <v>7</v>
-      </c>
-      <c r="G6" s="29" t="inlineStr">
+      <c r="F6" s="29" t="inlineStr">
         <is>
           <t>ndsp</t>
         </is>
       </c>
-      <c r="H6" s="29" t="n">
+      <c r="G6" s="29" t="n">
         <v>22154</v>
       </c>
+      <c r="H6" s="30" t="n">
+        <v>35.7</v>
+      </c>
       <c r="I6" s="30" t="n">
-        <v>32</v>
-      </c>
-      <c r="J6" s="30" t="n">
-        <v>7094</v>
+        <v>7909</v>
+      </c>
+      <c r="J6" s="31" t="n">
+        <v>53</v>
       </c>
       <c r="K6" s="31" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="L6" s="31" t="n">
-        <v>13492</v>
+        <v>11747</v>
+      </c>
+      <c r="L6" s="32" t="n">
+        <v>11.3</v>
       </c>
       <c r="M6" s="32" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="N6" s="32" t="n">
-        <v>1507</v>
+        <v>2498</v>
+      </c>
+      <c r="N6" s="33" t="n">
+        <v>0</v>
       </c>
       <c r="O6" s="33" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P6" s="33" t="n">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="P6" s="34" t="n">
+        <v>64.3</v>
       </c>
       <c r="Q6" s="34" t="n">
-        <v>68</v>
-      </c>
-      <c r="R6" s="34" t="n">
-        <v>15060</v>
-      </c>
-      <c r="S6" s="28" t="inlineStr">
+        <v>14245</v>
+      </c>
+      <c r="R6" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -5240,7 +5027,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:S1"/>
+    <mergeCell ref="E1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output_validation/final__OCHA__platform_output.xlsx
+++ b/output_validation/final__OCHA__platform_output.xlsx
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="E6" s="9" t="n">
-        <v>985277</v>
+        <v>2426892</v>
       </c>
       <c r="F6" s="10" t="n"/>
       <c r="G6" s="10" t="n"/>
@@ -798,37 +798,37 @@
         </is>
       </c>
       <c r="J6" s="9" t="n">
-        <v>2833958</v>
+        <v>3627552</v>
       </c>
       <c r="K6" s="9" t="n">
-        <v>65.2</v>
+        <v>33.1</v>
       </c>
       <c r="L6" s="9" t="n">
-        <v>1848682</v>
+        <v>1200661</v>
       </c>
       <c r="M6" s="9" t="n">
-        <v>31.4</v>
+        <v>63.1</v>
       </c>
       <c r="N6" s="9" t="n">
-        <v>889297</v>
+        <v>2287465</v>
       </c>
       <c r="O6" s="9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P6" s="9" t="n">
-        <v>84060</v>
+        <v>113644</v>
       </c>
       <c r="Q6" s="9" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="R6" s="9" t="n">
-        <v>11919</v>
+        <v>25783</v>
       </c>
       <c r="S6" s="9" t="n">
-        <v>34.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="T6" s="9" t="n">
-        <v>985277</v>
+        <v>2426892</v>
       </c>
     </row>
     <row r="7">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="E7" s="11" t="n">
-        <v>754057</v>
+        <v>2047366</v>
       </c>
       <c r="F7" s="4" t="n"/>
       <c r="G7" s="4" t="n"/>
@@ -860,37 +860,37 @@
         </is>
       </c>
       <c r="J7" s="11" t="n">
-        <v>2471589</v>
+        <v>3017073</v>
       </c>
       <c r="K7" s="11" t="n">
-        <v>69.5</v>
+        <v>32.1</v>
       </c>
       <c r="L7" s="11" t="n">
-        <v>1717531</v>
+        <v>969707</v>
       </c>
       <c r="M7" s="11" t="n">
-        <v>28</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="N7" s="11" t="n">
-        <v>692445</v>
+        <v>1948204</v>
       </c>
       <c r="O7" s="11" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="P7" s="11" t="n">
-        <v>50253</v>
+        <v>75104</v>
       </c>
       <c r="Q7" s="11" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="R7" s="11" t="n">
-        <v>11360</v>
+        <v>24058</v>
       </c>
       <c r="S7" s="11" t="n">
-        <v>30.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="T7" s="11" t="n">
-        <v>754057</v>
+        <v>2047366</v>
       </c>
     </row>
     <row r="8">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E8" s="11" t="n">
-        <v>152052</v>
+        <v>177568</v>
       </c>
       <c r="F8" s="4" t="n"/>
       <c r="G8" s="4" t="n"/>
@@ -922,37 +922,37 @@
         </is>
       </c>
       <c r="J8" s="11" t="n">
-        <v>226810</v>
+        <v>298263</v>
       </c>
       <c r="K8" s="11" t="n">
-        <v>33</v>
+        <v>40.5</v>
       </c>
       <c r="L8" s="11" t="n">
-        <v>74758</v>
+        <v>120695</v>
       </c>
       <c r="M8" s="11" t="n">
-        <v>57.5</v>
+        <v>51.9</v>
       </c>
       <c r="N8" s="11" t="n">
-        <v>130460</v>
+        <v>154753</v>
       </c>
       <c r="O8" s="11" t="n">
-        <v>9.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="P8" s="11" t="n">
-        <v>21134</v>
+        <v>21993</v>
       </c>
       <c r="Q8" s="11" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R8" s="11" t="n">
-        <v>458</v>
+        <v>821</v>
       </c>
       <c r="S8" s="11" t="n">
-        <v>67</v>
+        <v>59.5</v>
       </c>
       <c r="T8" s="11" t="n">
-        <v>152052</v>
+        <v>177568</v>
       </c>
     </row>
     <row r="9">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="E9" s="11" t="n">
-        <v>64922</v>
+        <v>115024</v>
       </c>
       <c r="F9" s="4" t="n"/>
       <c r="G9" s="4" t="n"/>
@@ -984,37 +984,37 @@
         </is>
       </c>
       <c r="J9" s="11" t="n">
-        <v>113405</v>
+        <v>175077</v>
       </c>
       <c r="K9" s="11" t="n">
-        <v>42.8</v>
+        <v>34.3</v>
       </c>
       <c r="L9" s="11" t="n">
-        <v>48483</v>
+        <v>60053</v>
       </c>
       <c r="M9" s="11" t="n">
-        <v>48.2</v>
+        <v>62.6</v>
       </c>
       <c r="N9" s="11" t="n">
-        <v>54644</v>
+        <v>109653</v>
       </c>
       <c r="O9" s="11" t="n">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="P9" s="11" t="n">
-        <v>10176</v>
+        <v>4467</v>
       </c>
       <c r="Q9" s="11" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="R9" s="11" t="n">
-        <v>102</v>
+        <v>904</v>
       </c>
       <c r="S9" s="11" t="n">
-        <v>57.2</v>
+        <v>65.7</v>
       </c>
       <c r="T9" s="11" t="n">
-        <v>64922</v>
+        <v>115024</v>
       </c>
     </row>
     <row r="10">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="E10" s="11" t="n">
-        <v>14245</v>
+        <v>86934</v>
       </c>
       <c r="F10" s="4" t="n"/>
       <c r="G10" s="4" t="n"/>
@@ -1046,25 +1046,25 @@
         </is>
       </c>
       <c r="J10" s="11" t="n">
-        <v>22154</v>
+        <v>137139</v>
       </c>
       <c r="K10" s="11" t="n">
-        <v>35.7</v>
+        <v>36.6</v>
       </c>
       <c r="L10" s="11" t="n">
-        <v>7909</v>
+        <v>50206</v>
       </c>
       <c r="M10" s="11" t="n">
-        <v>53</v>
+        <v>54.6</v>
       </c>
       <c r="N10" s="11" t="n">
-        <v>11747</v>
+        <v>74854</v>
       </c>
       <c r="O10" s="11" t="n">
-        <v>11.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="P10" s="11" t="n">
-        <v>2498</v>
+        <v>12079</v>
       </c>
       <c r="Q10" s="11" t="n">
         <v>0</v>
@@ -1073,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="S10" s="11" t="n">
-        <v>64.3</v>
+        <v>63.4</v>
       </c>
       <c r="T10" s="11" t="n">
-        <v>14245</v>
+        <v>86934</v>
       </c>
     </row>
     <row r="11">
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="E11" s="12" t="n">
-        <v>424978</v>
+        <v>1027857</v>
       </c>
       <c r="F11" s="4" t="n"/>
       <c r="G11" s="4" t="n"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="E12" s="12" t="n">
-        <v>560299</v>
+        <v>1399035</v>
       </c>
       <c r="F12" s="4" t="n"/>
       <c r="G12" s="4" t="n"/>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="E13" s="13" t="n">
-        <v>102319</v>
+        <v>245983</v>
       </c>
       <c r="F13" s="4" t="n"/>
       <c r="G13" s="4" t="n"/>
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="E14" s="13" t="n">
-        <v>98528</v>
+        <v>242689</v>
       </c>
       <c r="F14" s="4" t="n"/>
       <c r="G14" s="4" t="n"/>
@@ -1221,7 +1221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,7 +1261,7 @@
       <c r="D5" s="14" t="n"/>
       <c r="E5" s="15" t="inlineStr">
         <is>
-          <t>admin1</t>
+          <t>admin3</t>
         </is>
       </c>
       <c r="F5" s="15" t="inlineStr">
@@ -1332,29 +1332,29 @@
       <c r="D6" s="21" t="n"/>
       <c r="E6" s="22" t="inlineStr">
         <is>
-          <t>MMR001</t>
+          <t>MMR001001</t>
         </is>
       </c>
       <c r="F6" s="22" t="n">
-        <v>114297</v>
+        <v>251037</v>
       </c>
       <c r="G6" s="23" t="n">
         <v>86.8</v>
       </c>
       <c r="H6" s="23" t="n">
-        <v>99264</v>
+        <v>218019</v>
       </c>
       <c r="I6" s="24" t="n">
         <v>4.1</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>4653</v>
+        <v>10220</v>
       </c>
       <c r="K6" s="25" t="n">
         <v>9.1</v>
       </c>
       <c r="L6" s="25" t="n">
-        <v>10380</v>
+        <v>22798</v>
       </c>
       <c r="M6" s="26" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>13.2</v>
       </c>
       <c r="P6" s="27" t="n">
-        <v>15033</v>
+        <v>33018</v>
       </c>
       <c r="Q6" s="28" t="inlineStr">
         <is>
@@ -1381,45 +1381,45 @@
       <c r="D7" s="21" t="n"/>
       <c r="E7" s="22" t="inlineStr">
         <is>
-          <t>MMR002</t>
+          <t>MMR001002</t>
         </is>
       </c>
       <c r="F7" s="22" t="n">
-        <v>59845</v>
+        <v>114297</v>
       </c>
       <c r="G7" s="23" t="n">
-        <v>30.5</v>
+        <v>86.8</v>
       </c>
       <c r="H7" s="23" t="n">
-        <v>18242</v>
+        <v>99264</v>
       </c>
       <c r="I7" s="24" t="n">
-        <v>65.7</v>
+        <v>4.1</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>39317</v>
+        <v>4653</v>
       </c>
       <c r="K7" s="25" t="n">
-        <v>3.6</v>
+        <v>9.1</v>
       </c>
       <c r="L7" s="25" t="n">
-        <v>2184</v>
+        <v>10380</v>
       </c>
       <c r="M7" s="26" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="26" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="O7" s="27" t="n">
-        <v>69.5</v>
+        <v>13.2</v>
       </c>
       <c r="P7" s="27" t="n">
-        <v>41604</v>
+        <v>15033</v>
       </c>
       <c r="Q7" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -1430,29 +1430,29 @@
       <c r="D8" s="21" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>MMR003</t>
+          <t>MMR001004</t>
         </is>
       </c>
       <c r="F8" s="22" t="n">
-        <v>86336</v>
+        <v>103549</v>
       </c>
       <c r="G8" s="23" t="n">
-        <v>66.2</v>
+        <v>86.8</v>
       </c>
       <c r="H8" s="23" t="n">
-        <v>57184</v>
+        <v>89929</v>
       </c>
       <c r="I8" s="24" t="n">
-        <v>33.8</v>
+        <v>4.1</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>29152</v>
+        <v>4216</v>
       </c>
       <c r="K8" s="25" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="L8" s="25" t="n">
-        <v>0</v>
+        <v>9404</v>
       </c>
       <c r="M8" s="26" t="n">
         <v>0</v>
@@ -1461,14 +1461,14 @@
         <v>0</v>
       </c>
       <c r="O8" s="27" t="n">
-        <v>33.8</v>
+        <v>13.2</v>
       </c>
       <c r="P8" s="27" t="n">
-        <v>29152</v>
+        <v>13619</v>
       </c>
       <c r="Q8" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -1479,41 +1479,41 @@
       <c r="D9" s="21" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>MMR004</t>
+          <t>MMR002005</t>
         </is>
       </c>
       <c r="F9" s="22" t="n">
-        <v>96362</v>
+        <v>100033</v>
       </c>
       <c r="G9" s="23" t="n">
-        <v>15.8</v>
+        <v>30.5</v>
       </c>
       <c r="H9" s="23" t="n">
-        <v>15230</v>
+        <v>30491</v>
       </c>
       <c r="I9" s="24" t="n">
-        <v>73.5</v>
+        <v>65.7</v>
       </c>
       <c r="J9" s="24" t="n">
-        <v>70783</v>
+        <v>65720</v>
       </c>
       <c r="K9" s="25" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L9" s="25" t="n">
-        <v>3617</v>
+        <v>3651</v>
       </c>
       <c r="M9" s="26" t="n">
-        <v>7</v>
+        <v>0.2</v>
       </c>
       <c r="N9" s="26" t="n">
-        <v>6732</v>
+        <v>170</v>
       </c>
       <c r="O9" s="27" t="n">
-        <v>84.2</v>
+        <v>69.5</v>
       </c>
       <c r="P9" s="27" t="n">
-        <v>81132</v>
+        <v>69542</v>
       </c>
       <c r="Q9" s="28" t="inlineStr">
         <is>
@@ -1528,41 +1528,41 @@
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>MMR005</t>
+          <t>MMR002006</t>
         </is>
       </c>
       <c r="F10" s="22" t="n">
-        <v>251037</v>
+        <v>345131</v>
       </c>
       <c r="G10" s="23" t="n">
-        <v>11.1</v>
+        <v>30.5</v>
       </c>
       <c r="H10" s="23" t="n">
-        <v>27988</v>
+        <v>105200</v>
       </c>
       <c r="I10" s="24" t="n">
-        <v>87.90000000000001</v>
+        <v>65.7</v>
       </c>
       <c r="J10" s="24" t="n">
-        <v>220651</v>
+        <v>226746</v>
       </c>
       <c r="K10" s="25" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="L10" s="25" t="n">
-        <v>2398</v>
+        <v>12597</v>
       </c>
       <c r="M10" s="26" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N10" s="26" t="n">
-        <v>0</v>
+        <v>587</v>
       </c>
       <c r="O10" s="27" t="n">
-        <v>88.90000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="P10" s="27" t="n">
-        <v>223050</v>
+        <v>239930</v>
       </c>
       <c r="Q10" s="28" t="inlineStr">
         <is>
@@ -1577,41 +1577,41 @@
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>MMR006</t>
+          <t>MMR002007</t>
         </is>
       </c>
       <c r="F11" s="22" t="n">
-        <v>345131</v>
+        <v>85923</v>
       </c>
       <c r="G11" s="23" t="n">
-        <v>64.09999999999999</v>
+        <v>30.5</v>
       </c>
       <c r="H11" s="23" t="n">
-        <v>221321</v>
+        <v>26190</v>
       </c>
       <c r="I11" s="24" t="n">
-        <v>26.9</v>
+        <v>65.7</v>
       </c>
       <c r="J11" s="24" t="n">
-        <v>92961</v>
+        <v>56450</v>
       </c>
       <c r="K11" s="25" t="n">
-        <v>8.9</v>
+        <v>3.6</v>
       </c>
       <c r="L11" s="25" t="n">
-        <v>30848</v>
+        <v>3136</v>
       </c>
       <c r="M11" s="26" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N11" s="26" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="O11" s="27" t="n">
-        <v>35.9</v>
+        <v>69.5</v>
       </c>
       <c r="P11" s="27" t="n">
-        <v>123809</v>
+        <v>59733</v>
       </c>
       <c r="Q11" s="28" t="inlineStr">
         <is>
@@ -1626,29 +1626,29 @@
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>MMR007</t>
+          <t>MMR008003</t>
         </is>
       </c>
       <c r="F12" s="22" t="n">
-        <v>138589</v>
+        <v>206737</v>
       </c>
       <c r="G12" s="23" t="n">
-        <v>78.8</v>
+        <v>100</v>
       </c>
       <c r="H12" s="23" t="n">
-        <v>109141</v>
+        <v>206737</v>
       </c>
       <c r="I12" s="24" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>23294</v>
+        <v>0</v>
       </c>
       <c r="K12" s="25" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="L12" s="25" t="n">
-        <v>6154</v>
+        <v>0</v>
       </c>
       <c r="M12" s="26" t="n">
         <v>0</v>
@@ -1657,14 +1657,14 @@
         <v>0</v>
       </c>
       <c r="O12" s="27" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="P12" s="27" t="n">
-        <v>29448</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -1675,23 +1675,23 @@
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>MMR008</t>
+          <t>MMR009018</t>
         </is>
       </c>
       <c r="F13" s="22" t="n">
-        <v>82380</v>
+        <v>274302</v>
       </c>
       <c r="G13" s="23" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="H13" s="23" t="n">
-        <v>82380</v>
+        <v>24698</v>
       </c>
       <c r="I13" s="24" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>0</v>
+        <v>249604</v>
       </c>
       <c r="K13" s="25" t="n">
         <v>0</v>
@@ -1706,14 +1706,14 @@
         <v>0</v>
       </c>
       <c r="O13" s="27" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="P13" s="27" t="n">
-        <v>0</v>
+        <v>249604</v>
       </c>
       <c r="Q13" s="28" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1724,29 +1724,29 @@
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>MMR009</t>
+          <t>MMR009019</t>
         </is>
       </c>
       <c r="F14" s="22" t="n">
-        <v>94677</v>
+        <v>52804</v>
       </c>
       <c r="G14" s="23" t="n">
-        <v>60.4</v>
+        <v>0</v>
       </c>
       <c r="H14" s="23" t="n">
-        <v>57184</v>
+        <v>0</v>
       </c>
       <c r="I14" s="24" t="n">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="J14" s="24" t="n">
-        <v>35038</v>
+        <v>52804</v>
       </c>
       <c r="K14" s="25" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="L14" s="25" t="n">
-        <v>2456</v>
+        <v>0</v>
       </c>
       <c r="M14" s="26" t="n">
         <v>0</v>
@@ -1755,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="27" t="n">
-        <v>39.6</v>
+        <v>100</v>
       </c>
       <c r="P14" s="27" t="n">
-        <v>37494</v>
+        <v>52804</v>
       </c>
       <c r="Q14" s="28" t="inlineStr">
         <is>
@@ -1773,23 +1773,23 @@
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>MMR010</t>
+          <t>MMR009020</t>
         </is>
       </c>
       <c r="F15" s="22" t="n">
-        <v>469612</v>
+        <v>570244</v>
       </c>
       <c r="G15" s="23" t="n">
-        <v>86.2</v>
+        <v>0</v>
       </c>
       <c r="H15" s="23" t="n">
-        <v>404809</v>
+        <v>0</v>
       </c>
       <c r="I15" s="24" t="n">
-        <v>13.8</v>
+        <v>100</v>
       </c>
       <c r="J15" s="24" t="n">
-        <v>64803</v>
+        <v>570244</v>
       </c>
       <c r="K15" s="25" t="n">
         <v>0</v>
@@ -1804,14 +1804,14 @@
         <v>0</v>
       </c>
       <c r="O15" s="27" t="n">
-        <v>13.8</v>
+        <v>100</v>
       </c>
       <c r="P15" s="27" t="n">
-        <v>64803</v>
+        <v>570244</v>
       </c>
       <c r="Q15" s="28" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1822,29 +1822,29 @@
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>MMR011</t>
+          <t>MMR012001</t>
         </is>
       </c>
       <c r="F16" s="22" t="n">
-        <v>113855</v>
+        <v>88601</v>
       </c>
       <c r="G16" s="23" t="n">
-        <v>72.3</v>
+        <v>28.7</v>
       </c>
       <c r="H16" s="23" t="n">
-        <v>82295</v>
+        <v>25463</v>
       </c>
       <c r="I16" s="24" t="n">
-        <v>18.4</v>
+        <v>47.3</v>
       </c>
       <c r="J16" s="24" t="n">
-        <v>20995</v>
+        <v>41873</v>
       </c>
       <c r="K16" s="25" t="n">
-        <v>9.300000000000001</v>
+        <v>24</v>
       </c>
       <c r="L16" s="25" t="n">
-        <v>10565</v>
+        <v>21265</v>
       </c>
       <c r="M16" s="26" t="n">
         <v>0</v>
@@ -1853,14 +1853,14 @@
         <v>0</v>
       </c>
       <c r="O16" s="27" t="n">
-        <v>27.7</v>
+        <v>71.3</v>
       </c>
       <c r="P16" s="27" t="n">
-        <v>31560</v>
+        <v>63138</v>
       </c>
       <c r="Q16" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1871,45 +1871,45 @@
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="22" t="inlineStr">
         <is>
-          <t>MMR012</t>
+          <t>MMR012003</t>
         </is>
       </c>
       <c r="F17" s="22" t="n">
-        <v>147696</v>
+        <v>134467</v>
       </c>
       <c r="G17" s="23" t="n">
-        <v>32.4</v>
+        <v>0</v>
       </c>
       <c r="H17" s="23" t="n">
-        <v>47897</v>
+        <v>0</v>
       </c>
       <c r="I17" s="24" t="n">
-        <v>58.2</v>
+        <v>78.8</v>
       </c>
       <c r="J17" s="24" t="n">
-        <v>85960</v>
+        <v>105896</v>
       </c>
       <c r="K17" s="25" t="n">
-        <v>5.9</v>
+        <v>21.2</v>
       </c>
       <c r="L17" s="25" t="n">
-        <v>8754</v>
+        <v>28571</v>
       </c>
       <c r="M17" s="26" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="N17" s="26" t="n">
-        <v>5086</v>
+        <v>0</v>
       </c>
       <c r="O17" s="27" t="n">
-        <v>67.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="P17" s="27" t="n">
-        <v>99799</v>
+        <v>134467</v>
       </c>
       <c r="Q17" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1920,29 +1920,29 @@
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>MMR013</t>
+          <t>MMR012004</t>
         </is>
       </c>
       <c r="F18" s="22" t="n">
-        <v>94050</v>
+        <v>109640</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>55.5</v>
+        <v>17.7</v>
       </c>
       <c r="H18" s="23" t="n">
-        <v>52237</v>
+        <v>19410</v>
       </c>
       <c r="I18" s="24" t="n">
-        <v>40.4</v>
+        <v>82.3</v>
       </c>
       <c r="J18" s="24" t="n">
-        <v>38011</v>
+        <v>90230</v>
       </c>
       <c r="K18" s="25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L18" s="25" t="n">
-        <v>3802</v>
+        <v>0</v>
       </c>
       <c r="M18" s="26" t="n">
         <v>0</v>
@@ -1951,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="27" t="n">
-        <v>44.5</v>
+        <v>82.3</v>
       </c>
       <c r="P18" s="27" t="n">
-        <v>41813</v>
+        <v>90230</v>
       </c>
       <c r="Q18" s="28" t="inlineStr">
         <is>
@@ -1969,23 +1969,23 @@
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>MMR014</t>
+          <t>MMR012005</t>
         </is>
       </c>
       <c r="F19" s="22" t="n">
-        <v>291446</v>
+        <v>34010</v>
       </c>
       <c r="G19" s="23" t="n">
-        <v>80.8</v>
+        <v>8.5</v>
       </c>
       <c r="H19" s="23" t="n">
-        <v>235547</v>
+        <v>2879</v>
       </c>
       <c r="I19" s="24" t="n">
-        <v>19.2</v>
+        <v>91.5</v>
       </c>
       <c r="J19" s="24" t="n">
-        <v>55899</v>
+        <v>31131</v>
       </c>
       <c r="K19" s="25" t="n">
         <v>0</v>
@@ -2000,14 +2000,14 @@
         <v>0</v>
       </c>
       <c r="O19" s="27" t="n">
-        <v>19.2</v>
+        <v>91.5</v>
       </c>
       <c r="P19" s="27" t="n">
-        <v>55899</v>
+        <v>31131</v>
       </c>
       <c r="Q19" s="28" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2018,41 +2018,41 @@
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>MMR015</t>
+          <t>MMR012006</t>
         </is>
       </c>
       <c r="F20" s="22" t="n">
-        <v>210768</v>
+        <v>185972</v>
       </c>
       <c r="G20" s="23" t="n">
-        <v>60.9</v>
+        <v>3.8</v>
       </c>
       <c r="H20" s="23" t="n">
-        <v>128310</v>
+        <v>7003</v>
       </c>
       <c r="I20" s="24" t="n">
-        <v>37.7</v>
+        <v>83.3</v>
       </c>
       <c r="J20" s="24" t="n">
-        <v>79557</v>
+        <v>154910</v>
       </c>
       <c r="K20" s="25" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="L20" s="25" t="n">
-        <v>2901</v>
+        <v>0</v>
       </c>
       <c r="M20" s="26" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="N20" s="26" t="n">
-        <v>0</v>
+        <v>24058</v>
       </c>
       <c r="O20" s="27" t="n">
-        <v>39.1</v>
+        <v>96.2</v>
       </c>
       <c r="P20" s="27" t="n">
-        <v>82458</v>
+        <v>178968</v>
       </c>
       <c r="Q20" s="28" t="inlineStr">
         <is>
@@ -2067,45 +2067,45 @@
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>MMR016</t>
+          <t>MMR012007</t>
         </is>
       </c>
       <c r="F21" s="22" t="n">
-        <v>70760</v>
+        <v>25393</v>
       </c>
       <c r="G21" s="23" t="n">
-        <v>93.09999999999999</v>
+        <v>35.9</v>
       </c>
       <c r="H21" s="23" t="n">
-        <v>65883</v>
+        <v>9121</v>
       </c>
       <c r="I21" s="24" t="n">
-        <v>6.9</v>
+        <v>53.6</v>
       </c>
       <c r="J21" s="24" t="n">
-        <v>4877</v>
+        <v>13610</v>
       </c>
       <c r="K21" s="25" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="L21" s="25" t="n">
-        <v>0</v>
+        <v>1841</v>
       </c>
       <c r="M21" s="26" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="N21" s="26" t="n">
-        <v>0</v>
+        <v>821</v>
       </c>
       <c r="O21" s="27" t="n">
-        <v>6.9</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="P21" s="27" t="n">
-        <v>4877</v>
+        <v>16272</v>
       </c>
       <c r="Q21" s="28" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2116,17 +2116,17 @@
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>MMR017</t>
+          <t>MMR012010</t>
         </is>
       </c>
       <c r="F22" s="22" t="n">
-        <v>81840</v>
+        <v>140311</v>
       </c>
       <c r="G22" s="23" t="n">
         <v>100</v>
       </c>
       <c r="H22" s="23" t="n">
-        <v>81840</v>
+        <v>140311</v>
       </c>
       <c r="I22" s="24" t="n">
         <v>0</v>
@@ -2163,47 +2163,194 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="n"/>
       <c r="D23" s="21" t="n"/>
-      <c r="E23" s="29" t="inlineStr">
-        <is>
-          <t>MMR018</t>
-        </is>
-      </c>
-      <c r="F23" s="29" t="n">
-        <v>85275</v>
-      </c>
-      <c r="G23" s="30" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="H23" s="30" t="n">
-        <v>61931</v>
-      </c>
-      <c r="I23" s="31" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J23" s="31" t="n">
-        <v>23345</v>
-      </c>
-      <c r="K23" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="34" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="P23" s="34" t="n">
-        <v>23345</v>
+      <c r="E23" s="22" t="inlineStr">
+        <is>
+          <t>MMR012011</t>
+        </is>
+      </c>
+      <c r="F23" s="22" t="n">
+        <v>93763</v>
+      </c>
+      <c r="G23" s="23" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="H23" s="23" t="n">
+        <v>39294</v>
+      </c>
+      <c r="I23" s="24" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="J23" s="24" t="n">
+        <v>54469</v>
+      </c>
+      <c r="K23" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="27" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="P23" s="27" t="n">
+        <v>54469</v>
       </c>
       <c r="Q23" s="28" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="21" t="n"/>
+      <c r="B24" s="21" t="n"/>
+      <c r="C24" s="21" t="n"/>
+      <c r="D24" s="21" t="n"/>
+      <c r="E24" s="22" t="inlineStr">
+        <is>
+          <t>MMR012014</t>
+        </is>
+      </c>
+      <c r="F24" s="22" t="n">
+        <v>503156</v>
+      </c>
+      <c r="G24" s="23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H24" s="23" t="n">
+        <v>18497</v>
+      </c>
+      <c r="I24" s="24" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="J24" s="24" t="n">
+        <v>484659</v>
+      </c>
+      <c r="K24" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="27" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="P24" s="27" t="n">
+        <v>484659</v>
+      </c>
+      <c r="Q24" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="21" t="n"/>
+      <c r="B25" s="21" t="n"/>
+      <c r="C25" s="21" t="n"/>
+      <c r="D25" s="21" t="n"/>
+      <c r="E25" s="22" t="inlineStr">
+        <is>
+          <t>MMR012015</t>
+        </is>
+      </c>
+      <c r="F25" s="22" t="n">
+        <v>114132</v>
+      </c>
+      <c r="G25" s="23" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="H25" s="23" t="n">
+        <v>44104</v>
+      </c>
+      <c r="I25" s="24" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="J25" s="24" t="n">
+        <v>70028</v>
+      </c>
+      <c r="K25" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="27" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="P25" s="27" t="n">
+        <v>70028</v>
+      </c>
+      <c r="Q25" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="21" t="n"/>
+      <c r="B26" s="21" t="n"/>
+      <c r="C26" s="21" t="n"/>
+      <c r="D26" s="21" t="n"/>
+      <c r="E26" s="29" t="inlineStr">
+        <is>
+          <t>MMR012016</t>
+        </is>
+      </c>
+      <c r="F26" s="29" t="n">
+        <v>94050</v>
+      </c>
+      <c r="G26" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="H26" s="30" t="n">
+        <v>94050</v>
+      </c>
+      <c r="I26" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="28" t="inlineStr">
+        <is>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2409,7 @@
       <c r="D5" s="14" t="n"/>
       <c r="E5" s="15" t="inlineStr">
         <is>
-          <t>admin1</t>
+          <t>admin3</t>
         </is>
       </c>
       <c r="F5" s="15" t="inlineStr">
@@ -2338,7 +2485,7 @@
       <c r="D6" s="21" t="n"/>
       <c r="E6" s="22" t="inlineStr">
         <is>
-          <t>MMR001</t>
+          <t>MMR008003</t>
         </is>
       </c>
       <c r="F6" s="22" t="inlineStr">
@@ -2347,13 +2494,13 @@
         </is>
       </c>
       <c r="G6" s="22" t="n">
-        <v>94127</v>
+        <v>206737</v>
       </c>
       <c r="H6" s="23" t="n">
-        <v>91.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>86039</v>
+        <v>206737</v>
       </c>
       <c r="J6" s="24" t="n">
         <v>0</v>
@@ -2362,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="25" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="M6" s="25" t="n">
-        <v>8088</v>
+        <v>0</v>
       </c>
       <c r="N6" s="26" t="n">
         <v>0</v>
@@ -2374,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="27" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="27" t="n">
-        <v>8088</v>
+        <v>0</v>
       </c>
       <c r="R6" s="28" t="inlineStr">
         <is>
@@ -2392,7 +2539,7 @@
       <c r="D7" s="21" t="n"/>
       <c r="E7" s="22" t="inlineStr">
         <is>
-          <t>MMR002</t>
+          <t>MMR009018</t>
         </is>
       </c>
       <c r="F7" s="22" t="inlineStr">
@@ -2401,25 +2548,25 @@
         </is>
       </c>
       <c r="G7" s="22" t="n">
-        <v>49284</v>
+        <v>240015</v>
       </c>
       <c r="H7" s="23" t="n">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="23" t="n">
-        <v>14556</v>
+        <v>0</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>67.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="K7" s="24" t="n">
-        <v>33223</v>
+        <v>240015</v>
       </c>
       <c r="L7" s="25" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="25" t="n">
-        <v>1505</v>
+        <v>0</v>
       </c>
       <c r="N7" s="26" t="n">
         <v>0</v>
@@ -2428,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="27" t="n">
-        <v>70.5</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="27" t="n">
-        <v>34728</v>
+        <v>240015</v>
       </c>
       <c r="R7" s="28" t="inlineStr">
         <is>
@@ -2446,7 +2593,7 @@
       <c r="D8" s="21" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>MMR003</t>
+          <t>MMR009019</t>
         </is>
       </c>
       <c r="F8" s="22" t="inlineStr">
@@ -2455,19 +2602,19 @@
         </is>
       </c>
       <c r="G8" s="22" t="n">
-        <v>71100</v>
+        <v>49284</v>
       </c>
       <c r="H8" s="23" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I8" s="23" t="n">
-        <v>47660</v>
+        <v>0</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="K8" s="24" t="n">
-        <v>23440</v>
+        <v>49284</v>
       </c>
       <c r="L8" s="25" t="n">
         <v>0</v>
@@ -2482,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="27" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="27" t="n">
-        <v>23440</v>
+        <v>49284</v>
       </c>
       <c r="R8" s="28" t="inlineStr">
         <is>
@@ -2500,7 +2647,7 @@
       <c r="D9" s="21" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>MMR004</t>
+          <t>MMR009020</t>
         </is>
       </c>
       <c r="F9" s="22" t="inlineStr">
@@ -2509,37 +2656,37 @@
         </is>
       </c>
       <c r="G9" s="22" t="n">
-        <v>79357</v>
+        <v>469612</v>
       </c>
       <c r="H9" s="23" t="n">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="I9" s="23" t="n">
-        <v>9981</v>
+        <v>0</v>
       </c>
       <c r="J9" s="24" t="n">
-        <v>75.5</v>
+        <v>100</v>
       </c>
       <c r="K9" s="24" t="n">
-        <v>59918</v>
+        <v>469612</v>
       </c>
       <c r="L9" s="25" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="M9" s="25" t="n">
-        <v>2726</v>
+        <v>0</v>
       </c>
       <c r="N9" s="26" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="O9" s="26" t="n">
-        <v>6732</v>
+        <v>0</v>
       </c>
       <c r="P9" s="27" t="n">
-        <v>87.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="27" t="n">
-        <v>69376</v>
+        <v>469612</v>
       </c>
       <c r="R9" s="28" t="inlineStr">
         <is>
@@ -2554,7 +2701,7 @@
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>MMR005</t>
+          <t>MMR012003</t>
         </is>
       </c>
       <c r="F10" s="22" t="inlineStr">
@@ -2563,25 +2710,25 @@
         </is>
       </c>
       <c r="G10" s="22" t="n">
-        <v>206737</v>
+        <v>94127</v>
       </c>
       <c r="H10" s="23" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="23" t="n">
-        <v>25327</v>
+        <v>0</v>
       </c>
       <c r="J10" s="24" t="n">
-        <v>87.7</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="K10" s="24" t="n">
-        <v>181410</v>
+        <v>65556</v>
       </c>
       <c r="L10" s="25" t="n">
-        <v>0</v>
+        <v>30.4</v>
       </c>
       <c r="M10" s="25" t="n">
-        <v>0</v>
+        <v>28571</v>
       </c>
       <c r="N10" s="26" t="n">
         <v>0</v>
@@ -2590,14 +2737,14 @@
         <v>0</v>
       </c>
       <c r="P10" s="27" t="n">
-        <v>87.7</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="27" t="n">
-        <v>181410</v>
+        <v>94127</v>
       </c>
       <c r="R10" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2755,7 @@
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>MMR006</t>
+          <t>MMR012004</t>
         </is>
       </c>
       <c r="F11" s="22" t="inlineStr">
@@ -2617,25 +2764,25 @@
         </is>
       </c>
       <c r="G11" s="22" t="n">
-        <v>284225</v>
+        <v>85275</v>
       </c>
       <c r="H11" s="23" t="n">
-        <v>72.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="I11" s="23" t="n">
-        <v>206236</v>
+        <v>0</v>
       </c>
       <c r="J11" s="24" t="n">
-        <v>21.5</v>
+        <v>100</v>
       </c>
       <c r="K11" s="24" t="n">
-        <v>60998</v>
+        <v>85275</v>
       </c>
       <c r="L11" s="25" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M11" s="25" t="n">
-        <v>16992</v>
+        <v>0</v>
       </c>
       <c r="N11" s="26" t="n">
         <v>0</v>
@@ -2644,10 +2791,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="27" t="n">
-        <v>27.4</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="27" t="n">
-        <v>77989</v>
+        <v>85275</v>
       </c>
       <c r="R11" s="28" t="inlineStr">
         <is>
@@ -2662,7 +2809,7 @@
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>MMR007</t>
+          <t>MMR012006</t>
         </is>
       </c>
       <c r="F12" s="22" t="inlineStr">
@@ -2671,37 +2818,37 @@
         </is>
       </c>
       <c r="G12" s="22" t="n">
-        <v>114132</v>
+        <v>173573</v>
       </c>
       <c r="H12" s="23" t="n">
-        <v>79.2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="23" t="n">
-        <v>90441</v>
+        <v>0</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>15.9</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K12" s="24" t="n">
-        <v>18169</v>
+        <v>149515</v>
       </c>
       <c r="L12" s="25" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="M12" s="25" t="n">
-        <v>5522</v>
+        <v>0</v>
       </c>
       <c r="N12" s="26" t="n">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="O12" s="26" t="n">
-        <v>0</v>
+        <v>24058</v>
       </c>
       <c r="P12" s="27" t="n">
-        <v>20.8</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="27" t="n">
-        <v>23692</v>
+        <v>173573</v>
       </c>
       <c r="R12" s="28" t="inlineStr">
         <is>
@@ -2716,7 +2863,7 @@
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>MMR008</t>
+          <t>MMR012010</t>
         </is>
       </c>
       <c r="F13" s="22" t="inlineStr">
@@ -2725,13 +2872,13 @@
         </is>
       </c>
       <c r="G13" s="22" t="n">
-        <v>82380</v>
+        <v>103387</v>
       </c>
       <c r="H13" s="23" t="n">
         <v>100</v>
       </c>
       <c r="I13" s="23" t="n">
-        <v>82380</v>
+        <v>103387</v>
       </c>
       <c r="J13" s="24" t="n">
         <v>0</v>
@@ -2770,7 +2917,7 @@
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>MMR009</t>
+          <t>MMR012011</t>
         </is>
       </c>
       <c r="F14" s="22" t="inlineStr">
@@ -2779,19 +2926,19 @@
         </is>
       </c>
       <c r="G14" s="22" t="n">
-        <v>77970</v>
+        <v>93763</v>
       </c>
       <c r="H14" s="23" t="n">
-        <v>67.8</v>
+        <v>41.9</v>
       </c>
       <c r="I14" s="23" t="n">
-        <v>52840</v>
+        <v>39294</v>
       </c>
       <c r="J14" s="24" t="n">
-        <v>32.2</v>
+        <v>58.1</v>
       </c>
       <c r="K14" s="24" t="n">
-        <v>25129</v>
+        <v>54469</v>
       </c>
       <c r="L14" s="25" t="n">
         <v>0</v>
@@ -2806,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="27" t="n">
-        <v>32.2</v>
+        <v>58.1</v>
       </c>
       <c r="Q14" s="27" t="n">
-        <v>25129</v>
+        <v>54469</v>
       </c>
       <c r="R14" s="28" t="inlineStr">
         <is>
@@ -2824,7 +2971,7 @@
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>MMR010</t>
+          <t>MMR012014</t>
         </is>
       </c>
       <c r="F15" s="22" t="inlineStr">
@@ -2836,16 +2983,16 @@
         <v>469612</v>
       </c>
       <c r="H15" s="23" t="n">
-        <v>86.2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="23" t="n">
-        <v>404809</v>
+        <v>0</v>
       </c>
       <c r="J15" s="24" t="n">
-        <v>13.8</v>
+        <v>100</v>
       </c>
       <c r="K15" s="24" t="n">
-        <v>64803</v>
+        <v>469612</v>
       </c>
       <c r="L15" s="25" t="n">
         <v>0</v>
@@ -2860,14 +3007,14 @@
         <v>0</v>
       </c>
       <c r="P15" s="27" t="n">
-        <v>13.8</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="27" t="n">
-        <v>64803</v>
+        <v>469612</v>
       </c>
       <c r="R15" s="28" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2878,7 +3025,7 @@
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>MMR011</t>
+          <t>MMR012015</t>
         </is>
       </c>
       <c r="F16" s="22" t="inlineStr">
@@ -2887,25 +3034,25 @@
         </is>
       </c>
       <c r="G16" s="22" t="n">
-        <v>93763</v>
+        <v>114132</v>
       </c>
       <c r="H16" s="23" t="n">
-        <v>77.2</v>
+        <v>38.6</v>
       </c>
       <c r="I16" s="23" t="n">
-        <v>72341</v>
+        <v>44104</v>
       </c>
       <c r="J16" s="24" t="n">
-        <v>14.6</v>
+        <v>61.4</v>
       </c>
       <c r="K16" s="24" t="n">
-        <v>13670</v>
+        <v>70028</v>
       </c>
       <c r="L16" s="25" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="M16" s="25" t="n">
-        <v>7752</v>
+        <v>0</v>
       </c>
       <c r="N16" s="26" t="n">
         <v>0</v>
@@ -2914,10 +3061,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="27" t="n">
-        <v>22.8</v>
+        <v>61.4</v>
       </c>
       <c r="Q16" s="27" t="n">
-        <v>21422</v>
+        <v>70028</v>
       </c>
       <c r="R16" s="28" t="inlineStr">
         <is>
@@ -2932,7 +3079,7 @@
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="22" t="inlineStr">
         <is>
-          <t>MMR012</t>
+          <t>MMR012016</t>
         </is>
       </c>
       <c r="F17" s="22" t="inlineStr">
@@ -2941,41 +3088,41 @@
         </is>
       </c>
       <c r="G17" s="22" t="n">
-        <v>103387</v>
+        <v>94050</v>
       </c>
       <c r="H17" s="23" t="n">
-        <v>29.8</v>
+        <v>100</v>
       </c>
       <c r="I17" s="23" t="n">
-        <v>30769</v>
+        <v>94050</v>
       </c>
       <c r="J17" s="24" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="K17" s="24" t="n">
-        <v>64124</v>
+        <v>0</v>
       </c>
       <c r="L17" s="25" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="M17" s="25" t="n">
-        <v>3865</v>
+        <v>0</v>
       </c>
       <c r="N17" s="26" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O17" s="26" t="n">
-        <v>4628</v>
+        <v>0</v>
       </c>
       <c r="P17" s="27" t="n">
-        <v>70.2</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="27" t="n">
-        <v>72618</v>
+        <v>0</v>
       </c>
       <c r="R17" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -2986,7 +3133,7 @@
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>MMR013</t>
+          <t>MMR001001</t>
         </is>
       </c>
       <c r="F18" s="22" t="inlineStr">
@@ -2995,25 +3142,25 @@
         </is>
       </c>
       <c r="G18" s="22" t="n">
-        <v>94050</v>
+        <v>206737</v>
       </c>
       <c r="H18" s="23" t="n">
-        <v>55.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>52237</v>
+        <v>188972</v>
       </c>
       <c r="J18" s="24" t="n">
-        <v>40.4</v>
+        <v>0</v>
       </c>
       <c r="K18" s="24" t="n">
-        <v>38011</v>
+        <v>0</v>
       </c>
       <c r="L18" s="25" t="n">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="M18" s="25" t="n">
-        <v>3802</v>
+        <v>17765</v>
       </c>
       <c r="N18" s="26" t="n">
         <v>0</v>
@@ -3022,14 +3169,14 @@
         <v>0</v>
       </c>
       <c r="P18" s="27" t="n">
-        <v>44.5</v>
+        <v>8.6</v>
       </c>
       <c r="Q18" s="27" t="n">
-        <v>41813</v>
+        <v>17765</v>
       </c>
       <c r="R18" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3187,7 @@
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>MMR014</t>
+          <t>MMR001002</t>
         </is>
       </c>
       <c r="F19" s="22" t="inlineStr">
@@ -3049,25 +3196,25 @@
         </is>
       </c>
       <c r="G19" s="22" t="n">
-        <v>240015</v>
+        <v>94127</v>
       </c>
       <c r="H19" s="23" t="n">
-        <v>88</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="I19" s="23" t="n">
-        <v>211311</v>
+        <v>86039</v>
       </c>
       <c r="J19" s="24" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K19" s="24" t="n">
-        <v>28704</v>
+        <v>0</v>
       </c>
       <c r="L19" s="25" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="M19" s="25" t="n">
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="N19" s="26" t="n">
         <v>0</v>
@@ -3076,10 +3223,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="27" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="Q19" s="27" t="n">
-        <v>28704</v>
+        <v>8088</v>
       </c>
       <c r="R19" s="28" t="inlineStr">
         <is>
@@ -3094,7 +3241,7 @@
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>MMR015</t>
+          <t>MMR001004</t>
         </is>
       </c>
       <c r="F20" s="22" t="inlineStr">
@@ -3103,25 +3250,25 @@
         </is>
       </c>
       <c r="G20" s="22" t="n">
-        <v>173573</v>
+        <v>85275</v>
       </c>
       <c r="H20" s="23" t="n">
-        <v>69.7</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="I20" s="23" t="n">
-        <v>120951</v>
+        <v>77948</v>
       </c>
       <c r="J20" s="24" t="n">
-        <v>30.3</v>
+        <v>0</v>
       </c>
       <c r="K20" s="24" t="n">
-        <v>52623</v>
+        <v>0</v>
       </c>
       <c r="L20" s="25" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="M20" s="25" t="n">
-        <v>0</v>
+        <v>7328</v>
       </c>
       <c r="N20" s="26" t="n">
         <v>0</v>
@@ -3130,14 +3277,14 @@
         <v>0</v>
       </c>
       <c r="P20" s="27" t="n">
-        <v>30.3</v>
+        <v>8.6</v>
       </c>
       <c r="Q20" s="27" t="n">
-        <v>52623</v>
+        <v>7328</v>
       </c>
       <c r="R20" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -3148,7 +3295,7 @@
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>MMR016</t>
+          <t>MMR002005</t>
         </is>
       </c>
       <c r="F21" s="22" t="inlineStr">
@@ -3157,25 +3304,25 @@
         </is>
       </c>
       <c r="G21" s="22" t="n">
-        <v>70760</v>
+        <v>82380</v>
       </c>
       <c r="H21" s="23" t="n">
-        <v>93.09999999999999</v>
+        <v>29.5</v>
       </c>
       <c r="I21" s="23" t="n">
-        <v>65883</v>
+        <v>24331</v>
       </c>
       <c r="J21" s="24" t="n">
-        <v>6.9</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="K21" s="24" t="n">
-        <v>4877</v>
+        <v>55534</v>
       </c>
       <c r="L21" s="25" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M21" s="25" t="n">
-        <v>0</v>
+        <v>2515</v>
       </c>
       <c r="N21" s="26" t="n">
         <v>0</v>
@@ -3184,14 +3331,14 @@
         <v>0</v>
       </c>
       <c r="P21" s="27" t="n">
-        <v>6.9</v>
+        <v>70.5</v>
       </c>
       <c r="Q21" s="27" t="n">
-        <v>4877</v>
+        <v>58049</v>
       </c>
       <c r="R21" s="28" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3202,7 +3349,7 @@
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>MMR017</t>
+          <t>MMR002006</t>
         </is>
       </c>
       <c r="F22" s="22" t="inlineStr">
@@ -3211,25 +3358,25 @@
         </is>
       </c>
       <c r="G22" s="22" t="n">
-        <v>81840</v>
+        <v>284225</v>
       </c>
       <c r="H22" s="23" t="n">
-        <v>100</v>
+        <v>29.5</v>
       </c>
       <c r="I22" s="23" t="n">
-        <v>81840</v>
+        <v>83946</v>
       </c>
       <c r="J22" s="24" t="n">
-        <v>0</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="K22" s="24" t="n">
-        <v>0</v>
+        <v>191602</v>
       </c>
       <c r="L22" s="25" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M22" s="25" t="n">
-        <v>0</v>
+        <v>8677</v>
       </c>
       <c r="N22" s="26" t="n">
         <v>0</v>
@@ -3238,14 +3385,14 @@
         <v>0</v>
       </c>
       <c r="P22" s="27" t="n">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="Q22" s="27" t="n">
-        <v>0</v>
+        <v>200279</v>
       </c>
       <c r="R22" s="28" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3403,7 @@
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="29" t="inlineStr">
         <is>
-          <t>MMR018</t>
+          <t>MMR002007</t>
         </is>
       </c>
       <c r="F23" s="29" t="inlineStr">
@@ -3265,25 +3412,25 @@
         </is>
       </c>
       <c r="G23" s="29" t="n">
-        <v>85275</v>
+        <v>70760</v>
       </c>
       <c r="H23" s="30" t="n">
-        <v>72.59999999999999</v>
+        <v>29.5</v>
       </c>
       <c r="I23" s="30" t="n">
-        <v>61931</v>
+        <v>20899</v>
       </c>
       <c r="J23" s="31" t="n">
-        <v>27.4</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="K23" s="31" t="n">
-        <v>23345</v>
+        <v>47701</v>
       </c>
       <c r="L23" s="32" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M23" s="32" t="n">
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="N23" s="33" t="n">
         <v>0</v>
@@ -3292,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="P23" s="34" t="n">
-        <v>27.4</v>
+        <v>70.5</v>
       </c>
       <c r="Q23" s="34" t="n">
-        <v>23345</v>
+        <v>49861</v>
       </c>
       <c r="R23" s="28" t="inlineStr">
         <is>
@@ -3317,7 +3464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3358,7 +3505,7 @@
       <c r="D5" s="14" t="n"/>
       <c r="E5" s="15" t="inlineStr">
         <is>
-          <t>admin1</t>
+          <t>admin3</t>
         </is>
       </c>
       <c r="F5" s="15" t="inlineStr">
@@ -3434,7 +3581,7 @@
       <c r="D6" s="21" t="n"/>
       <c r="E6" s="22" t="inlineStr">
         <is>
-          <t>MMR001</t>
+          <t>MMR009018</t>
         </is>
       </c>
       <c r="F6" s="22" t="inlineStr">
@@ -3443,25 +3590,25 @@
         </is>
       </c>
       <c r="G6" s="22" t="n">
-        <v>13447</v>
+        <v>34288</v>
       </c>
       <c r="H6" s="23" t="n">
-        <v>69.90000000000001</v>
+        <v>72</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>9394</v>
+        <v>24698</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>13.1</v>
+        <v>28</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>1761</v>
+        <v>9590</v>
       </c>
       <c r="L6" s="25" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M6" s="25" t="n">
-        <v>2292</v>
+        <v>0</v>
       </c>
       <c r="N6" s="26" t="n">
         <v>0</v>
@@ -3470,10 +3617,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="27" t="n">
-        <v>30.1</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="27" t="n">
-        <v>4052</v>
+        <v>9590</v>
       </c>
       <c r="R6" s="28" t="inlineStr">
         <is>
@@ -3488,7 +3635,7 @@
       <c r="D7" s="21" t="n"/>
       <c r="E7" s="22" t="inlineStr">
         <is>
-          <t>MMR002</t>
+          <t>MMR009020</t>
         </is>
       </c>
       <c r="F7" s="22" t="inlineStr">
@@ -3497,25 +3644,25 @@
         </is>
       </c>
       <c r="G7" s="22" t="n">
-        <v>7041</v>
+        <v>67088</v>
       </c>
       <c r="H7" s="23" t="n">
-        <v>46.7</v>
+        <v>0</v>
       </c>
       <c r="I7" s="23" t="n">
-        <v>3289</v>
+        <v>0</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>43.6</v>
+        <v>100</v>
       </c>
       <c r="K7" s="24" t="n">
-        <v>3072</v>
+        <v>67088</v>
       </c>
       <c r="L7" s="25" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="M7" s="25" t="n">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="N7" s="26" t="n">
         <v>0</v>
@@ -3524,10 +3671,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="27" t="n">
-        <v>53.3</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="27" t="n">
-        <v>3752</v>
+        <v>67088</v>
       </c>
       <c r="R7" s="28" t="inlineStr">
         <is>
@@ -3542,7 +3689,7 @@
       <c r="D8" s="21" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>MMR003</t>
+          <t>MMR012001</t>
         </is>
       </c>
       <c r="F8" s="22" t="inlineStr">
@@ -3551,25 +3698,25 @@
         </is>
       </c>
       <c r="G8" s="22" t="n">
-        <v>10157</v>
+        <v>29534</v>
       </c>
       <c r="H8" s="23" t="n">
-        <v>55.1</v>
+        <v>26.9</v>
       </c>
       <c r="I8" s="23" t="n">
-        <v>5592</v>
+        <v>7934</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>44.9</v>
+        <v>57.2</v>
       </c>
       <c r="K8" s="24" t="n">
-        <v>4566</v>
+        <v>16882</v>
       </c>
       <c r="L8" s="25" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M8" s="25" t="n">
-        <v>0</v>
+        <v>4718</v>
       </c>
       <c r="N8" s="26" t="n">
         <v>0</v>
@@ -3578,10 +3725,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="27" t="n">
-        <v>44.9</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="Q8" s="27" t="n">
-        <v>4566</v>
+        <v>21600</v>
       </c>
       <c r="R8" s="28" t="inlineStr">
         <is>
@@ -3596,7 +3743,7 @@
       <c r="D9" s="21" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>MMR004</t>
+          <t>MMR012003</t>
         </is>
       </c>
       <c r="F9" s="22" t="inlineStr">
@@ -3605,25 +3752,25 @@
         </is>
       </c>
       <c r="G9" s="22" t="n">
-        <v>11337</v>
+        <v>13447</v>
       </c>
       <c r="H9" s="23" t="n">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="I9" s="23" t="n">
-        <v>2678</v>
+        <v>0</v>
       </c>
       <c r="J9" s="24" t="n">
-        <v>72.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="K9" s="24" t="n">
-        <v>8205</v>
+        <v>13447</v>
       </c>
       <c r="L9" s="25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M9" s="25" t="n">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="N9" s="26" t="n">
         <v>0</v>
@@ -3632,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="27" t="n">
-        <v>76.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="27" t="n">
-        <v>8659</v>
+        <v>13447</v>
       </c>
       <c r="R9" s="28" t="inlineStr">
         <is>
@@ -3650,7 +3797,7 @@
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>MMR005</t>
+          <t>MMR012005</t>
         </is>
       </c>
       <c r="F10" s="22" t="inlineStr">
@@ -3659,25 +3806,25 @@
         </is>
       </c>
       <c r="G10" s="22" t="n">
-        <v>29534</v>
+        <v>11337</v>
       </c>
       <c r="H10" s="23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I10" s="23" t="n">
-        <v>1785</v>
+        <v>0</v>
       </c>
       <c r="J10" s="24" t="n">
-        <v>85.8</v>
+        <v>100</v>
       </c>
       <c r="K10" s="24" t="n">
-        <v>25351</v>
+        <v>11337</v>
       </c>
       <c r="L10" s="25" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="25" t="n">
-        <v>2398</v>
+        <v>0</v>
       </c>
       <c r="N10" s="26" t="n">
         <v>0</v>
@@ -3686,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="27" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="27" t="n">
-        <v>27749</v>
+        <v>11337</v>
       </c>
       <c r="R10" s="28" t="inlineStr">
         <is>
@@ -3704,7 +3851,7 @@
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>MMR006</t>
+          <t>MMR012007</t>
         </is>
       </c>
       <c r="F11" s="22" t="inlineStr">
@@ -3713,41 +3860,41 @@
         </is>
       </c>
       <c r="G11" s="22" t="n">
-        <v>40604</v>
+        <v>10157</v>
       </c>
       <c r="H11" s="23" t="n">
-        <v>16.6</v>
+        <v>54.8</v>
       </c>
       <c r="I11" s="23" t="n">
-        <v>6739</v>
+        <v>5567</v>
       </c>
       <c r="J11" s="24" t="n">
-        <v>64.7</v>
+        <v>19</v>
       </c>
       <c r="K11" s="24" t="n">
-        <v>26251</v>
+        <v>1928</v>
       </c>
       <c r="L11" s="25" t="n">
-        <v>18.7</v>
+        <v>18.1</v>
       </c>
       <c r="M11" s="25" t="n">
-        <v>7613</v>
+        <v>1841</v>
       </c>
       <c r="N11" s="26" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="O11" s="26" t="n">
-        <v>0</v>
+        <v>821</v>
       </c>
       <c r="P11" s="27" t="n">
-        <v>83.40000000000001</v>
+        <v>45.2</v>
       </c>
       <c r="Q11" s="27" t="n">
-        <v>33864</v>
+        <v>4591</v>
       </c>
       <c r="R11" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3758,7 +3905,7 @@
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>MMR007</t>
+          <t>MMR012010</t>
         </is>
       </c>
       <c r="F12" s="22" t="inlineStr">
@@ -3767,25 +3914,25 @@
         </is>
       </c>
       <c r="G12" s="22" t="n">
-        <v>16305</v>
+        <v>14770</v>
       </c>
       <c r="H12" s="23" t="n">
-        <v>83.8</v>
+        <v>100</v>
       </c>
       <c r="I12" s="23" t="n">
-        <v>13667</v>
+        <v>14770</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="K12" s="24" t="n">
-        <v>2006</v>
+        <v>0</v>
       </c>
       <c r="L12" s="25" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="M12" s="25" t="n">
-        <v>632</v>
+        <v>0</v>
       </c>
       <c r="N12" s="26" t="n">
         <v>0</v>
@@ -3794,10 +3941,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="27" t="n">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="27" t="n">
-        <v>2638</v>
+        <v>0</v>
       </c>
       <c r="R12" s="28" t="inlineStr">
         <is>
@@ -3812,7 +3959,7 @@
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>MMR009</t>
+          <t>MMR001001</t>
         </is>
       </c>
       <c r="F13" s="22" t="inlineStr">
@@ -3821,25 +3968,25 @@
         </is>
       </c>
       <c r="G13" s="22" t="n">
-        <v>11138</v>
+        <v>29534</v>
       </c>
       <c r="H13" s="23" t="n">
-        <v>33.5</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="I13" s="23" t="n">
-        <v>3730</v>
+        <v>20633</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>50.8</v>
+        <v>13.1</v>
       </c>
       <c r="K13" s="24" t="n">
-        <v>5656</v>
+        <v>3867</v>
       </c>
       <c r="L13" s="25" t="n">
-        <v>15.7</v>
+        <v>17</v>
       </c>
       <c r="M13" s="25" t="n">
-        <v>1752</v>
+        <v>5034</v>
       </c>
       <c r="N13" s="26" t="n">
         <v>0</v>
@@ -3848,10 +3995,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="27" t="n">
-        <v>66.5</v>
+        <v>30.1</v>
       </c>
       <c r="Q13" s="27" t="n">
-        <v>7409</v>
+        <v>8900</v>
       </c>
       <c r="R13" s="28" t="inlineStr">
         <is>
@@ -3866,7 +4013,7 @@
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>MMR011</t>
+          <t>MMR001002</t>
         </is>
       </c>
       <c r="F14" s="22" t="inlineStr">
@@ -3875,25 +4022,25 @@
         </is>
       </c>
       <c r="G14" s="22" t="n">
-        <v>13395</v>
+        <v>13447</v>
       </c>
       <c r="H14" s="23" t="n">
-        <v>50.5</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="I14" s="23" t="n">
-        <v>6760</v>
+        <v>9394</v>
       </c>
       <c r="J14" s="24" t="n">
-        <v>35.8</v>
+        <v>13.1</v>
       </c>
       <c r="K14" s="24" t="n">
-        <v>4800</v>
+        <v>1761</v>
       </c>
       <c r="L14" s="25" t="n">
-        <v>13.7</v>
+        <v>17</v>
       </c>
       <c r="M14" s="25" t="n">
-        <v>1835</v>
+        <v>2292</v>
       </c>
       <c r="N14" s="26" t="n">
         <v>0</v>
@@ -3902,10 +4049,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="27" t="n">
-        <v>49.5</v>
+        <v>30.1</v>
       </c>
       <c r="Q14" s="27" t="n">
-        <v>6635</v>
+        <v>4052</v>
       </c>
       <c r="R14" s="28" t="inlineStr">
         <is>
@@ -3920,7 +4067,7 @@
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>MMR012</t>
+          <t>MMR001004</t>
         </is>
       </c>
       <c r="F15" s="22" t="inlineStr">
@@ -3929,37 +4076,37 @@
         </is>
       </c>
       <c r="G15" s="22" t="n">
-        <v>14770</v>
+        <v>12182</v>
       </c>
       <c r="H15" s="23" t="n">
-        <v>37.1</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="I15" s="23" t="n">
-        <v>5478</v>
+        <v>8511</v>
       </c>
       <c r="J15" s="24" t="n">
-        <v>45.6</v>
+        <v>13.1</v>
       </c>
       <c r="K15" s="24" t="n">
-        <v>6733</v>
+        <v>1595</v>
       </c>
       <c r="L15" s="25" t="n">
-        <v>14.2</v>
+        <v>17</v>
       </c>
       <c r="M15" s="25" t="n">
-        <v>2101</v>
+        <v>2076</v>
       </c>
       <c r="N15" s="26" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="26" t="n">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="P15" s="27" t="n">
-        <v>62.9</v>
+        <v>30.1</v>
       </c>
       <c r="Q15" s="27" t="n">
-        <v>9292</v>
+        <v>3671</v>
       </c>
       <c r="R15" s="28" t="inlineStr">
         <is>
@@ -3974,7 +4121,7 @@
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>MMR014</t>
+          <t>MMR002005</t>
         </is>
       </c>
       <c r="F16" s="22" t="inlineStr">
@@ -3983,25 +4130,25 @@
         </is>
       </c>
       <c r="G16" s="22" t="n">
-        <v>34288</v>
+        <v>11769</v>
       </c>
       <c r="H16" s="23" t="n">
-        <v>40.2</v>
+        <v>46.7</v>
       </c>
       <c r="I16" s="23" t="n">
-        <v>13775</v>
+        <v>5498</v>
       </c>
       <c r="J16" s="24" t="n">
-        <v>59.8</v>
+        <v>43.6</v>
       </c>
       <c r="K16" s="24" t="n">
-        <v>20512</v>
+        <v>5135</v>
       </c>
       <c r="L16" s="25" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M16" s="25" t="n">
-        <v>0</v>
+        <v>1136</v>
       </c>
       <c r="N16" s="26" t="n">
         <v>0</v>
@@ -4010,10 +4157,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="27" t="n">
-        <v>59.8</v>
+        <v>53.3</v>
       </c>
       <c r="Q16" s="27" t="n">
-        <v>20512</v>
+        <v>6271</v>
       </c>
       <c r="R16" s="28" t="inlineStr">
         <is>
@@ -4026,50 +4173,104 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
-      <c r="E17" s="29" t="inlineStr">
-        <is>
-          <t>MMR015</t>
-        </is>
-      </c>
-      <c r="F17" s="29" t="inlineStr">
+      <c r="E17" s="22" t="inlineStr">
+        <is>
+          <t>MMR002006</t>
+        </is>
+      </c>
+      <c r="F17" s="22" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="G17" s="29" t="n">
-        <v>24796</v>
-      </c>
-      <c r="H17" s="30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I17" s="30" t="n">
-        <v>1870</v>
-      </c>
-      <c r="J17" s="31" t="n">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="K17" s="31" t="n">
-        <v>21548</v>
-      </c>
-      <c r="L17" s="32" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="M17" s="32" t="n">
-        <v>1378</v>
-      </c>
-      <c r="N17" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="34" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="Q17" s="34" t="n">
-        <v>22926</v>
+      <c r="G17" s="22" t="n">
+        <v>40604</v>
+      </c>
+      <c r="H17" s="23" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="I17" s="23" t="n">
+        <v>18968</v>
+      </c>
+      <c r="J17" s="24" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="K17" s="24" t="n">
+        <v>17715</v>
+      </c>
+      <c r="L17" s="25" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M17" s="25" t="n">
+        <v>3920</v>
+      </c>
+      <c r="N17" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="27" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="Q17" s="27" t="n">
+        <v>21636</v>
       </c>
       <c r="R17" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="21" t="n"/>
+      <c r="B18" s="21" t="n"/>
+      <c r="C18" s="21" t="n"/>
+      <c r="D18" s="21" t="n"/>
+      <c r="E18" s="29" t="inlineStr">
+        <is>
+          <t>MMR002007</t>
+        </is>
+      </c>
+      <c r="F18" s="29" t="inlineStr">
+        <is>
+          <t>idp</t>
+        </is>
+      </c>
+      <c r="G18" s="29" t="n">
+        <v>10109</v>
+      </c>
+      <c r="H18" s="30" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="I18" s="30" t="n">
+        <v>4722</v>
+      </c>
+      <c r="J18" s="31" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="K18" s="31" t="n">
+        <v>4410</v>
+      </c>
+      <c r="L18" s="32" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M18" s="32" t="n">
+        <v>976</v>
+      </c>
+      <c r="N18" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="34" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="Q18" s="34" t="n">
+        <v>5386</v>
+      </c>
+      <c r="R18" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4089,7 +4290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4130,7 +4331,7 @@
       <c r="D5" s="14" t="n"/>
       <c r="E5" s="15" t="inlineStr">
         <is>
-          <t>admin1</t>
+          <t>admin3</t>
         </is>
       </c>
       <c r="F5" s="15" t="inlineStr">
@@ -4206,7 +4407,7 @@
       <c r="D6" s="21" t="n"/>
       <c r="E6" s="22" t="inlineStr">
         <is>
-          <t>MMR001</t>
+          <t>MMR009019</t>
         </is>
       </c>
       <c r="F6" s="22" t="inlineStr">
@@ -4215,19 +4416,19 @@
         </is>
       </c>
       <c r="G6" s="22" t="n">
-        <v>6723</v>
+        <v>3520</v>
       </c>
       <c r="H6" s="23" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>3831</v>
+        <v>0</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>2893</v>
+        <v>3520</v>
       </c>
       <c r="L6" s="25" t="n">
         <v>0</v>
@@ -4242,10 +4443,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="27" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="27" t="n">
-        <v>2893</v>
+        <v>3520</v>
       </c>
       <c r="R6" s="28" t="inlineStr">
         <is>
@@ -4260,7 +4461,7 @@
       <c r="D7" s="21" t="n"/>
       <c r="E7" s="22" t="inlineStr">
         <is>
-          <t>MMR002</t>
+          <t>MMR009020</t>
         </is>
       </c>
       <c r="F7" s="22" t="inlineStr">
@@ -4269,19 +4470,19 @@
         </is>
       </c>
       <c r="G7" s="22" t="n">
-        <v>3520</v>
+        <v>33544</v>
       </c>
       <c r="H7" s="23" t="n">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="23" t="n">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>85.8</v>
+        <v>100</v>
       </c>
       <c r="K7" s="24" t="n">
-        <v>3022</v>
+        <v>33544</v>
       </c>
       <c r="L7" s="25" t="n">
         <v>0</v>
@@ -4290,16 +4491,16 @@
         <v>0</v>
       </c>
       <c r="N7" s="26" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="O7" s="26" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="P7" s="27" t="n">
-        <v>88.7</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="27" t="n">
-        <v>3124</v>
+        <v>33544</v>
       </c>
       <c r="R7" s="28" t="inlineStr">
         <is>
@@ -4314,7 +4515,7 @@
       <c r="D8" s="21" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>MMR003</t>
+          <t>MMR012001</t>
         </is>
       </c>
       <c r="F8" s="22" t="inlineStr">
@@ -4323,25 +4524,25 @@
         </is>
       </c>
       <c r="G8" s="22" t="n">
-        <v>5079</v>
+        <v>14767</v>
       </c>
       <c r="H8" s="23" t="n">
-        <v>77.40000000000001</v>
+        <v>49.6</v>
       </c>
       <c r="I8" s="23" t="n">
-        <v>3932</v>
+        <v>7322</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>22.6</v>
+        <v>20.2</v>
       </c>
       <c r="K8" s="24" t="n">
-        <v>1146</v>
+        <v>2978</v>
       </c>
       <c r="L8" s="25" t="n">
-        <v>0</v>
+        <v>30.3</v>
       </c>
       <c r="M8" s="25" t="n">
-        <v>0</v>
+        <v>4467</v>
       </c>
       <c r="N8" s="26" t="n">
         <v>0</v>
@@ -4350,14 +4551,14 @@
         <v>0</v>
       </c>
       <c r="P8" s="27" t="n">
-        <v>22.6</v>
+        <v>50.4</v>
       </c>
       <c r="Q8" s="27" t="n">
-        <v>1146</v>
+        <v>7445</v>
       </c>
       <c r="R8" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4569,7 @@
       <c r="D9" s="21" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>MMR004</t>
+          <t>MMR012003</t>
         </is>
       </c>
       <c r="F9" s="22" t="inlineStr">
@@ -4377,25 +4578,25 @@
         </is>
       </c>
       <c r="G9" s="22" t="n">
-        <v>5668</v>
+        <v>6723</v>
       </c>
       <c r="H9" s="23" t="n">
-        <v>45.4</v>
+        <v>0</v>
       </c>
       <c r="I9" s="23" t="n">
-        <v>2571</v>
+        <v>0</v>
       </c>
       <c r="J9" s="24" t="n">
-        <v>46.9</v>
+        <v>100</v>
       </c>
       <c r="K9" s="24" t="n">
-        <v>2660</v>
+        <v>6723</v>
       </c>
       <c r="L9" s="25" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="M9" s="25" t="n">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="N9" s="26" t="n">
         <v>0</v>
@@ -4404,10 +4605,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="27" t="n">
-        <v>54.6</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="27" t="n">
-        <v>3098</v>
+        <v>6723</v>
       </c>
       <c r="R9" s="28" t="inlineStr">
         <is>
@@ -4422,7 +4623,7 @@
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>MMR005</t>
+          <t>MMR012004</t>
         </is>
       </c>
       <c r="F10" s="22" t="inlineStr">
@@ -4431,19 +4632,19 @@
         </is>
       </c>
       <c r="G10" s="22" t="n">
-        <v>14767</v>
+        <v>6091</v>
       </c>
       <c r="H10" s="23" t="n">
-        <v>5.9</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="I10" s="23" t="n">
-        <v>876</v>
+        <v>5120</v>
       </c>
       <c r="J10" s="24" t="n">
-        <v>94.09999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="K10" s="24" t="n">
-        <v>13891</v>
+        <v>971</v>
       </c>
       <c r="L10" s="25" t="n">
         <v>0</v>
@@ -4458,14 +4659,14 @@
         <v>0</v>
       </c>
       <c r="P10" s="27" t="n">
-        <v>94.09999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="Q10" s="27" t="n">
-        <v>13891</v>
+        <v>971</v>
       </c>
       <c r="R10" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4677,7 @@
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>MMR006</t>
+          <t>MMR012005</t>
         </is>
       </c>
       <c r="F11" s="22" t="inlineStr">
@@ -4485,25 +4686,25 @@
         </is>
       </c>
       <c r="G11" s="22" t="n">
-        <v>20302</v>
+        <v>5668</v>
       </c>
       <c r="H11" s="23" t="n">
-        <v>41.1</v>
+        <v>50.8</v>
       </c>
       <c r="I11" s="23" t="n">
-        <v>8346</v>
+        <v>2879</v>
       </c>
       <c r="J11" s="24" t="n">
-        <v>28.1</v>
+        <v>49.2</v>
       </c>
       <c r="K11" s="24" t="n">
-        <v>5712</v>
+        <v>2789</v>
       </c>
       <c r="L11" s="25" t="n">
-        <v>30.8</v>
+        <v>0</v>
       </c>
       <c r="M11" s="25" t="n">
-        <v>6244</v>
+        <v>0</v>
       </c>
       <c r="N11" s="26" t="n">
         <v>0</v>
@@ -4512,14 +4713,14 @@
         <v>0</v>
       </c>
       <c r="P11" s="27" t="n">
-        <v>58.9</v>
+        <v>49.2</v>
       </c>
       <c r="Q11" s="27" t="n">
-        <v>11956</v>
+        <v>2789</v>
       </c>
       <c r="R11" s="28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4530,7 +4731,7 @@
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>MMR007</t>
+          <t>MMR012006</t>
         </is>
       </c>
       <c r="F12" s="22" t="inlineStr">
@@ -4539,19 +4740,19 @@
         </is>
       </c>
       <c r="G12" s="22" t="n">
-        <v>8152</v>
+        <v>12398</v>
       </c>
       <c r="H12" s="23" t="n">
-        <v>61.7</v>
+        <v>56.5</v>
       </c>
       <c r="I12" s="23" t="n">
-        <v>5034</v>
+        <v>7003</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>38.3</v>
+        <v>43.5</v>
       </c>
       <c r="K12" s="24" t="n">
-        <v>3118</v>
+        <v>5395</v>
       </c>
       <c r="L12" s="25" t="n">
         <v>0</v>
@@ -4566,10 +4767,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="27" t="n">
-        <v>38.3</v>
+        <v>43.5</v>
       </c>
       <c r="Q12" s="27" t="n">
-        <v>3118</v>
+        <v>5395</v>
       </c>
       <c r="R12" s="28" t="inlineStr">
         <is>
@@ -4584,7 +4785,7 @@
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>MMR009</t>
+          <t>MMR012014</t>
         </is>
       </c>
       <c r="F13" s="22" t="inlineStr">
@@ -4593,25 +4794,25 @@
         </is>
       </c>
       <c r="G13" s="22" t="n">
-        <v>5569</v>
+        <v>33544</v>
       </c>
       <c r="H13" s="23" t="n">
-        <v>11</v>
+        <v>55.1</v>
       </c>
       <c r="I13" s="23" t="n">
-        <v>614</v>
+        <v>18497</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>76.40000000000001</v>
+        <v>44.9</v>
       </c>
       <c r="K13" s="24" t="n">
-        <v>4252</v>
+        <v>15047</v>
       </c>
       <c r="L13" s="25" t="n">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="M13" s="25" t="n">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="N13" s="26" t="n">
         <v>0</v>
@@ -4620,10 +4821,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="27" t="n">
-        <v>89</v>
+        <v>44.9</v>
       </c>
       <c r="Q13" s="27" t="n">
-        <v>4956</v>
+        <v>15047</v>
       </c>
       <c r="R13" s="28" t="inlineStr">
         <is>
@@ -4638,7 +4839,7 @@
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>MMR011</t>
+          <t>MMR001001</t>
         </is>
       </c>
       <c r="F14" s="22" t="inlineStr">
@@ -4647,25 +4848,25 @@
         </is>
       </c>
       <c r="G14" s="22" t="n">
-        <v>6697</v>
+        <v>14767</v>
       </c>
       <c r="H14" s="23" t="n">
-        <v>47.7</v>
+        <v>57</v>
       </c>
       <c r="I14" s="23" t="n">
-        <v>3193</v>
+        <v>8414</v>
       </c>
       <c r="J14" s="24" t="n">
-        <v>37.7</v>
+        <v>43</v>
       </c>
       <c r="K14" s="24" t="n">
-        <v>2526</v>
+        <v>6353</v>
       </c>
       <c r="L14" s="25" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="M14" s="25" t="n">
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="N14" s="26" t="n">
         <v>0</v>
@@ -4674,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="27" t="n">
-        <v>52.3</v>
+        <v>43</v>
       </c>
       <c r="Q14" s="27" t="n">
-        <v>3504</v>
+        <v>6353</v>
       </c>
       <c r="R14" s="28" t="inlineStr">
         <is>
@@ -4692,7 +4893,7 @@
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>MMR012</t>
+          <t>MMR001002</t>
         </is>
       </c>
       <c r="F15" s="22" t="inlineStr">
@@ -4701,25 +4902,25 @@
         </is>
       </c>
       <c r="G15" s="22" t="n">
-        <v>7385</v>
+        <v>6723</v>
       </c>
       <c r="H15" s="23" t="n">
-        <v>50.6</v>
+        <v>57</v>
       </c>
       <c r="I15" s="23" t="n">
-        <v>3740</v>
+        <v>3831</v>
       </c>
       <c r="J15" s="24" t="n">
-        <v>45.4</v>
+        <v>43</v>
       </c>
       <c r="K15" s="24" t="n">
-        <v>3355</v>
+        <v>2893</v>
       </c>
       <c r="L15" s="25" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="M15" s="25" t="n">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="N15" s="26" t="n">
         <v>0</v>
@@ -4728,10 +4929,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="27" t="n">
-        <v>49.4</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="27" t="n">
-        <v>3645</v>
+        <v>2893</v>
       </c>
       <c r="R15" s="28" t="inlineStr">
         <is>
@@ -4746,7 +4947,7 @@
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>MMR014</t>
+          <t>MMR001004</t>
         </is>
       </c>
       <c r="F16" s="22" t="inlineStr">
@@ -4755,19 +4956,19 @@
         </is>
       </c>
       <c r="G16" s="22" t="n">
-        <v>17144</v>
+        <v>6091</v>
       </c>
       <c r="H16" s="23" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I16" s="23" t="n">
-        <v>10461</v>
+        <v>3471</v>
       </c>
       <c r="J16" s="24" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K16" s="24" t="n">
-        <v>6683</v>
+        <v>2621</v>
       </c>
       <c r="L16" s="25" t="n">
         <v>0</v>
@@ -4782,10 +4983,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="27" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="27" t="n">
-        <v>6683</v>
+        <v>2621</v>
       </c>
       <c r="R16" s="28" t="inlineStr">
         <is>
@@ -4798,50 +4999,158 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
-      <c r="E17" s="29" t="inlineStr">
-        <is>
-          <t>MMR015</t>
-        </is>
-      </c>
-      <c r="F17" s="29" t="inlineStr">
+      <c r="E17" s="22" t="inlineStr">
+        <is>
+          <t>MMR002005</t>
+        </is>
+      </c>
+      <c r="F17" s="22" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="G17" s="29" t="n">
-        <v>12398</v>
-      </c>
-      <c r="H17" s="30" t="n">
-        <v>44.3</v>
-      </c>
-      <c r="I17" s="30" t="n">
-        <v>5489</v>
-      </c>
-      <c r="J17" s="31" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K17" s="31" t="n">
-        <v>5386</v>
-      </c>
-      <c r="L17" s="32" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="M17" s="32" t="n">
-        <v>1523</v>
-      </c>
-      <c r="N17" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="34" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="Q17" s="34" t="n">
-        <v>6909</v>
+      <c r="G17" s="22" t="n">
+        <v>5884</v>
+      </c>
+      <c r="H17" s="23" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="I17" s="23" t="n">
+        <v>662</v>
+      </c>
+      <c r="J17" s="24" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="K17" s="24" t="n">
+        <v>5052</v>
+      </c>
+      <c r="L17" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O17" s="26" t="n">
+        <v>170</v>
+      </c>
+      <c r="P17" s="27" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="Q17" s="27" t="n">
+        <v>5222</v>
       </c>
       <c r="R17" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="21" t="n"/>
+      <c r="B18" s="21" t="n"/>
+      <c r="C18" s="21" t="n"/>
+      <c r="D18" s="21" t="n"/>
+      <c r="E18" s="22" t="inlineStr">
+        <is>
+          <t>MMR002006</t>
+        </is>
+      </c>
+      <c r="F18" s="22" t="inlineStr">
+        <is>
+          <t>ret</t>
+        </is>
+      </c>
+      <c r="G18" s="22" t="n">
+        <v>20302</v>
+      </c>
+      <c r="H18" s="23" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="I18" s="23" t="n">
+        <v>2286</v>
+      </c>
+      <c r="J18" s="24" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="K18" s="24" t="n">
+        <v>17429</v>
+      </c>
+      <c r="L18" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O18" s="26" t="n">
+        <v>587</v>
+      </c>
+      <c r="P18" s="27" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="Q18" s="27" t="n">
+        <v>18016</v>
+      </c>
+      <c r="R18" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="21" t="n"/>
+      <c r="B19" s="21" t="n"/>
+      <c r="C19" s="21" t="n"/>
+      <c r="D19" s="21" t="n"/>
+      <c r="E19" s="29" t="inlineStr">
+        <is>
+          <t>MMR002007</t>
+        </is>
+      </c>
+      <c r="F19" s="29" t="inlineStr">
+        <is>
+          <t>ret</t>
+        </is>
+      </c>
+      <c r="G19" s="29" t="n">
+        <v>5054</v>
+      </c>
+      <c r="H19" s="30" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="I19" s="30" t="n">
+        <v>569</v>
+      </c>
+      <c r="J19" s="31" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="K19" s="31" t="n">
+        <v>4339</v>
+      </c>
+      <c r="L19" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="33" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O19" s="33" t="n">
+        <v>146</v>
+      </c>
+      <c r="P19" s="34" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="Q19" s="34" t="n">
+        <v>4485</v>
+      </c>
+      <c r="R19" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4861,7 +5170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4902,7 +5211,7 @@
       <c r="D5" s="14" t="n"/>
       <c r="E5" s="15" t="inlineStr">
         <is>
-          <t>admin1</t>
+          <t>admin3</t>
         </is>
       </c>
       <c r="F5" s="15" t="inlineStr">
@@ -4976,52 +5285,322 @@
       <c r="B6" s="21" t="n"/>
       <c r="C6" s="21" t="n"/>
       <c r="D6" s="21" t="n"/>
-      <c r="E6" s="29" t="inlineStr">
-        <is>
-          <t>MMR012</t>
-        </is>
-      </c>
-      <c r="F6" s="29" t="inlineStr">
+      <c r="E6" s="22" t="inlineStr">
+        <is>
+          <t>MMR012001</t>
+        </is>
+      </c>
+      <c r="F6" s="22" t="inlineStr">
         <is>
           <t>ndsp</t>
         </is>
       </c>
-      <c r="G6" s="29" t="n">
+      <c r="G6" s="22" t="n">
+        <v>44301</v>
+      </c>
+      <c r="H6" s="23" t="n">
+        <v>23</v>
+      </c>
+      <c r="I6" s="23" t="n">
+        <v>10207</v>
+      </c>
+      <c r="J6" s="24" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="K6" s="24" t="n">
+        <v>22014</v>
+      </c>
+      <c r="L6" s="25" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="M6" s="25" t="n">
+        <v>12079</v>
+      </c>
+      <c r="N6" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="27" t="n">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="27" t="n">
+        <v>34094</v>
+      </c>
+      <c r="R6" s="28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="n"/>
+      <c r="B7" s="21" t="n"/>
+      <c r="C7" s="21" t="n"/>
+      <c r="D7" s="21" t="n"/>
+      <c r="E7" s="22" t="inlineStr">
+        <is>
+          <t>MMR012003</t>
+        </is>
+      </c>
+      <c r="F7" s="22" t="inlineStr">
+        <is>
+          <t>ndsp</t>
+        </is>
+      </c>
+      <c r="G7" s="22" t="n">
+        <v>20170</v>
+      </c>
+      <c r="H7" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="24" t="n">
+        <v>100</v>
+      </c>
+      <c r="K7" s="24" t="n">
+        <v>20170</v>
+      </c>
+      <c r="L7" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="27" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="27" t="n">
+        <v>20170</v>
+      </c>
+      <c r="R7" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="21" t="n"/>
+      <c r="B8" s="21" t="n"/>
+      <c r="C8" s="21" t="n"/>
+      <c r="D8" s="21" t="n"/>
+      <c r="E8" s="22" t="inlineStr">
+        <is>
+          <t>MMR012004</t>
+        </is>
+      </c>
+      <c r="F8" s="22" t="inlineStr">
+        <is>
+          <t>ndsp</t>
+        </is>
+      </c>
+      <c r="G8" s="22" t="n">
+        <v>18273</v>
+      </c>
+      <c r="H8" s="23" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="I8" s="23" t="n">
+        <v>14290</v>
+      </c>
+      <c r="J8" s="24" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="K8" s="24" t="n">
+        <v>3983</v>
+      </c>
+      <c r="L8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="27" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="Q8" s="27" t="n">
+        <v>3983</v>
+      </c>
+      <c r="R8" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="n"/>
+      <c r="B9" s="21" t="n"/>
+      <c r="C9" s="21" t="n"/>
+      <c r="D9" s="21" t="n"/>
+      <c r="E9" s="22" t="inlineStr">
+        <is>
+          <t>MMR012005</t>
+        </is>
+      </c>
+      <c r="F9" s="22" t="inlineStr">
+        <is>
+          <t>ndsp</t>
+        </is>
+      </c>
+      <c r="G9" s="22" t="n">
+        <v>17005</v>
+      </c>
+      <c r="H9" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="24" t="n">
+        <v>100</v>
+      </c>
+      <c r="K9" s="24" t="n">
+        <v>17005</v>
+      </c>
+      <c r="L9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="27" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="27" t="n">
+        <v>17005</v>
+      </c>
+      <c r="R9" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="n"/>
+      <c r="B10" s="21" t="n"/>
+      <c r="C10" s="21" t="n"/>
+      <c r="D10" s="21" t="n"/>
+      <c r="E10" s="22" t="inlineStr">
+        <is>
+          <t>MMR012007</t>
+        </is>
+      </c>
+      <c r="F10" s="22" t="inlineStr">
+        <is>
+          <t>ndsp</t>
+        </is>
+      </c>
+      <c r="G10" s="22" t="n">
+        <v>15236</v>
+      </c>
+      <c r="H10" s="23" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="I10" s="23" t="n">
+        <v>3554</v>
+      </c>
+      <c r="J10" s="24" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="K10" s="24" t="n">
+        <v>11682</v>
+      </c>
+      <c r="L10" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="27" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="Q10" s="27" t="n">
+        <v>11682</v>
+      </c>
+      <c r="R10" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="n"/>
+      <c r="B11" s="21" t="n"/>
+      <c r="C11" s="21" t="n"/>
+      <c r="D11" s="21" t="n"/>
+      <c r="E11" s="29" t="inlineStr">
+        <is>
+          <t>MMR012010</t>
+        </is>
+      </c>
+      <c r="F11" s="29" t="inlineStr">
+        <is>
+          <t>ndsp</t>
+        </is>
+      </c>
+      <c r="G11" s="29" t="n">
         <v>22154</v>
       </c>
-      <c r="H6" s="30" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="I6" s="30" t="n">
-        <v>7909</v>
-      </c>
-      <c r="J6" s="31" t="n">
-        <v>53</v>
-      </c>
-      <c r="K6" s="31" t="n">
-        <v>11747</v>
-      </c>
-      <c r="L6" s="32" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="M6" s="32" t="n">
-        <v>2498</v>
-      </c>
-      <c r="N6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="34" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="Q6" s="34" t="n">
-        <v>14245</v>
-      </c>
-      <c r="R6" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="H11" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" s="30" t="n">
+        <v>22154</v>
+      </c>
+      <c r="J11" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="28" t="inlineStr">
+        <is>
+          <t>1-2</t>
         </is>
       </c>
     </row>

--- a/output_validation/final__OCHA__platform_output.xlsx
+++ b/output_validation/final__OCHA__platform_output.xlsx
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="E6" s="9" t="n">
-        <v>2426892</v>
+        <v>1050893</v>
       </c>
       <c r="F6" s="10" t="n"/>
       <c r="G6" s="10" t="n"/>
@@ -798,37 +798,37 @@
         </is>
       </c>
       <c r="J6" s="9" t="n">
-        <v>3627552</v>
+        <v>2833958</v>
       </c>
       <c r="K6" s="9" t="n">
-        <v>33.1</v>
+        <v>62.9</v>
       </c>
       <c r="L6" s="9" t="n">
-        <v>1200661</v>
+        <v>1783065</v>
       </c>
       <c r="M6" s="9" t="n">
-        <v>63.1</v>
+        <v>31.6</v>
       </c>
       <c r="N6" s="9" t="n">
-        <v>2287465</v>
+        <v>896590</v>
       </c>
       <c r="O6" s="9" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="P6" s="9" t="n">
-        <v>113644</v>
+        <v>129949</v>
       </c>
       <c r="Q6" s="9" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="R6" s="9" t="n">
-        <v>25783</v>
+        <v>24355</v>
       </c>
       <c r="S6" s="9" t="n">
-        <v>66.90000000000001</v>
+        <v>37.1</v>
       </c>
       <c r="T6" s="9" t="n">
-        <v>2426892</v>
+        <v>1050893</v>
       </c>
     </row>
     <row r="7">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="E7" s="11" t="n">
-        <v>2047366</v>
+        <v>826821</v>
       </c>
       <c r="F7" s="4" t="n"/>
       <c r="G7" s="4" t="n"/>
@@ -860,37 +860,37 @@
         </is>
       </c>
       <c r="J7" s="11" t="n">
-        <v>3017073</v>
+        <v>2471589</v>
       </c>
       <c r="K7" s="11" t="n">
-        <v>32.1</v>
+        <v>66.5</v>
       </c>
       <c r="L7" s="11" t="n">
-        <v>969707</v>
+        <v>1644768</v>
       </c>
       <c r="M7" s="11" t="n">
-        <v>64.59999999999999</v>
+        <v>28.5</v>
       </c>
       <c r="N7" s="11" t="n">
-        <v>1948204</v>
+        <v>703296</v>
       </c>
       <c r="O7" s="11" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="P7" s="11" t="n">
-        <v>75104</v>
+        <v>107447</v>
       </c>
       <c r="Q7" s="11" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="R7" s="11" t="n">
-        <v>24058</v>
+        <v>16079</v>
       </c>
       <c r="S7" s="11" t="n">
-        <v>67.90000000000001</v>
+        <v>33.5</v>
       </c>
       <c r="T7" s="11" t="n">
-        <v>2047366</v>
+        <v>826821</v>
       </c>
     </row>
     <row r="8">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E8" s="11" t="n">
-        <v>177568</v>
+        <v>143427</v>
       </c>
       <c r="F8" s="4" t="n"/>
       <c r="G8" s="4" t="n"/>
@@ -922,37 +922,37 @@
         </is>
       </c>
       <c r="J8" s="11" t="n">
-        <v>298263</v>
+        <v>226810</v>
       </c>
       <c r="K8" s="11" t="n">
-        <v>40.5</v>
+        <v>36.8</v>
       </c>
       <c r="L8" s="11" t="n">
-        <v>120695</v>
+        <v>83383</v>
       </c>
       <c r="M8" s="11" t="n">
-        <v>51.9</v>
+        <v>54.8</v>
       </c>
       <c r="N8" s="11" t="n">
-        <v>154753</v>
+        <v>124350</v>
       </c>
       <c r="O8" s="11" t="n">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="P8" s="11" t="n">
-        <v>21993</v>
+        <v>12235</v>
       </c>
       <c r="Q8" s="11" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="R8" s="11" t="n">
-        <v>821</v>
+        <v>6842</v>
       </c>
       <c r="S8" s="11" t="n">
-        <v>59.5</v>
+        <v>63.2</v>
       </c>
       <c r="T8" s="11" t="n">
-        <v>177568</v>
+        <v>143427</v>
       </c>
     </row>
     <row r="9">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="E9" s="11" t="n">
-        <v>115024</v>
+        <v>65585</v>
       </c>
       <c r="F9" s="4" t="n"/>
       <c r="G9" s="4" t="n"/>
@@ -984,37 +984,37 @@
         </is>
       </c>
       <c r="J9" s="11" t="n">
-        <v>175077</v>
+        <v>113405</v>
       </c>
       <c r="K9" s="11" t="n">
-        <v>34.3</v>
+        <v>42.2</v>
       </c>
       <c r="L9" s="11" t="n">
-        <v>60053</v>
+        <v>47820</v>
       </c>
       <c r="M9" s="11" t="n">
-        <v>62.6</v>
+        <v>48.9</v>
       </c>
       <c r="N9" s="11" t="n">
-        <v>109653</v>
+        <v>55452</v>
       </c>
       <c r="O9" s="11" t="n">
-        <v>2.6</v>
+        <v>7.7</v>
       </c>
       <c r="P9" s="11" t="n">
-        <v>4467</v>
+        <v>8760</v>
       </c>
       <c r="Q9" s="11" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="R9" s="11" t="n">
-        <v>904</v>
+        <v>1373</v>
       </c>
       <c r="S9" s="11" t="n">
-        <v>65.7</v>
+        <v>57.8</v>
       </c>
       <c r="T9" s="11" t="n">
-        <v>115024</v>
+        <v>65585</v>
       </c>
     </row>
     <row r="10">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="E10" s="11" t="n">
-        <v>86934</v>
+        <v>15060</v>
       </c>
       <c r="F10" s="4" t="n"/>
       <c r="G10" s="4" t="n"/>
@@ -1046,37 +1046,37 @@
         </is>
       </c>
       <c r="J10" s="11" t="n">
-        <v>137139</v>
+        <v>22154</v>
       </c>
       <c r="K10" s="11" t="n">
-        <v>36.6</v>
+        <v>32</v>
       </c>
       <c r="L10" s="11" t="n">
-        <v>50206</v>
+        <v>7094</v>
       </c>
       <c r="M10" s="11" t="n">
-        <v>54.6</v>
+        <v>60.9</v>
       </c>
       <c r="N10" s="11" t="n">
-        <v>74854</v>
+        <v>13492</v>
       </c>
       <c r="O10" s="11" t="n">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="P10" s="11" t="n">
-        <v>12079</v>
+        <v>1507</v>
       </c>
       <c r="Q10" s="11" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R10" s="11" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="S10" s="11" t="n">
-        <v>63.4</v>
+        <v>68</v>
       </c>
       <c r="T10" s="11" t="n">
-        <v>86934</v>
+        <v>15060</v>
       </c>
     </row>
     <row r="11">
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="E11" s="12" t="n">
-        <v>1027857</v>
+        <v>452230</v>
       </c>
       <c r="F11" s="4" t="n"/>
       <c r="G11" s="4" t="n"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="E12" s="12" t="n">
-        <v>1399035</v>
+        <v>598663</v>
       </c>
       <c r="F12" s="4" t="n"/>
       <c r="G12" s="4" t="n"/>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="E13" s="13" t="n">
-        <v>245983</v>
+        <v>108050</v>
       </c>
       <c r="F13" s="4" t="n"/>
       <c r="G13" s="4" t="n"/>
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="E14" s="13" t="n">
-        <v>242689</v>
+        <v>105089</v>
       </c>
       <c r="F14" s="4" t="n"/>
       <c r="G14" s="4" t="n"/>
@@ -1221,7 +1221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,7 +1261,7 @@
       <c r="D5" s="14" t="n"/>
       <c r="E5" s="15" t="inlineStr">
         <is>
-          <t>admin3</t>
+          <t>admin1</t>
         </is>
       </c>
       <c r="F5" s="15" t="inlineStr">
@@ -1332,45 +1332,45 @@
       <c r="D6" s="21" t="n"/>
       <c r="E6" s="22" t="inlineStr">
         <is>
-          <t>MMR001001</t>
+          <t>MMR001</t>
         </is>
       </c>
       <c r="F6" s="22" t="n">
-        <v>251037</v>
+        <v>114297</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>86.8</v>
+        <v>72.5</v>
       </c>
       <c r="H6" s="23" t="n">
-        <v>218019</v>
+        <v>82816</v>
       </c>
       <c r="I6" s="24" t="n">
-        <v>4.1</v>
+        <v>23.8</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>10220</v>
+        <v>27148</v>
       </c>
       <c r="K6" s="25" t="n">
-        <v>9.1</v>
+        <v>3.2</v>
       </c>
       <c r="L6" s="25" t="n">
-        <v>22798</v>
+        <v>3711</v>
       </c>
       <c r="M6" s="26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="26" t="n">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="O6" s="27" t="n">
-        <v>13.2</v>
+        <v>27.5</v>
       </c>
       <c r="P6" s="27" t="n">
-        <v>33018</v>
+        <v>31481</v>
       </c>
       <c r="Q6" s="28" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1381,45 +1381,45 @@
       <c r="D7" s="21" t="n"/>
       <c r="E7" s="22" t="inlineStr">
         <is>
-          <t>MMR001002</t>
+          <t>MMR002</t>
         </is>
       </c>
       <c r="F7" s="22" t="n">
-        <v>114297</v>
+        <v>59845</v>
       </c>
       <c r="G7" s="23" t="n">
-        <v>86.8</v>
+        <v>28.6</v>
       </c>
       <c r="H7" s="23" t="n">
-        <v>99264</v>
+        <v>17095</v>
       </c>
       <c r="I7" s="24" t="n">
-        <v>4.1</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>4653</v>
+        <v>40017</v>
       </c>
       <c r="K7" s="25" t="n">
-        <v>9.1</v>
+        <v>3.5</v>
       </c>
       <c r="L7" s="25" t="n">
-        <v>10380</v>
+        <v>2112</v>
       </c>
       <c r="M7" s="26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="26" t="n">
-        <v>0</v>
+        <v>622</v>
       </c>
       <c r="O7" s="27" t="n">
-        <v>13.2</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="P7" s="27" t="n">
-        <v>15033</v>
+        <v>42751</v>
       </c>
       <c r="Q7" s="28" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1430,45 +1430,45 @@
       <c r="D8" s="21" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>MMR001004</t>
+          <t>MMR003</t>
         </is>
       </c>
       <c r="F8" s="22" t="n">
-        <v>103549</v>
+        <v>86336</v>
       </c>
       <c r="G8" s="23" t="n">
-        <v>86.8</v>
+        <v>52.9</v>
       </c>
       <c r="H8" s="23" t="n">
-        <v>89929</v>
+        <v>45681</v>
       </c>
       <c r="I8" s="24" t="n">
-        <v>4.1</v>
+        <v>41.2</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>4216</v>
+        <v>35594</v>
       </c>
       <c r="K8" s="25" t="n">
-        <v>9.1</v>
+        <v>5</v>
       </c>
       <c r="L8" s="25" t="n">
-        <v>9404</v>
+        <v>4341</v>
       </c>
       <c r="M8" s="26" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N8" s="26" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="O8" s="27" t="n">
-        <v>13.2</v>
+        <v>47.1</v>
       </c>
       <c r="P8" s="27" t="n">
-        <v>13619</v>
+        <v>40655</v>
       </c>
       <c r="Q8" s="28" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1479,41 +1479,41 @@
       <c r="D9" s="21" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>MMR002005</t>
+          <t>MMR004</t>
         </is>
       </c>
       <c r="F9" s="22" t="n">
-        <v>100033</v>
+        <v>96362</v>
       </c>
       <c r="G9" s="23" t="n">
-        <v>30.5</v>
+        <v>29.6</v>
       </c>
       <c r="H9" s="23" t="n">
-        <v>30491</v>
+        <v>28517</v>
       </c>
       <c r="I9" s="24" t="n">
-        <v>65.7</v>
+        <v>66</v>
       </c>
       <c r="J9" s="24" t="n">
-        <v>65720</v>
+        <v>63559</v>
       </c>
       <c r="K9" s="25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L9" s="25" t="n">
-        <v>3651</v>
+        <v>3334</v>
       </c>
       <c r="M9" s="26" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="26" t="n">
-        <v>170</v>
+        <v>952</v>
       </c>
       <c r="O9" s="27" t="n">
-        <v>69.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="P9" s="27" t="n">
-        <v>69542</v>
+        <v>67845</v>
       </c>
       <c r="Q9" s="28" t="inlineStr">
         <is>
@@ -1528,41 +1528,41 @@
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>MMR002006</t>
+          <t>MMR005</t>
         </is>
       </c>
       <c r="F10" s="22" t="n">
-        <v>345131</v>
+        <v>251037</v>
       </c>
       <c r="G10" s="23" t="n">
-        <v>30.5</v>
+        <v>18.7</v>
       </c>
       <c r="H10" s="23" t="n">
-        <v>105200</v>
+        <v>46878</v>
       </c>
       <c r="I10" s="24" t="n">
-        <v>65.7</v>
+        <v>75.7</v>
       </c>
       <c r="J10" s="24" t="n">
-        <v>226746</v>
+        <v>190045</v>
       </c>
       <c r="K10" s="25" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L10" s="25" t="n">
-        <v>12597</v>
+        <v>10513</v>
       </c>
       <c r="M10" s="26" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="N10" s="26" t="n">
-        <v>587</v>
+        <v>3601</v>
       </c>
       <c r="O10" s="27" t="n">
-        <v>69.5</v>
+        <v>81.3</v>
       </c>
       <c r="P10" s="27" t="n">
-        <v>239930</v>
+        <v>204159</v>
       </c>
       <c r="Q10" s="28" t="inlineStr">
         <is>
@@ -1577,41 +1577,41 @@
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>MMR002007</t>
+          <t>MMR006</t>
         </is>
       </c>
       <c r="F11" s="22" t="n">
-        <v>85923</v>
+        <v>345131</v>
       </c>
       <c r="G11" s="23" t="n">
-        <v>30.5</v>
+        <v>67</v>
       </c>
       <c r="H11" s="23" t="n">
-        <v>26190</v>
+        <v>231393</v>
       </c>
       <c r="I11" s="24" t="n">
-        <v>65.7</v>
+        <v>28.5</v>
       </c>
       <c r="J11" s="24" t="n">
-        <v>56450</v>
+        <v>98259</v>
       </c>
       <c r="K11" s="25" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L11" s="25" t="n">
-        <v>3136</v>
+        <v>14278</v>
       </c>
       <c r="M11" s="26" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="N11" s="26" t="n">
-        <v>146</v>
+        <v>1201</v>
       </c>
       <c r="O11" s="27" t="n">
-        <v>69.5</v>
+        <v>33</v>
       </c>
       <c r="P11" s="27" t="n">
-        <v>59733</v>
+        <v>113737</v>
       </c>
       <c r="Q11" s="28" t="inlineStr">
         <is>
@@ -1626,29 +1626,29 @@
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>MMR008003</t>
+          <t>MMR007</t>
         </is>
       </c>
       <c r="F12" s="22" t="n">
-        <v>206737</v>
+        <v>138589</v>
       </c>
       <c r="G12" s="23" t="n">
-        <v>100</v>
+        <v>74.5</v>
       </c>
       <c r="H12" s="23" t="n">
-        <v>206737</v>
+        <v>103188</v>
       </c>
       <c r="I12" s="24" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>0</v>
+        <v>32126</v>
       </c>
       <c r="K12" s="25" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="L12" s="25" t="n">
-        <v>0</v>
+        <v>3275</v>
       </c>
       <c r="M12" s="26" t="n">
         <v>0</v>
@@ -1657,14 +1657,14 @@
         <v>0</v>
       </c>
       <c r="O12" s="27" t="n">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="P12" s="27" t="n">
-        <v>0</v>
+        <v>35401</v>
       </c>
       <c r="Q12" s="28" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1675,29 +1675,29 @@
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>MMR009018</t>
+          <t>MMR008</t>
         </is>
       </c>
       <c r="F13" s="22" t="n">
-        <v>274302</v>
+        <v>82380</v>
       </c>
       <c r="G13" s="23" t="n">
-        <v>9</v>
+        <v>75.7</v>
       </c>
       <c r="H13" s="23" t="n">
-        <v>24698</v>
+        <v>62340</v>
       </c>
       <c r="I13" s="24" t="n">
-        <v>91</v>
+        <v>16.8</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>249604</v>
+        <v>13805</v>
       </c>
       <c r="K13" s="25" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="L13" s="25" t="n">
-        <v>0</v>
+        <v>6236</v>
       </c>
       <c r="M13" s="26" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="O13" s="27" t="n">
-        <v>91</v>
+        <v>24.3</v>
       </c>
       <c r="P13" s="27" t="n">
-        <v>249604</v>
+        <v>20041</v>
       </c>
       <c r="Q13" s="28" t="inlineStr">
         <is>
@@ -1724,41 +1724,41 @@
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>MMR009019</t>
+          <t>MMR009</t>
         </is>
       </c>
       <c r="F14" s="22" t="n">
-        <v>52804</v>
+        <v>94677</v>
       </c>
       <c r="G14" s="23" t="n">
-        <v>0</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="H14" s="23" t="n">
-        <v>0</v>
+        <v>67289</v>
       </c>
       <c r="I14" s="24" t="n">
-        <v>100</v>
+        <v>25.2</v>
       </c>
       <c r="J14" s="24" t="n">
-        <v>52804</v>
+        <v>23845</v>
       </c>
       <c r="K14" s="25" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="L14" s="25" t="n">
-        <v>0</v>
+        <v>2647</v>
       </c>
       <c r="M14" s="26" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N14" s="26" t="n">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="O14" s="27" t="n">
-        <v>100</v>
+        <v>28.9</v>
       </c>
       <c r="P14" s="27" t="n">
-        <v>52804</v>
+        <v>27388</v>
       </c>
       <c r="Q14" s="28" t="inlineStr">
         <is>
@@ -1773,41 +1773,41 @@
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>MMR009020</t>
+          <t>MMR010</t>
         </is>
       </c>
       <c r="F15" s="22" t="n">
-        <v>570244</v>
+        <v>469612</v>
       </c>
       <c r="G15" s="23" t="n">
-        <v>0</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="H15" s="23" t="n">
-        <v>0</v>
+        <v>363402</v>
       </c>
       <c r="I15" s="24" t="n">
-        <v>100</v>
+        <v>18.4</v>
       </c>
       <c r="J15" s="24" t="n">
-        <v>570244</v>
+        <v>86190</v>
       </c>
       <c r="K15" s="25" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L15" s="25" t="n">
-        <v>0</v>
+        <v>16642</v>
       </c>
       <c r="M15" s="26" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N15" s="26" t="n">
-        <v>0</v>
+        <v>3379</v>
       </c>
       <c r="O15" s="27" t="n">
-        <v>100</v>
+        <v>22.6</v>
       </c>
       <c r="P15" s="27" t="n">
-        <v>570244</v>
+        <v>106210</v>
       </c>
       <c r="Q15" s="28" t="inlineStr">
         <is>
@@ -1822,45 +1822,45 @@
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>MMR012001</t>
+          <t>MMR011</t>
         </is>
       </c>
       <c r="F16" s="22" t="n">
-        <v>88601</v>
+        <v>113855</v>
       </c>
       <c r="G16" s="23" t="n">
-        <v>28.7</v>
+        <v>64.7</v>
       </c>
       <c r="H16" s="23" t="n">
-        <v>25463</v>
+        <v>73705</v>
       </c>
       <c r="I16" s="24" t="n">
-        <v>47.3</v>
+        <v>18.5</v>
       </c>
       <c r="J16" s="24" t="n">
-        <v>41873</v>
+        <v>21096</v>
       </c>
       <c r="K16" s="25" t="n">
-        <v>24</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L16" s="25" t="n">
-        <v>21265</v>
+        <v>10036</v>
       </c>
       <c r="M16" s="26" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="N16" s="26" t="n">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="O16" s="27" t="n">
-        <v>71.3</v>
+        <v>35.3</v>
       </c>
       <c r="P16" s="27" t="n">
-        <v>63138</v>
+        <v>40150</v>
       </c>
       <c r="Q16" s="28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1871,45 +1871,45 @@
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="22" t="inlineStr">
         <is>
-          <t>MMR012003</t>
+          <t>MMR012</t>
         </is>
       </c>
       <c r="F17" s="22" t="n">
-        <v>134467</v>
+        <v>147696</v>
       </c>
       <c r="G17" s="23" t="n">
-        <v>0</v>
+        <v>41.8</v>
       </c>
       <c r="H17" s="23" t="n">
-        <v>0</v>
+        <v>61772</v>
       </c>
       <c r="I17" s="24" t="n">
-        <v>78.8</v>
+        <v>51.1</v>
       </c>
       <c r="J17" s="24" t="n">
-        <v>105896</v>
+        <v>75470</v>
       </c>
       <c r="K17" s="25" t="n">
-        <v>21.2</v>
+        <v>6.6</v>
       </c>
       <c r="L17" s="25" t="n">
-        <v>28571</v>
+        <v>9675</v>
       </c>
       <c r="M17" s="26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N17" s="26" t="n">
-        <v>0</v>
+        <v>779</v>
       </c>
       <c r="O17" s="27" t="n">
-        <v>100</v>
+        <v>58.2</v>
       </c>
       <c r="P17" s="27" t="n">
-        <v>134467</v>
+        <v>85924</v>
       </c>
       <c r="Q17" s="28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1920,41 +1920,41 @@
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>MMR012004</t>
+          <t>MMR013</t>
         </is>
       </c>
       <c r="F18" s="22" t="n">
-        <v>109640</v>
+        <v>94050</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>17.7</v>
+        <v>65.8</v>
       </c>
       <c r="H18" s="23" t="n">
-        <v>19410</v>
+        <v>61865</v>
       </c>
       <c r="I18" s="24" t="n">
-        <v>82.3</v>
+        <v>26</v>
       </c>
       <c r="J18" s="24" t="n">
-        <v>90230</v>
+        <v>24464</v>
       </c>
       <c r="K18" s="25" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="L18" s="25" t="n">
-        <v>0</v>
+        <v>7317</v>
       </c>
       <c r="M18" s="26" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N18" s="26" t="n">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="O18" s="27" t="n">
-        <v>82.3</v>
+        <v>34.2</v>
       </c>
       <c r="P18" s="27" t="n">
-        <v>90230</v>
+        <v>32185</v>
       </c>
       <c r="Q18" s="28" t="inlineStr">
         <is>
@@ -1969,29 +1969,29 @@
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>MMR012005</t>
+          <t>MMR014</t>
         </is>
       </c>
       <c r="F19" s="22" t="n">
-        <v>34010</v>
+        <v>291446</v>
       </c>
       <c r="G19" s="23" t="n">
-        <v>8.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="H19" s="23" t="n">
-        <v>2879</v>
+        <v>224720</v>
       </c>
       <c r="I19" s="24" t="n">
-        <v>91.5</v>
+        <v>17.6</v>
       </c>
       <c r="J19" s="24" t="n">
-        <v>31131</v>
+        <v>51440</v>
       </c>
       <c r="K19" s="25" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="L19" s="25" t="n">
-        <v>0</v>
+        <v>15286</v>
       </c>
       <c r="M19" s="26" t="n">
         <v>0</v>
@@ -2000,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="27" t="n">
-        <v>91.5</v>
+        <v>22.9</v>
       </c>
       <c r="P19" s="27" t="n">
-        <v>31131</v>
+        <v>66726</v>
       </c>
       <c r="Q19" s="28" t="inlineStr">
         <is>
@@ -2018,41 +2018,41 @@
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>MMR012006</t>
+          <t>MMR015</t>
         </is>
       </c>
       <c r="F20" s="22" t="n">
-        <v>185972</v>
+        <v>210768</v>
       </c>
       <c r="G20" s="23" t="n">
-        <v>3.8</v>
+        <v>48.4</v>
       </c>
       <c r="H20" s="23" t="n">
-        <v>7003</v>
+        <v>101932</v>
       </c>
       <c r="I20" s="24" t="n">
-        <v>83.3</v>
+        <v>45.3</v>
       </c>
       <c r="J20" s="24" t="n">
-        <v>154910</v>
+        <v>95540</v>
       </c>
       <c r="K20" s="25" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L20" s="25" t="n">
-        <v>0</v>
+        <v>11614</v>
       </c>
       <c r="M20" s="26" t="n">
-        <v>12.9</v>
+        <v>0.8</v>
       </c>
       <c r="N20" s="26" t="n">
-        <v>24058</v>
+        <v>1681</v>
       </c>
       <c r="O20" s="27" t="n">
-        <v>96.2</v>
+        <v>51.6</v>
       </c>
       <c r="P20" s="27" t="n">
-        <v>178968</v>
+        <v>108835</v>
       </c>
       <c r="Q20" s="28" t="inlineStr">
         <is>
@@ -2067,45 +2067,45 @@
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>MMR012007</t>
+          <t>MMR016</t>
         </is>
       </c>
       <c r="F21" s="22" t="n">
-        <v>25393</v>
+        <v>70760</v>
       </c>
       <c r="G21" s="23" t="n">
-        <v>35.9</v>
+        <v>85.5</v>
       </c>
       <c r="H21" s="23" t="n">
-        <v>9121</v>
+        <v>60490</v>
       </c>
       <c r="I21" s="24" t="n">
-        <v>53.6</v>
+        <v>10.9</v>
       </c>
       <c r="J21" s="24" t="n">
-        <v>13610</v>
+        <v>7743</v>
       </c>
       <c r="K21" s="25" t="n">
-        <v>7.3</v>
+        <v>3.6</v>
       </c>
       <c r="L21" s="25" t="n">
-        <v>1841</v>
+        <v>2528</v>
       </c>
       <c r="M21" s="26" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="N21" s="26" t="n">
-        <v>821</v>
+        <v>0</v>
       </c>
       <c r="O21" s="27" t="n">
-        <v>64.09999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="P21" s="27" t="n">
-        <v>16272</v>
+        <v>10271</v>
       </c>
       <c r="Q21" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -2116,41 +2116,41 @@
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>MMR012010</t>
+          <t>MMR017</t>
         </is>
       </c>
       <c r="F22" s="22" t="n">
-        <v>140311</v>
+        <v>81840</v>
       </c>
       <c r="G22" s="23" t="n">
-        <v>100</v>
+        <v>92.5</v>
       </c>
       <c r="H22" s="23" t="n">
-        <v>140311</v>
+        <v>75687</v>
       </c>
       <c r="I22" s="24" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="J22" s="24" t="n">
-        <v>0</v>
+        <v>2975</v>
       </c>
       <c r="K22" s="25" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="L22" s="25" t="n">
-        <v>0</v>
+        <v>2695</v>
       </c>
       <c r="M22" s="26" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N22" s="26" t="n">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="O22" s="27" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="P22" s="27" t="n">
-        <v>0</v>
+        <v>6153</v>
       </c>
       <c r="Q22" s="28" t="inlineStr">
         <is>
@@ -2163,192 +2163,45 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="n"/>
       <c r="D23" s="21" t="n"/>
-      <c r="E23" s="22" t="inlineStr">
-        <is>
-          <t>MMR012011</t>
-        </is>
-      </c>
-      <c r="F23" s="22" t="n">
-        <v>93763</v>
-      </c>
-      <c r="G23" s="23" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="H23" s="23" t="n">
-        <v>39294</v>
-      </c>
-      <c r="I23" s="24" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="J23" s="24" t="n">
-        <v>54469</v>
-      </c>
-      <c r="K23" s="25" t="n">
+      <c r="E23" s="29" t="inlineStr">
+        <is>
+          <t>MMR018</t>
+        </is>
+      </c>
+      <c r="F23" s="29" t="n">
+        <v>85275</v>
+      </c>
+      <c r="G23" s="30" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="H23" s="30" t="n">
+        <v>74295</v>
+      </c>
+      <c r="I23" s="31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J23" s="31" t="n">
+        <v>7273</v>
+      </c>
+      <c r="K23" s="32" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L23" s="32" t="n">
+        <v>3707</v>
+      </c>
+      <c r="M23" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="L23" s="25" t="n">
+      <c r="N23" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="M23" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="27" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="P23" s="27" t="n">
-        <v>54469</v>
+      <c r="O23" s="34" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="P23" s="34" t="n">
+        <v>10980</v>
       </c>
       <c r="Q23" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="21" t="n"/>
-      <c r="B24" s="21" t="n"/>
-      <c r="C24" s="21" t="n"/>
-      <c r="D24" s="21" t="n"/>
-      <c r="E24" s="22" t="inlineStr">
-        <is>
-          <t>MMR012014</t>
-        </is>
-      </c>
-      <c r="F24" s="22" t="n">
-        <v>503156</v>
-      </c>
-      <c r="G24" s="23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H24" s="23" t="n">
-        <v>18497</v>
-      </c>
-      <c r="I24" s="24" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="J24" s="24" t="n">
-        <v>484659</v>
-      </c>
-      <c r="K24" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="27" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="P24" s="27" t="n">
-        <v>484659</v>
-      </c>
-      <c r="Q24" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="21" t="n"/>
-      <c r="B25" s="21" t="n"/>
-      <c r="C25" s="21" t="n"/>
-      <c r="D25" s="21" t="n"/>
-      <c r="E25" s="22" t="inlineStr">
-        <is>
-          <t>MMR012015</t>
-        </is>
-      </c>
-      <c r="F25" s="22" t="n">
-        <v>114132</v>
-      </c>
-      <c r="G25" s="23" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="H25" s="23" t="n">
-        <v>44104</v>
-      </c>
-      <c r="I25" s="24" t="n">
-        <v>61.4</v>
-      </c>
-      <c r="J25" s="24" t="n">
-        <v>70028</v>
-      </c>
-      <c r="K25" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="27" t="n">
-        <v>61.4</v>
-      </c>
-      <c r="P25" s="27" t="n">
-        <v>70028</v>
-      </c>
-      <c r="Q25" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="21" t="n"/>
-      <c r="B26" s="21" t="n"/>
-      <c r="C26" s="21" t="n"/>
-      <c r="D26" s="21" t="n"/>
-      <c r="E26" s="29" t="inlineStr">
-        <is>
-          <t>MMR012016</t>
-        </is>
-      </c>
-      <c r="F26" s="29" t="n">
-        <v>94050</v>
-      </c>
-      <c r="G26" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="H26" s="30" t="n">
-        <v>94050</v>
-      </c>
-      <c r="I26" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="28" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
@@ -2409,7 +2262,7 @@
       <c r="D5" s="14" t="n"/>
       <c r="E5" s="15" t="inlineStr">
         <is>
-          <t>admin3</t>
+          <t>admin1</t>
         </is>
       </c>
       <c r="F5" s="15" t="inlineStr">
@@ -2485,7 +2338,7 @@
       <c r="D6" s="21" t="n"/>
       <c r="E6" s="22" t="inlineStr">
         <is>
-          <t>MMR008003</t>
+          <t>MMR001</t>
         </is>
       </c>
       <c r="F6" s="22" t="inlineStr">
@@ -2494,41 +2347,41 @@
         </is>
       </c>
       <c r="G6" s="22" t="n">
-        <v>206737</v>
+        <v>94127</v>
       </c>
       <c r="H6" s="23" t="n">
-        <v>100</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>206737</v>
+        <v>69230</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>0</v>
+        <v>22094</v>
       </c>
       <c r="L6" s="25" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="M6" s="25" t="n">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="N6" s="26" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O6" s="26" t="n">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="P6" s="27" t="n">
-        <v>0</v>
+        <v>26.4</v>
       </c>
       <c r="Q6" s="27" t="n">
-        <v>0</v>
+        <v>24896</v>
       </c>
       <c r="R6" s="28" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2392,7 @@
       <c r="D7" s="21" t="n"/>
       <c r="E7" s="22" t="inlineStr">
         <is>
-          <t>MMR009018</t>
+          <t>MMR002</t>
         </is>
       </c>
       <c r="F7" s="22" t="inlineStr">
@@ -2548,25 +2401,25 @@
         </is>
       </c>
       <c r="G7" s="22" t="n">
-        <v>240015</v>
+        <v>49284</v>
       </c>
       <c r="H7" s="23" t="n">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="I7" s="23" t="n">
-        <v>0</v>
+        <v>14199</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>100</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="K7" s="24" t="n">
-        <v>240015</v>
+        <v>33207</v>
       </c>
       <c r="L7" s="25" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="M7" s="25" t="n">
-        <v>0</v>
+        <v>1877</v>
       </c>
       <c r="N7" s="26" t="n">
         <v>0</v>
@@ -2575,10 +2428,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="27" t="n">
-        <v>100</v>
+        <v>71.2</v>
       </c>
       <c r="Q7" s="27" t="n">
-        <v>240015</v>
+        <v>35085</v>
       </c>
       <c r="R7" s="28" t="inlineStr">
         <is>
@@ -2593,7 +2446,7 @@
       <c r="D8" s="21" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>MMR009019</t>
+          <t>MMR003</t>
         </is>
       </c>
       <c r="F8" s="22" t="inlineStr">
@@ -2602,37 +2455,37 @@
         </is>
       </c>
       <c r="G8" s="22" t="n">
-        <v>49284</v>
+        <v>71100</v>
       </c>
       <c r="H8" s="23" t="n">
-        <v>0</v>
+        <v>54.3</v>
       </c>
       <c r="I8" s="23" t="n">
-        <v>0</v>
+        <v>38598</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>100</v>
+        <v>39.8</v>
       </c>
       <c r="K8" s="24" t="n">
-        <v>49284</v>
+        <v>28273</v>
       </c>
       <c r="L8" s="25" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="M8" s="25" t="n">
-        <v>0</v>
+        <v>3912</v>
       </c>
       <c r="N8" s="26" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O8" s="26" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="P8" s="27" t="n">
-        <v>100</v>
+        <v>45.7</v>
       </c>
       <c r="Q8" s="27" t="n">
-        <v>49284</v>
+        <v>32503</v>
       </c>
       <c r="R8" s="28" t="inlineStr">
         <is>
@@ -2647,7 +2500,7 @@
       <c r="D9" s="21" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>MMR009020</t>
+          <t>MMR004</t>
         </is>
       </c>
       <c r="F9" s="22" t="inlineStr">
@@ -2656,37 +2509,37 @@
         </is>
       </c>
       <c r="G9" s="22" t="n">
-        <v>469612</v>
+        <v>79357</v>
       </c>
       <c r="H9" s="23" t="n">
-        <v>0</v>
+        <v>29.6</v>
       </c>
       <c r="I9" s="23" t="n">
-        <v>0</v>
+        <v>23469</v>
       </c>
       <c r="J9" s="24" t="n">
-        <v>100</v>
+        <v>65.8</v>
       </c>
       <c r="K9" s="24" t="n">
-        <v>469612</v>
+        <v>52207</v>
       </c>
       <c r="L9" s="25" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M9" s="25" t="n">
-        <v>0</v>
+        <v>2804</v>
       </c>
       <c r="N9" s="26" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O9" s="26" t="n">
-        <v>0</v>
+        <v>877</v>
       </c>
       <c r="P9" s="27" t="n">
-        <v>100</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="Q9" s="27" t="n">
-        <v>469612</v>
+        <v>55888</v>
       </c>
       <c r="R9" s="28" t="inlineStr">
         <is>
@@ -2701,7 +2554,7 @@
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>MMR012003</t>
+          <t>MMR005</t>
         </is>
       </c>
       <c r="F10" s="22" t="inlineStr">
@@ -2710,41 +2563,41 @@
         </is>
       </c>
       <c r="G10" s="22" t="n">
-        <v>94127</v>
+        <v>206737</v>
       </c>
       <c r="H10" s="23" t="n">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="I10" s="23" t="n">
-        <v>0</v>
+        <v>44841</v>
       </c>
       <c r="J10" s="24" t="n">
-        <v>69.59999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="K10" s="24" t="n">
-        <v>65556</v>
+        <v>151037</v>
       </c>
       <c r="L10" s="25" t="n">
-        <v>30.4</v>
+        <v>4.8</v>
       </c>
       <c r="M10" s="25" t="n">
-        <v>28571</v>
+        <v>9848</v>
       </c>
       <c r="N10" s="26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O10" s="26" t="n">
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="P10" s="27" t="n">
-        <v>100</v>
+        <v>78.3</v>
       </c>
       <c r="Q10" s="27" t="n">
-        <v>94127</v>
+        <v>161896</v>
       </c>
       <c r="R10" s="28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2608,7 @@
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>MMR012004</t>
+          <t>MMR006</t>
         </is>
       </c>
       <c r="F11" s="22" t="inlineStr">
@@ -2764,25 +2617,25 @@
         </is>
       </c>
       <c r="G11" s="22" t="n">
-        <v>85275</v>
+        <v>284225</v>
       </c>
       <c r="H11" s="23" t="n">
-        <v>0</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="I11" s="23" t="n">
-        <v>0</v>
+        <v>206212</v>
       </c>
       <c r="J11" s="24" t="n">
-        <v>100</v>
+        <v>23.7</v>
       </c>
       <c r="K11" s="24" t="n">
-        <v>85275</v>
+        <v>67381</v>
       </c>
       <c r="L11" s="25" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="M11" s="25" t="n">
-        <v>0</v>
+        <v>10632</v>
       </c>
       <c r="N11" s="26" t="n">
         <v>0</v>
@@ -2791,10 +2644,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="27" t="n">
-        <v>100</v>
+        <v>27.4</v>
       </c>
       <c r="Q11" s="27" t="n">
-        <v>85275</v>
+        <v>78013</v>
       </c>
       <c r="R11" s="28" t="inlineStr">
         <is>
@@ -2809,7 +2662,7 @@
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>MMR012006</t>
+          <t>MMR007</t>
         </is>
       </c>
       <c r="F12" s="22" t="inlineStr">
@@ -2818,37 +2671,37 @@
         </is>
       </c>
       <c r="G12" s="22" t="n">
-        <v>173573</v>
+        <v>114132</v>
       </c>
       <c r="H12" s="23" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="I12" s="23" t="n">
+        <v>88451</v>
+      </c>
+      <c r="J12" s="24" t="n">
+        <v>21</v>
+      </c>
+      <c r="K12" s="24" t="n">
+        <v>23946</v>
+      </c>
+      <c r="L12" s="25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M12" s="25" t="n">
+        <v>1736</v>
+      </c>
+      <c r="N12" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="23" t="n">
+      <c r="O12" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="24" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="K12" s="24" t="n">
-        <v>149515</v>
-      </c>
-      <c r="L12" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="26" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="O12" s="26" t="n">
-        <v>24058</v>
-      </c>
       <c r="P12" s="27" t="n">
-        <v>100</v>
+        <v>22.5</v>
       </c>
       <c r="Q12" s="27" t="n">
-        <v>173573</v>
+        <v>25682</v>
       </c>
       <c r="R12" s="28" t="inlineStr">
         <is>
@@ -2863,7 +2716,7 @@
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>MMR012010</t>
+          <t>MMR008</t>
         </is>
       </c>
       <c r="F13" s="22" t="inlineStr">
@@ -2872,25 +2725,25 @@
         </is>
       </c>
       <c r="G13" s="22" t="n">
-        <v>103387</v>
+        <v>82380</v>
       </c>
       <c r="H13" s="23" t="n">
-        <v>100</v>
+        <v>75.7</v>
       </c>
       <c r="I13" s="23" t="n">
-        <v>103387</v>
+        <v>62340</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="K13" s="24" t="n">
-        <v>0</v>
+        <v>13805</v>
       </c>
       <c r="L13" s="25" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="M13" s="25" t="n">
-        <v>0</v>
+        <v>6236</v>
       </c>
       <c r="N13" s="26" t="n">
         <v>0</v>
@@ -2899,14 +2752,14 @@
         <v>0</v>
       </c>
       <c r="P13" s="27" t="n">
-        <v>0</v>
+        <v>24.3</v>
       </c>
       <c r="Q13" s="27" t="n">
-        <v>0</v>
+        <v>20041</v>
       </c>
       <c r="R13" s="28" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2770,7 @@
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>MMR012011</t>
+          <t>MMR009</t>
         </is>
       </c>
       <c r="F14" s="22" t="inlineStr">
@@ -2926,25 +2779,25 @@
         </is>
       </c>
       <c r="G14" s="22" t="n">
-        <v>93763</v>
+        <v>77970</v>
       </c>
       <c r="H14" s="23" t="n">
-        <v>41.9</v>
+        <v>78.2</v>
       </c>
       <c r="I14" s="23" t="n">
-        <v>39294</v>
+        <v>60939</v>
       </c>
       <c r="J14" s="24" t="n">
-        <v>58.1</v>
+        <v>20.5</v>
       </c>
       <c r="K14" s="24" t="n">
-        <v>54469</v>
+        <v>15970</v>
       </c>
       <c r="L14" s="25" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M14" s="25" t="n">
-        <v>0</v>
+        <v>1061</v>
       </c>
       <c r="N14" s="26" t="n">
         <v>0</v>
@@ -2953,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="27" t="n">
-        <v>58.1</v>
+        <v>21.8</v>
       </c>
       <c r="Q14" s="27" t="n">
-        <v>54469</v>
+        <v>17031</v>
       </c>
       <c r="R14" s="28" t="inlineStr">
         <is>
@@ -2971,7 +2824,7 @@
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>MMR012014</t>
+          <t>MMR010</t>
         </is>
       </c>
       <c r="F15" s="22" t="inlineStr">
@@ -2983,34 +2836,34 @@
         <v>469612</v>
       </c>
       <c r="H15" s="23" t="n">
-        <v>0</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I15" s="23" t="n">
-        <v>0</v>
+        <v>363402</v>
       </c>
       <c r="J15" s="24" t="n">
-        <v>100</v>
+        <v>18.4</v>
       </c>
       <c r="K15" s="24" t="n">
-        <v>469612</v>
+        <v>86190</v>
       </c>
       <c r="L15" s="25" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M15" s="25" t="n">
-        <v>0</v>
+        <v>16642</v>
       </c>
       <c r="N15" s="26" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O15" s="26" t="n">
-        <v>0</v>
+        <v>3379</v>
       </c>
       <c r="P15" s="27" t="n">
-        <v>100</v>
+        <v>22.6</v>
       </c>
       <c r="Q15" s="27" t="n">
-        <v>469612</v>
+        <v>106210</v>
       </c>
       <c r="R15" s="28" t="inlineStr">
         <is>
@@ -3025,7 +2878,7 @@
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>MMR012015</t>
+          <t>MMR011</t>
         </is>
       </c>
       <c r="F16" s="22" t="inlineStr">
@@ -3034,37 +2887,37 @@
         </is>
       </c>
       <c r="G16" s="22" t="n">
-        <v>114132</v>
+        <v>93763</v>
       </c>
       <c r="H16" s="23" t="n">
-        <v>38.6</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="I16" s="23" t="n">
-        <v>44104</v>
+        <v>63382</v>
       </c>
       <c r="J16" s="24" t="n">
-        <v>61.4</v>
+        <v>15.6</v>
       </c>
       <c r="K16" s="24" t="n">
-        <v>70028</v>
+        <v>14645</v>
       </c>
       <c r="L16" s="25" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M16" s="25" t="n">
-        <v>0</v>
+        <v>8175</v>
       </c>
       <c r="N16" s="26" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="O16" s="26" t="n">
-        <v>0</v>
+        <v>7561</v>
       </c>
       <c r="P16" s="27" t="n">
-        <v>61.4</v>
+        <v>32.4</v>
       </c>
       <c r="Q16" s="27" t="n">
-        <v>70028</v>
+        <v>30381</v>
       </c>
       <c r="R16" s="28" t="inlineStr">
         <is>
@@ -3079,7 +2932,7 @@
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="22" t="inlineStr">
         <is>
-          <t>MMR012016</t>
+          <t>MMR012</t>
         </is>
       </c>
       <c r="F17" s="22" t="inlineStr">
@@ -3088,41 +2941,41 @@
         </is>
       </c>
       <c r="G17" s="22" t="n">
-        <v>94050</v>
+        <v>103387</v>
       </c>
       <c r="H17" s="23" t="n">
-        <v>100</v>
+        <v>46.2</v>
       </c>
       <c r="I17" s="23" t="n">
-        <v>94050</v>
+        <v>47756</v>
       </c>
       <c r="J17" s="24" t="n">
-        <v>0</v>
+        <v>48.2</v>
       </c>
       <c r="K17" s="24" t="n">
-        <v>0</v>
+        <v>49819</v>
       </c>
       <c r="L17" s="25" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="M17" s="25" t="n">
-        <v>0</v>
+        <v>5404</v>
       </c>
       <c r="N17" s="26" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O17" s="26" t="n">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="P17" s="27" t="n">
-        <v>0</v>
+        <v>53.8</v>
       </c>
       <c r="Q17" s="27" t="n">
-        <v>0</v>
+        <v>55631</v>
       </c>
       <c r="R17" s="28" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3133,7 +2986,7 @@
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>MMR001001</t>
+          <t>MMR013</t>
         </is>
       </c>
       <c r="F18" s="22" t="inlineStr">
@@ -3142,41 +2995,41 @@
         </is>
       </c>
       <c r="G18" s="22" t="n">
-        <v>206737</v>
+        <v>94050</v>
       </c>
       <c r="H18" s="23" t="n">
-        <v>91.40000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>188972</v>
+        <v>61865</v>
       </c>
       <c r="J18" s="24" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K18" s="24" t="n">
-        <v>0</v>
+        <v>24464</v>
       </c>
       <c r="L18" s="25" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="M18" s="25" t="n">
-        <v>17765</v>
+        <v>7317</v>
       </c>
       <c r="N18" s="26" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O18" s="26" t="n">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="P18" s="27" t="n">
-        <v>8.6</v>
+        <v>34.2</v>
       </c>
       <c r="Q18" s="27" t="n">
-        <v>17765</v>
+        <v>32185</v>
       </c>
       <c r="R18" s="28" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3040,7 @@
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>MMR001002</t>
+          <t>MMR014</t>
         </is>
       </c>
       <c r="F19" s="22" t="inlineStr">
@@ -3196,25 +3049,25 @@
         </is>
       </c>
       <c r="G19" s="22" t="n">
-        <v>94127</v>
+        <v>240015</v>
       </c>
       <c r="H19" s="23" t="n">
-        <v>91.40000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="I19" s="23" t="n">
-        <v>86039</v>
+        <v>196208</v>
       </c>
       <c r="J19" s="24" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="K19" s="24" t="n">
-        <v>0</v>
+        <v>33230</v>
       </c>
       <c r="L19" s="25" t="n">
-        <v>8.6</v>
+        <v>4.4</v>
       </c>
       <c r="M19" s="25" t="n">
-        <v>8088</v>
+        <v>10577</v>
       </c>
       <c r="N19" s="26" t="n">
         <v>0</v>
@@ -3223,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="27" t="n">
-        <v>8.6</v>
+        <v>18.3</v>
       </c>
       <c r="Q19" s="27" t="n">
-        <v>8088</v>
+        <v>43807</v>
       </c>
       <c r="R19" s="28" t="inlineStr">
         <is>
@@ -3241,7 +3094,7 @@
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>MMR001004</t>
+          <t>MMR015</t>
         </is>
       </c>
       <c r="F20" s="22" t="inlineStr">
@@ -3250,41 +3103,41 @@
         </is>
       </c>
       <c r="G20" s="22" t="n">
-        <v>85275</v>
+        <v>173573</v>
       </c>
       <c r="H20" s="23" t="n">
-        <v>91.40000000000001</v>
+        <v>53.8</v>
       </c>
       <c r="I20" s="23" t="n">
-        <v>77948</v>
+        <v>93404</v>
       </c>
       <c r="J20" s="24" t="n">
-        <v>0</v>
+        <v>39.8</v>
       </c>
       <c r="K20" s="24" t="n">
-        <v>0</v>
+        <v>69037</v>
       </c>
       <c r="L20" s="25" t="n">
-        <v>8.6</v>
+        <v>5.8</v>
       </c>
       <c r="M20" s="25" t="n">
-        <v>7328</v>
+        <v>10115</v>
       </c>
       <c r="N20" s="26" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O20" s="26" t="n">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="P20" s="27" t="n">
-        <v>8.6</v>
+        <v>46.2</v>
       </c>
       <c r="Q20" s="27" t="n">
-        <v>7328</v>
+        <v>80170</v>
       </c>
       <c r="R20" s="28" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3148,7 @@
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>MMR002005</t>
+          <t>MMR016</t>
         </is>
       </c>
       <c r="F21" s="22" t="inlineStr">
@@ -3304,25 +3157,25 @@
         </is>
       </c>
       <c r="G21" s="22" t="n">
-        <v>82380</v>
+        <v>70760</v>
       </c>
       <c r="H21" s="23" t="n">
-        <v>29.5</v>
+        <v>85.5</v>
       </c>
       <c r="I21" s="23" t="n">
-        <v>24331</v>
+        <v>60490</v>
       </c>
       <c r="J21" s="24" t="n">
-        <v>67.40000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="K21" s="24" t="n">
-        <v>55534</v>
+        <v>7743</v>
       </c>
       <c r="L21" s="25" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M21" s="25" t="n">
-        <v>2515</v>
+        <v>2528</v>
       </c>
       <c r="N21" s="26" t="n">
         <v>0</v>
@@ -3331,14 +3184,14 @@
         <v>0</v>
       </c>
       <c r="P21" s="27" t="n">
-        <v>70.5</v>
+        <v>14.5</v>
       </c>
       <c r="Q21" s="27" t="n">
-        <v>58049</v>
+        <v>10271</v>
       </c>
       <c r="R21" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3202,7 @@
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>MMR002006</t>
+          <t>MMR017</t>
         </is>
       </c>
       <c r="F22" s="22" t="inlineStr">
@@ -3358,41 +3211,41 @@
         </is>
       </c>
       <c r="G22" s="22" t="n">
-        <v>284225</v>
+        <v>81840</v>
       </c>
       <c r="H22" s="23" t="n">
-        <v>29.5</v>
+        <v>92.5</v>
       </c>
       <c r="I22" s="23" t="n">
-        <v>83946</v>
+        <v>75687</v>
       </c>
       <c r="J22" s="24" t="n">
-        <v>67.40000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="K22" s="24" t="n">
-        <v>191602</v>
+        <v>2975</v>
       </c>
       <c r="L22" s="25" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M22" s="25" t="n">
-        <v>8677</v>
+        <v>2695</v>
       </c>
       <c r="N22" s="26" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O22" s="26" t="n">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="P22" s="27" t="n">
-        <v>70.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q22" s="27" t="n">
-        <v>200279</v>
+        <v>6153</v>
       </c>
       <c r="R22" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -3403,7 +3256,7 @@
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="29" t="inlineStr">
         <is>
-          <t>MMR002007</t>
+          <t>MMR018</t>
         </is>
       </c>
       <c r="F23" s="29" t="inlineStr">
@@ -3412,25 +3265,25 @@
         </is>
       </c>
       <c r="G23" s="29" t="n">
-        <v>70760</v>
+        <v>85275</v>
       </c>
       <c r="H23" s="30" t="n">
-        <v>29.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="I23" s="30" t="n">
-        <v>20899</v>
+        <v>74295</v>
       </c>
       <c r="J23" s="31" t="n">
-        <v>67.40000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="K23" s="31" t="n">
-        <v>47701</v>
+        <v>7273</v>
       </c>
       <c r="L23" s="32" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="M23" s="32" t="n">
-        <v>2160</v>
+        <v>3707</v>
       </c>
       <c r="N23" s="33" t="n">
         <v>0</v>
@@ -3439,14 +3292,14 @@
         <v>0</v>
       </c>
       <c r="P23" s="34" t="n">
-        <v>70.5</v>
+        <v>12.9</v>
       </c>
       <c r="Q23" s="34" t="n">
-        <v>49861</v>
+        <v>10980</v>
       </c>
       <c r="R23" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -3464,7 +3317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3505,7 +3358,7 @@
       <c r="D5" s="14" t="n"/>
       <c r="E5" s="15" t="inlineStr">
         <is>
-          <t>admin3</t>
+          <t>admin1</t>
         </is>
       </c>
       <c r="F5" s="15" t="inlineStr">
@@ -3581,7 +3434,7 @@
       <c r="D6" s="21" t="n"/>
       <c r="E6" s="22" t="inlineStr">
         <is>
-          <t>MMR009018</t>
+          <t>MMR001</t>
         </is>
       </c>
       <c r="F6" s="22" t="inlineStr">
@@ -3590,25 +3443,25 @@
         </is>
       </c>
       <c r="G6" s="22" t="n">
-        <v>34288</v>
+        <v>13447</v>
       </c>
       <c r="H6" s="23" t="n">
-        <v>72</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>24698</v>
+        <v>9556</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>28</v>
+        <v>19.4</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>9590</v>
+        <v>2609</v>
       </c>
       <c r="L6" s="25" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="M6" s="25" t="n">
-        <v>0</v>
+        <v>1282</v>
       </c>
       <c r="N6" s="26" t="n">
         <v>0</v>
@@ -3617,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="27" t="n">
-        <v>28</v>
+        <v>28.9</v>
       </c>
       <c r="Q6" s="27" t="n">
-        <v>9590</v>
+        <v>3891</v>
       </c>
       <c r="R6" s="28" t="inlineStr">
         <is>
@@ -3635,7 +3488,7 @@
       <c r="D7" s="21" t="n"/>
       <c r="E7" s="22" t="inlineStr">
         <is>
-          <t>MMR009020</t>
+          <t>MMR002</t>
         </is>
       </c>
       <c r="F7" s="22" t="inlineStr">
@@ -3644,37 +3497,37 @@
         </is>
       </c>
       <c r="G7" s="22" t="n">
-        <v>67088</v>
+        <v>7041</v>
       </c>
       <c r="H7" s="23" t="n">
-        <v>0</v>
+        <v>32.9</v>
       </c>
       <c r="I7" s="23" t="n">
-        <v>0</v>
+        <v>2317</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>100</v>
+        <v>60.4</v>
       </c>
       <c r="K7" s="24" t="n">
-        <v>67088</v>
+        <v>4250</v>
       </c>
       <c r="L7" s="25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="25" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="N7" s="26" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O7" s="26" t="n">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="P7" s="27" t="n">
-        <v>100</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="Q7" s="27" t="n">
-        <v>67088</v>
+        <v>4724</v>
       </c>
       <c r="R7" s="28" t="inlineStr">
         <is>
@@ -3689,7 +3542,7 @@
       <c r="D8" s="21" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>MMR012001</t>
+          <t>MMR003</t>
         </is>
       </c>
       <c r="F8" s="22" t="inlineStr">
@@ -3698,37 +3551,37 @@
         </is>
       </c>
       <c r="G8" s="22" t="n">
-        <v>29534</v>
+        <v>10157</v>
       </c>
       <c r="H8" s="23" t="n">
-        <v>26.9</v>
+        <v>45.1</v>
       </c>
       <c r="I8" s="23" t="n">
-        <v>7934</v>
+        <v>4586</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>57.2</v>
+        <v>47</v>
       </c>
       <c r="K8" s="24" t="n">
-        <v>16882</v>
+        <v>4772</v>
       </c>
       <c r="L8" s="25" t="n">
-        <v>16</v>
+        <v>3.9</v>
       </c>
       <c r="M8" s="25" t="n">
-        <v>4718</v>
+        <v>397</v>
       </c>
       <c r="N8" s="26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O8" s="26" t="n">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="P8" s="27" t="n">
-        <v>73.09999999999999</v>
+        <v>54.9</v>
       </c>
       <c r="Q8" s="27" t="n">
-        <v>21600</v>
+        <v>5571</v>
       </c>
       <c r="R8" s="28" t="inlineStr">
         <is>
@@ -3743,7 +3596,7 @@
       <c r="D9" s="21" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>MMR012003</t>
+          <t>MMR004</t>
         </is>
       </c>
       <c r="F9" s="22" t="inlineStr">
@@ -3752,37 +3605,37 @@
         </is>
       </c>
       <c r="G9" s="22" t="n">
-        <v>13447</v>
+        <v>11337</v>
       </c>
       <c r="H9" s="23" t="n">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="I9" s="23" t="n">
-        <v>0</v>
+        <v>2741</v>
       </c>
       <c r="J9" s="24" t="n">
-        <v>100</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="K9" s="24" t="n">
-        <v>13447</v>
+        <v>8270</v>
       </c>
       <c r="L9" s="25" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="M9" s="25" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="N9" s="26" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O9" s="26" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P9" s="27" t="n">
-        <v>100</v>
+        <v>75.8</v>
       </c>
       <c r="Q9" s="27" t="n">
-        <v>13447</v>
+        <v>8595</v>
       </c>
       <c r="R9" s="28" t="inlineStr">
         <is>
@@ -3797,7 +3650,7 @@
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>MMR012005</t>
+          <t>MMR005</t>
         </is>
       </c>
       <c r="F10" s="22" t="inlineStr">
@@ -3806,37 +3659,37 @@
         </is>
       </c>
       <c r="G10" s="22" t="n">
-        <v>11337</v>
+        <v>29534</v>
       </c>
       <c r="H10" s="23" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I10" s="23" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="J10" s="24" t="n">
-        <v>100</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K10" s="24" t="n">
-        <v>11337</v>
+        <v>25358</v>
       </c>
       <c r="L10" s="25" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="M10" s="25" t="n">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="N10" s="26" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O10" s="26" t="n">
-        <v>0</v>
+        <v>2590</v>
       </c>
       <c r="P10" s="27" t="n">
-        <v>100</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="Q10" s="27" t="n">
-        <v>11337</v>
+        <v>28614</v>
       </c>
       <c r="R10" s="28" t="inlineStr">
         <is>
@@ -3851,7 +3704,7 @@
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>MMR012007</t>
+          <t>MMR006</t>
         </is>
       </c>
       <c r="F11" s="22" t="inlineStr">
@@ -3860,41 +3713,41 @@
         </is>
       </c>
       <c r="G11" s="22" t="n">
-        <v>10157</v>
+        <v>40604</v>
       </c>
       <c r="H11" s="23" t="n">
-        <v>54.8</v>
+        <v>34.5</v>
       </c>
       <c r="I11" s="23" t="n">
-        <v>5567</v>
+        <v>14021</v>
       </c>
       <c r="J11" s="24" t="n">
-        <v>19</v>
+        <v>56.6</v>
       </c>
       <c r="K11" s="24" t="n">
-        <v>1928</v>
+        <v>22975</v>
       </c>
       <c r="L11" s="25" t="n">
-        <v>18.1</v>
+        <v>5.9</v>
       </c>
       <c r="M11" s="25" t="n">
-        <v>1841</v>
+        <v>2407</v>
       </c>
       <c r="N11" s="26" t="n">
-        <v>8.1</v>
+        <v>3</v>
       </c>
       <c r="O11" s="26" t="n">
-        <v>821</v>
+        <v>1201</v>
       </c>
       <c r="P11" s="27" t="n">
-        <v>45.2</v>
+        <v>65.5</v>
       </c>
       <c r="Q11" s="27" t="n">
-        <v>4591</v>
+        <v>26583</v>
       </c>
       <c r="R11" s="28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3758,7 @@
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>MMR012010</t>
+          <t>MMR007</t>
         </is>
       </c>
       <c r="F12" s="22" t="inlineStr">
@@ -3914,25 +3767,25 @@
         </is>
       </c>
       <c r="G12" s="22" t="n">
-        <v>14770</v>
+        <v>16305</v>
       </c>
       <c r="H12" s="23" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="I12" s="23" t="n">
-        <v>14770</v>
+        <v>10879</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K12" s="24" t="n">
-        <v>0</v>
+        <v>4239</v>
       </c>
       <c r="L12" s="25" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="M12" s="25" t="n">
-        <v>0</v>
+        <v>1186</v>
       </c>
       <c r="N12" s="26" t="n">
         <v>0</v>
@@ -3941,14 +3794,14 @@
         <v>0</v>
       </c>
       <c r="P12" s="27" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="Q12" s="27" t="n">
-        <v>0</v>
+        <v>5425</v>
       </c>
       <c r="R12" s="28" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3812,7 @@
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>MMR001001</t>
+          <t>MMR009</t>
         </is>
       </c>
       <c r="F13" s="22" t="inlineStr">
@@ -3968,37 +3821,37 @@
         </is>
       </c>
       <c r="G13" s="22" t="n">
-        <v>29534</v>
+        <v>11138</v>
       </c>
       <c r="H13" s="23" t="n">
-        <v>69.90000000000001</v>
+        <v>43</v>
       </c>
       <c r="I13" s="23" t="n">
-        <v>20633</v>
+        <v>4790</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>13.1</v>
+        <v>43.9</v>
       </c>
       <c r="K13" s="24" t="n">
-        <v>3867</v>
+        <v>4886</v>
       </c>
       <c r="L13" s="25" t="n">
-        <v>17</v>
+        <v>7.4</v>
       </c>
       <c r="M13" s="25" t="n">
-        <v>5034</v>
+        <v>829</v>
       </c>
       <c r="N13" s="26" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="O13" s="26" t="n">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="P13" s="27" t="n">
-        <v>30.1</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="27" t="n">
-        <v>8900</v>
+        <v>6349</v>
       </c>
       <c r="R13" s="28" t="inlineStr">
         <is>
@@ -4013,7 +3866,7 @@
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>MMR001002</t>
+          <t>MMR011</t>
         </is>
       </c>
       <c r="F14" s="22" t="inlineStr">
@@ -4022,37 +3875,37 @@
         </is>
       </c>
       <c r="G14" s="22" t="n">
-        <v>13447</v>
+        <v>13395</v>
       </c>
       <c r="H14" s="23" t="n">
-        <v>69.90000000000001</v>
+        <v>50.4</v>
       </c>
       <c r="I14" s="23" t="n">
-        <v>9394</v>
+        <v>6748</v>
       </c>
       <c r="J14" s="24" t="n">
-        <v>13.1</v>
+        <v>32.7</v>
       </c>
       <c r="K14" s="24" t="n">
-        <v>1761</v>
+        <v>4379</v>
       </c>
       <c r="L14" s="25" t="n">
-        <v>17</v>
+        <v>6.9</v>
       </c>
       <c r="M14" s="25" t="n">
-        <v>2292</v>
+        <v>928</v>
       </c>
       <c r="N14" s="26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O14" s="26" t="n">
-        <v>0</v>
+        <v>1340</v>
       </c>
       <c r="P14" s="27" t="n">
-        <v>30.1</v>
+        <v>49.6</v>
       </c>
       <c r="Q14" s="27" t="n">
-        <v>4052</v>
+        <v>6647</v>
       </c>
       <c r="R14" s="28" t="inlineStr">
         <is>
@@ -4067,7 +3920,7 @@
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>MMR001004</t>
+          <t>MMR012</t>
         </is>
       </c>
       <c r="F15" s="22" t="inlineStr">
@@ -4076,37 +3929,37 @@
         </is>
       </c>
       <c r="G15" s="22" t="n">
-        <v>12182</v>
+        <v>14770</v>
       </c>
       <c r="H15" s="23" t="n">
-        <v>69.90000000000001</v>
+        <v>30.4</v>
       </c>
       <c r="I15" s="23" t="n">
-        <v>8511</v>
+        <v>4494</v>
       </c>
       <c r="J15" s="24" t="n">
-        <v>13.1</v>
+        <v>53.1</v>
       </c>
       <c r="K15" s="24" t="n">
-        <v>1595</v>
+        <v>7847</v>
       </c>
       <c r="L15" s="25" t="n">
-        <v>17</v>
+        <v>14.7</v>
       </c>
       <c r="M15" s="25" t="n">
-        <v>2076</v>
+        <v>2164</v>
       </c>
       <c r="N15" s="26" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O15" s="26" t="n">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="P15" s="27" t="n">
-        <v>30.1</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="Q15" s="27" t="n">
-        <v>3671</v>
+        <v>10275</v>
       </c>
       <c r="R15" s="28" t="inlineStr">
         <is>
@@ -4121,7 +3974,7 @@
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>MMR002005</t>
+          <t>MMR014</t>
         </is>
       </c>
       <c r="F16" s="22" t="inlineStr">
@@ -4130,25 +3983,25 @@
         </is>
       </c>
       <c r="G16" s="22" t="n">
-        <v>11769</v>
+        <v>34288</v>
       </c>
       <c r="H16" s="23" t="n">
-        <v>46.7</v>
+        <v>53.5</v>
       </c>
       <c r="I16" s="23" t="n">
-        <v>5498</v>
+        <v>18348</v>
       </c>
       <c r="J16" s="24" t="n">
-        <v>43.6</v>
+        <v>42.8</v>
       </c>
       <c r="K16" s="24" t="n">
-        <v>5135</v>
+        <v>14670</v>
       </c>
       <c r="L16" s="25" t="n">
-        <v>9.699999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="M16" s="25" t="n">
-        <v>1136</v>
+        <v>1269</v>
       </c>
       <c r="N16" s="26" t="n">
         <v>0</v>
@@ -4157,10 +4010,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="27" t="n">
-        <v>53.3</v>
+        <v>46.5</v>
       </c>
       <c r="Q16" s="27" t="n">
-        <v>6271</v>
+        <v>15939</v>
       </c>
       <c r="R16" s="28" t="inlineStr">
         <is>
@@ -4173,104 +4026,50 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
-      <c r="E17" s="22" t="inlineStr">
-        <is>
-          <t>MMR002006</t>
-        </is>
-      </c>
-      <c r="F17" s="22" t="inlineStr">
+      <c r="E17" s="29" t="inlineStr">
+        <is>
+          <t>MMR015</t>
+        </is>
+      </c>
+      <c r="F17" s="29" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="G17" s="22" t="n">
-        <v>40604</v>
-      </c>
-      <c r="H17" s="23" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="I17" s="23" t="n">
-        <v>18968</v>
-      </c>
-      <c r="J17" s="24" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="K17" s="24" t="n">
-        <v>17715</v>
-      </c>
-      <c r="L17" s="25" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M17" s="25" t="n">
-        <v>3920</v>
-      </c>
-      <c r="N17" s="26" t="n">
+      <c r="G17" s="29" t="n">
+        <v>24796</v>
+      </c>
+      <c r="H17" s="30" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="I17" s="30" t="n">
+        <v>3983</v>
+      </c>
+      <c r="J17" s="31" t="n">
+        <v>81</v>
+      </c>
+      <c r="K17" s="31" t="n">
+        <v>20096</v>
+      </c>
+      <c r="L17" s="32" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M17" s="32" t="n">
+        <v>718</v>
+      </c>
+      <c r="N17" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="O17" s="26" t="n">
+      <c r="O17" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="P17" s="27" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="Q17" s="27" t="n">
-        <v>21636</v>
+      <c r="P17" s="34" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="Q17" s="34" t="n">
+        <v>20813</v>
       </c>
       <c r="R17" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="21" t="n"/>
-      <c r="B18" s="21" t="n"/>
-      <c r="C18" s="21" t="n"/>
-      <c r="D18" s="21" t="n"/>
-      <c r="E18" s="29" t="inlineStr">
-        <is>
-          <t>MMR002007</t>
-        </is>
-      </c>
-      <c r="F18" s="29" t="inlineStr">
-        <is>
-          <t>idp</t>
-        </is>
-      </c>
-      <c r="G18" s="29" t="n">
-        <v>10109</v>
-      </c>
-      <c r="H18" s="30" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="I18" s="30" t="n">
-        <v>4722</v>
-      </c>
-      <c r="J18" s="31" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="K18" s="31" t="n">
-        <v>4410</v>
-      </c>
-      <c r="L18" s="32" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M18" s="32" t="n">
-        <v>976</v>
-      </c>
-      <c r="N18" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="34" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="Q18" s="34" t="n">
-        <v>5386</v>
-      </c>
-      <c r="R18" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4290,7 +4089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4331,7 +4130,7 @@
       <c r="D5" s="14" t="n"/>
       <c r="E5" s="15" t="inlineStr">
         <is>
-          <t>admin3</t>
+          <t>admin1</t>
         </is>
       </c>
       <c r="F5" s="15" t="inlineStr">
@@ -4407,7 +4206,7 @@
       <c r="D6" s="21" t="n"/>
       <c r="E6" s="22" t="inlineStr">
         <is>
-          <t>MMR009019</t>
+          <t>MMR001</t>
         </is>
       </c>
       <c r="F6" s="22" t="inlineStr">
@@ -4416,25 +4215,25 @@
         </is>
       </c>
       <c r="G6" s="22" t="n">
-        <v>3520</v>
+        <v>6723</v>
       </c>
       <c r="H6" s="23" t="n">
-        <v>0</v>
+        <v>59.9</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>0</v>
+        <v>4030</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>100</v>
+        <v>36.4</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>3520</v>
+        <v>2445</v>
       </c>
       <c r="L6" s="25" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="M6" s="25" t="n">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="N6" s="26" t="n">
         <v>0</v>
@@ -4443,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="27" t="n">
-        <v>100</v>
+        <v>40.1</v>
       </c>
       <c r="Q6" s="27" t="n">
-        <v>3520</v>
+        <v>2694</v>
       </c>
       <c r="R6" s="28" t="inlineStr">
         <is>
@@ -4461,7 +4260,7 @@
       <c r="D7" s="21" t="n"/>
       <c r="E7" s="22" t="inlineStr">
         <is>
-          <t>MMR009020</t>
+          <t>MMR002</t>
         </is>
       </c>
       <c r="F7" s="22" t="inlineStr">
@@ -4470,37 +4269,37 @@
         </is>
       </c>
       <c r="G7" s="22" t="n">
-        <v>33544</v>
+        <v>3520</v>
       </c>
       <c r="H7" s="23" t="n">
-        <v>0</v>
+        <v>16.4</v>
       </c>
       <c r="I7" s="23" t="n">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>100</v>
+        <v>72.7</v>
       </c>
       <c r="K7" s="24" t="n">
-        <v>33544</v>
+        <v>2559</v>
       </c>
       <c r="L7" s="25" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="M7" s="25" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N7" s="26" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="O7" s="26" t="n">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="P7" s="27" t="n">
-        <v>100</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="Q7" s="27" t="n">
-        <v>33544</v>
+        <v>2942</v>
       </c>
       <c r="R7" s="28" t="inlineStr">
         <is>
@@ -4515,7 +4314,7 @@
       <c r="D8" s="21" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>MMR012001</t>
+          <t>MMR003</t>
         </is>
       </c>
       <c r="F8" s="22" t="inlineStr">
@@ -4524,25 +4323,25 @@
         </is>
       </c>
       <c r="G8" s="22" t="n">
-        <v>14767</v>
+        <v>5079</v>
       </c>
       <c r="H8" s="23" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="I8" s="23" t="n">
-        <v>7322</v>
+        <v>2498</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>20.2</v>
+        <v>50.2</v>
       </c>
       <c r="K8" s="24" t="n">
-        <v>2978</v>
+        <v>2548</v>
       </c>
       <c r="L8" s="25" t="n">
-        <v>30.3</v>
+        <v>0.6</v>
       </c>
       <c r="M8" s="25" t="n">
-        <v>4467</v>
+        <v>33</v>
       </c>
       <c r="N8" s="26" t="n">
         <v>0</v>
@@ -4551,14 +4350,14 @@
         <v>0</v>
       </c>
       <c r="P8" s="27" t="n">
-        <v>50.4</v>
+        <v>50.8</v>
       </c>
       <c r="Q8" s="27" t="n">
-        <v>7445</v>
+        <v>2581</v>
       </c>
       <c r="R8" s="28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4368,7 @@
       <c r="D9" s="21" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>MMR012003</t>
+          <t>MMR004</t>
         </is>
       </c>
       <c r="F9" s="22" t="inlineStr">
@@ -4578,25 +4377,25 @@
         </is>
       </c>
       <c r="G9" s="22" t="n">
-        <v>6723</v>
+        <v>5668</v>
       </c>
       <c r="H9" s="23" t="n">
-        <v>0</v>
+        <v>40.7</v>
       </c>
       <c r="I9" s="23" t="n">
-        <v>0</v>
+        <v>2306</v>
       </c>
       <c r="J9" s="24" t="n">
-        <v>100</v>
+        <v>54.4</v>
       </c>
       <c r="K9" s="24" t="n">
-        <v>6723</v>
+        <v>3082</v>
       </c>
       <c r="L9" s="25" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="M9" s="25" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="N9" s="26" t="n">
         <v>0</v>
@@ -4605,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="27" t="n">
-        <v>100</v>
+        <v>59.3</v>
       </c>
       <c r="Q9" s="27" t="n">
-        <v>6723</v>
+        <v>3362</v>
       </c>
       <c r="R9" s="28" t="inlineStr">
         <is>
@@ -4623,7 +4422,7 @@
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>MMR012004</t>
+          <t>MMR005</t>
         </is>
       </c>
       <c r="F10" s="22" t="inlineStr">
@@ -4632,19 +4431,19 @@
         </is>
       </c>
       <c r="G10" s="22" t="n">
-        <v>6091</v>
+        <v>14767</v>
       </c>
       <c r="H10" s="23" t="n">
-        <v>84.09999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="I10" s="23" t="n">
-        <v>5120</v>
+        <v>1117</v>
       </c>
       <c r="J10" s="24" t="n">
-        <v>15.9</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="K10" s="24" t="n">
-        <v>971</v>
+        <v>13650</v>
       </c>
       <c r="L10" s="25" t="n">
         <v>0</v>
@@ -4659,14 +4458,14 @@
         <v>0</v>
       </c>
       <c r="P10" s="27" t="n">
-        <v>15.9</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="Q10" s="27" t="n">
-        <v>971</v>
+        <v>13650</v>
       </c>
       <c r="R10" s="28" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4476,7 @@
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>MMR012005</t>
+          <t>MMR006</t>
         </is>
       </c>
       <c r="F11" s="22" t="inlineStr">
@@ -4686,25 +4485,25 @@
         </is>
       </c>
       <c r="G11" s="22" t="n">
-        <v>5668</v>
+        <v>20302</v>
       </c>
       <c r="H11" s="23" t="n">
-        <v>50.8</v>
+        <v>55</v>
       </c>
       <c r="I11" s="23" t="n">
-        <v>2879</v>
+        <v>11160</v>
       </c>
       <c r="J11" s="24" t="n">
-        <v>49.2</v>
+        <v>38.9</v>
       </c>
       <c r="K11" s="24" t="n">
-        <v>2789</v>
+        <v>7903</v>
       </c>
       <c r="L11" s="25" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="M11" s="25" t="n">
-        <v>0</v>
+        <v>1239</v>
       </c>
       <c r="N11" s="26" t="n">
         <v>0</v>
@@ -4713,10 +4512,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="27" t="n">
-        <v>49.2</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="27" t="n">
-        <v>2789</v>
+        <v>9142</v>
       </c>
       <c r="R11" s="28" t="inlineStr">
         <is>
@@ -4731,7 +4530,7 @@
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>MMR012006</t>
+          <t>MMR007</t>
         </is>
       </c>
       <c r="F12" s="22" t="inlineStr">
@@ -4740,25 +4539,25 @@
         </is>
       </c>
       <c r="G12" s="22" t="n">
-        <v>12398</v>
+        <v>8152</v>
       </c>
       <c r="H12" s="23" t="n">
-        <v>56.5</v>
+        <v>47.3</v>
       </c>
       <c r="I12" s="23" t="n">
-        <v>7003</v>
+        <v>3858</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>43.5</v>
+        <v>48.4</v>
       </c>
       <c r="K12" s="24" t="n">
-        <v>5395</v>
+        <v>3942</v>
       </c>
       <c r="L12" s="25" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="M12" s="25" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="N12" s="26" t="n">
         <v>0</v>
@@ -4767,10 +4566,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="27" t="n">
-        <v>43.5</v>
+        <v>52.7</v>
       </c>
       <c r="Q12" s="27" t="n">
-        <v>5395</v>
+        <v>4295</v>
       </c>
       <c r="R12" s="28" t="inlineStr">
         <is>
@@ -4785,7 +4584,7 @@
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>MMR012014</t>
+          <t>MMR009</t>
         </is>
       </c>
       <c r="F13" s="22" t="inlineStr">
@@ -4794,37 +4593,37 @@
         </is>
       </c>
       <c r="G13" s="22" t="n">
-        <v>33544</v>
+        <v>5569</v>
       </c>
       <c r="H13" s="23" t="n">
-        <v>55.1</v>
+        <v>28</v>
       </c>
       <c r="I13" s="23" t="n">
-        <v>18497</v>
+        <v>1561</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>44.9</v>
+        <v>53.7</v>
       </c>
       <c r="K13" s="24" t="n">
-        <v>15047</v>
+        <v>2990</v>
       </c>
       <c r="L13" s="25" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="M13" s="25" t="n">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="N13" s="26" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="O13" s="26" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="P13" s="27" t="n">
-        <v>44.9</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="27" t="n">
-        <v>15047</v>
+        <v>4009</v>
       </c>
       <c r="R13" s="28" t="inlineStr">
         <is>
@@ -4839,7 +4638,7 @@
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>MMR001001</t>
+          <t>MMR011</t>
         </is>
       </c>
       <c r="F14" s="22" t="inlineStr">
@@ -4848,37 +4647,37 @@
         </is>
       </c>
       <c r="G14" s="22" t="n">
-        <v>14767</v>
+        <v>6697</v>
       </c>
       <c r="H14" s="23" t="n">
-        <v>57</v>
+        <v>53.4</v>
       </c>
       <c r="I14" s="23" t="n">
-        <v>8414</v>
+        <v>3575</v>
       </c>
       <c r="J14" s="24" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K14" s="24" t="n">
-        <v>6353</v>
+        <v>2073</v>
       </c>
       <c r="L14" s="25" t="n">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="M14" s="25" t="n">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="N14" s="26" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O14" s="26" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="P14" s="27" t="n">
-        <v>43</v>
+        <v>46.6</v>
       </c>
       <c r="Q14" s="27" t="n">
-        <v>6353</v>
+        <v>3122</v>
       </c>
       <c r="R14" s="28" t="inlineStr">
         <is>
@@ -4893,7 +4692,7 @@
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>MMR001002</t>
+          <t>MMR012</t>
         </is>
       </c>
       <c r="F15" s="22" t="inlineStr">
@@ -4902,37 +4701,37 @@
         </is>
       </c>
       <c r="G15" s="22" t="n">
-        <v>6723</v>
+        <v>7385</v>
       </c>
       <c r="H15" s="23" t="n">
-        <v>57</v>
+        <v>32.9</v>
       </c>
       <c r="I15" s="23" t="n">
-        <v>3831</v>
+        <v>2428</v>
       </c>
       <c r="J15" s="24" t="n">
-        <v>43</v>
+        <v>58.4</v>
       </c>
       <c r="K15" s="24" t="n">
-        <v>2893</v>
+        <v>4312</v>
       </c>
       <c r="L15" s="25" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="M15" s="25" t="n">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="N15" s="26" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O15" s="26" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P15" s="27" t="n">
-        <v>43</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="Q15" s="27" t="n">
-        <v>2893</v>
+        <v>4957</v>
       </c>
       <c r="R15" s="28" t="inlineStr">
         <is>
@@ -4947,7 +4746,7 @@
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>MMR001004</t>
+          <t>MMR014</t>
         </is>
       </c>
       <c r="F16" s="22" t="inlineStr">
@@ -4956,25 +4755,25 @@
         </is>
       </c>
       <c r="G16" s="22" t="n">
-        <v>6091</v>
+        <v>17144</v>
       </c>
       <c r="H16" s="23" t="n">
-        <v>57</v>
+        <v>59.3</v>
       </c>
       <c r="I16" s="23" t="n">
-        <v>3471</v>
+        <v>10164</v>
       </c>
       <c r="J16" s="24" t="n">
-        <v>43</v>
+        <v>20.6</v>
       </c>
       <c r="K16" s="24" t="n">
-        <v>2621</v>
+        <v>3540</v>
       </c>
       <c r="L16" s="25" t="n">
-        <v>0</v>
+        <v>20.1</v>
       </c>
       <c r="M16" s="25" t="n">
-        <v>0</v>
+        <v>3440</v>
       </c>
       <c r="N16" s="26" t="n">
         <v>0</v>
@@ -4983,14 +4782,14 @@
         <v>0</v>
       </c>
       <c r="P16" s="27" t="n">
-        <v>43</v>
+        <v>40.7</v>
       </c>
       <c r="Q16" s="27" t="n">
-        <v>2621</v>
+        <v>6980</v>
       </c>
       <c r="R16" s="28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4999,158 +4798,50 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
-      <c r="E17" s="22" t="inlineStr">
-        <is>
-          <t>MMR002005</t>
-        </is>
-      </c>
-      <c r="F17" s="22" t="inlineStr">
+      <c r="E17" s="29" t="inlineStr">
+        <is>
+          <t>MMR015</t>
+        </is>
+      </c>
+      <c r="F17" s="29" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="G17" s="22" t="n">
-        <v>5884</v>
-      </c>
-      <c r="H17" s="23" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="I17" s="23" t="n">
-        <v>662</v>
-      </c>
-      <c r="J17" s="24" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="K17" s="24" t="n">
-        <v>5052</v>
-      </c>
-      <c r="L17" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="26" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O17" s="26" t="n">
-        <v>170</v>
-      </c>
-      <c r="P17" s="27" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="Q17" s="27" t="n">
-        <v>5222</v>
+      <c r="G17" s="29" t="n">
+        <v>12398</v>
+      </c>
+      <c r="H17" s="30" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="I17" s="30" t="n">
+        <v>4546</v>
+      </c>
+      <c r="J17" s="31" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="K17" s="31" t="n">
+        <v>6407</v>
+      </c>
+      <c r="L17" s="32" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="M17" s="32" t="n">
+        <v>782</v>
+      </c>
+      <c r="N17" s="33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O17" s="33" t="n">
+        <v>663</v>
+      </c>
+      <c r="P17" s="34" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="Q17" s="34" t="n">
+        <v>7852</v>
       </c>
       <c r="R17" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="21" t="n"/>
-      <c r="B18" s="21" t="n"/>
-      <c r="C18" s="21" t="n"/>
-      <c r="D18" s="21" t="n"/>
-      <c r="E18" s="22" t="inlineStr">
-        <is>
-          <t>MMR002006</t>
-        </is>
-      </c>
-      <c r="F18" s="22" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="G18" s="22" t="n">
-        <v>20302</v>
-      </c>
-      <c r="H18" s="23" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="I18" s="23" t="n">
-        <v>2286</v>
-      </c>
-      <c r="J18" s="24" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="K18" s="24" t="n">
-        <v>17429</v>
-      </c>
-      <c r="L18" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="26" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O18" s="26" t="n">
-        <v>587</v>
-      </c>
-      <c r="P18" s="27" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="Q18" s="27" t="n">
-        <v>18016</v>
-      </c>
-      <c r="R18" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="21" t="n"/>
-      <c r="B19" s="21" t="n"/>
-      <c r="C19" s="21" t="n"/>
-      <c r="D19" s="21" t="n"/>
-      <c r="E19" s="29" t="inlineStr">
-        <is>
-          <t>MMR002007</t>
-        </is>
-      </c>
-      <c r="F19" s="29" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="G19" s="29" t="n">
-        <v>5054</v>
-      </c>
-      <c r="H19" s="30" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="I19" s="30" t="n">
-        <v>569</v>
-      </c>
-      <c r="J19" s="31" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="K19" s="31" t="n">
-        <v>4339</v>
-      </c>
-      <c r="L19" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="33" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O19" s="33" t="n">
-        <v>146</v>
-      </c>
-      <c r="P19" s="34" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="Q19" s="34" t="n">
-        <v>4485</v>
-      </c>
-      <c r="R19" s="28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -5170,7 +4861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5211,7 +4902,7 @@
       <c r="D5" s="14" t="n"/>
       <c r="E5" s="15" t="inlineStr">
         <is>
-          <t>admin3</t>
+          <t>admin1</t>
         </is>
       </c>
       <c r="F5" s="15" t="inlineStr">
@@ -5285,322 +4976,52 @@
       <c r="B6" s="21" t="n"/>
       <c r="C6" s="21" t="n"/>
       <c r="D6" s="21" t="n"/>
-      <c r="E6" s="22" t="inlineStr">
-        <is>
-          <t>MMR012001</t>
-        </is>
-      </c>
-      <c r="F6" s="22" t="inlineStr">
+      <c r="E6" s="29" t="inlineStr">
+        <is>
+          <t>MMR012</t>
+        </is>
+      </c>
+      <c r="F6" s="29" t="inlineStr">
         <is>
           <t>ndsp</t>
         </is>
       </c>
-      <c r="G6" s="22" t="n">
-        <v>44301</v>
-      </c>
-      <c r="H6" s="23" t="n">
-        <v>23</v>
-      </c>
-      <c r="I6" s="23" t="n">
-        <v>10207</v>
-      </c>
-      <c r="J6" s="24" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="K6" s="24" t="n">
-        <v>22014</v>
-      </c>
-      <c r="L6" s="25" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="M6" s="25" t="n">
-        <v>12079</v>
-      </c>
-      <c r="N6" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="27" t="n">
-        <v>77</v>
-      </c>
-      <c r="Q6" s="27" t="n">
-        <v>34094</v>
+      <c r="G6" s="29" t="n">
+        <v>22154</v>
+      </c>
+      <c r="H6" s="30" t="n">
+        <v>32</v>
+      </c>
+      <c r="I6" s="30" t="n">
+        <v>7094</v>
+      </c>
+      <c r="J6" s="31" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="K6" s="31" t="n">
+        <v>13492</v>
+      </c>
+      <c r="L6" s="32" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="M6" s="32" t="n">
+        <v>1507</v>
+      </c>
+      <c r="N6" s="33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O6" s="33" t="n">
+        <v>62</v>
+      </c>
+      <c r="P6" s="34" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="34" t="n">
+        <v>15060</v>
       </c>
       <c r="R6" s="28" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="21" t="n"/>
-      <c r="B7" s="21" t="n"/>
-      <c r="C7" s="21" t="n"/>
-      <c r="D7" s="21" t="n"/>
-      <c r="E7" s="22" t="inlineStr">
-        <is>
-          <t>MMR012003</t>
-        </is>
-      </c>
-      <c r="F7" s="22" t="inlineStr">
-        <is>
-          <t>ndsp</t>
-        </is>
-      </c>
-      <c r="G7" s="22" t="n">
-        <v>20170</v>
-      </c>
-      <c r="H7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="24" t="n">
-        <v>100</v>
-      </c>
-      <c r="K7" s="24" t="n">
-        <v>20170</v>
-      </c>
-      <c r="L7" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="27" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="27" t="n">
-        <v>20170</v>
-      </c>
-      <c r="R7" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="21" t="n"/>
-      <c r="B8" s="21" t="n"/>
-      <c r="C8" s="21" t="n"/>
-      <c r="D8" s="21" t="n"/>
-      <c r="E8" s="22" t="inlineStr">
-        <is>
-          <t>MMR012004</t>
-        </is>
-      </c>
-      <c r="F8" s="22" t="inlineStr">
-        <is>
-          <t>ndsp</t>
-        </is>
-      </c>
-      <c r="G8" s="22" t="n">
-        <v>18273</v>
-      </c>
-      <c r="H8" s="23" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="I8" s="23" t="n">
-        <v>14290</v>
-      </c>
-      <c r="J8" s="24" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="K8" s="24" t="n">
-        <v>3983</v>
-      </c>
-      <c r="L8" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="27" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="Q8" s="27" t="n">
-        <v>3983</v>
-      </c>
-      <c r="R8" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="21" t="n"/>
-      <c r="B9" s="21" t="n"/>
-      <c r="C9" s="21" t="n"/>
-      <c r="D9" s="21" t="n"/>
-      <c r="E9" s="22" t="inlineStr">
-        <is>
-          <t>MMR012005</t>
-        </is>
-      </c>
-      <c r="F9" s="22" t="inlineStr">
-        <is>
-          <t>ndsp</t>
-        </is>
-      </c>
-      <c r="G9" s="22" t="n">
-        <v>17005</v>
-      </c>
-      <c r="H9" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="24" t="n">
-        <v>100</v>
-      </c>
-      <c r="K9" s="24" t="n">
-        <v>17005</v>
-      </c>
-      <c r="L9" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="27" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="27" t="n">
-        <v>17005</v>
-      </c>
-      <c r="R9" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="21" t="n"/>
-      <c r="B10" s="21" t="n"/>
-      <c r="C10" s="21" t="n"/>
-      <c r="D10" s="21" t="n"/>
-      <c r="E10" s="22" t="inlineStr">
-        <is>
-          <t>MMR012007</t>
-        </is>
-      </c>
-      <c r="F10" s="22" t="inlineStr">
-        <is>
-          <t>ndsp</t>
-        </is>
-      </c>
-      <c r="G10" s="22" t="n">
-        <v>15236</v>
-      </c>
-      <c r="H10" s="23" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="I10" s="23" t="n">
-        <v>3554</v>
-      </c>
-      <c r="J10" s="24" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="K10" s="24" t="n">
-        <v>11682</v>
-      </c>
-      <c r="L10" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="27" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="Q10" s="27" t="n">
-        <v>11682</v>
-      </c>
-      <c r="R10" s="28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="21" t="n"/>
-      <c r="B11" s="21" t="n"/>
-      <c r="C11" s="21" t="n"/>
-      <c r="D11" s="21" t="n"/>
-      <c r="E11" s="29" t="inlineStr">
-        <is>
-          <t>MMR012010</t>
-        </is>
-      </c>
-      <c r="F11" s="29" t="inlineStr">
-        <is>
-          <t>ndsp</t>
-        </is>
-      </c>
-      <c r="G11" s="29" t="n">
-        <v>22154</v>
-      </c>
-      <c r="H11" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" s="30" t="n">
-        <v>22154</v>
-      </c>
-      <c r="J11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="28" t="inlineStr">
-        <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/output_validation/final__OCHA__platform_output.xlsx
+++ b/output_validation/final__OCHA__platform_output.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PiN TOTAL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PiN globale et sévérité" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PiN total par admin" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PiN -- non_pdi" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PiN -- pdi" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
@@ -1081,7 +1081,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="36" customWidth="1" min="5" max="5"/>
+    <col width="32" customWidth="1" min="5" max="5"/>
     <col width="19" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="27" customWidth="1" min="8" max="8"/>
@@ -1099,7 +1099,7 @@
     <row r="1">
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>PiN globale et sévérité (5-17 ans)</t>
+          <t>PiN total par admin (5-17 ans)</t>
         </is>
       </c>
     </row>
